--- a/docs/field_tester_table.xlsx
+++ b/docs/field_tester_table.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\retom\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositories\github\hslu-ige-laes\lora-devices-ttn\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF7F995D-0A61-4AAD-8E7C-A0838B481CF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71000FC2-003D-4D76-A491-27866ABF3D59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25695" yWindow="0" windowWidth="26010" windowHeight="20985" xr2:uid="{5E3F2E18-7DEC-441E-A9D7-951EC58CBC1B}"/>
+    <workbookView xWindow="25695" yWindow="0" windowWidth="26010" windowHeight="20985" activeTab="1" xr2:uid="{5E3F2E18-7DEC-441E-A9D7-951EC58CBC1B}"/>
   </bookViews>
   <sheets>
     <sheet name="table" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="72">
   <si>
     <t>DR</t>
   </si>
@@ -217,6 +217,42 @@
   </si>
   <si>
     <t>added new Gateway gtw-02</t>
+  </si>
+  <si>
+    <t>GOOD</t>
+  </si>
+  <si>
+    <t>EXCELLENT</t>
+  </si>
+  <si>
+    <t>-----&gt;  RSSI [dBm]</t>
+  </si>
+  <si>
+    <t>FAIR</t>
+  </si>
+  <si>
+    <t>BAD</t>
+  </si>
+  <si>
+    <t>LIMIT</t>
+  </si>
+  <si>
+    <t>-------&gt;   SNR [dB]</t>
+  </si>
+  <si>
+    <t>Floor</t>
+  </si>
+  <si>
+    <t>Room</t>
+  </si>
+  <si>
+    <t>Building</t>
+  </si>
+  <si>
+    <t>Noisy, SNR below limits for LoRa</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -320,7 +356,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="29">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -423,19 +459,6 @@
       </top>
       <bottom style="thin">
         <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -601,26 +624,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color theme="0" tint="-0.34998626667073579"/>
@@ -660,11 +663,62 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="150">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -675,9 +729,6 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -687,250 +738,426 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="34">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="17">
     <dxf>
       <font>
         <b/>
@@ -1052,6 +1279,13 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -1118,193 +1352,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="1" tint="0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="1" tint="0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="1" tint="0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="1" tint="0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="1" tint="0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="1" tint="0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="1" tint="0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="1" tint="0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="1" tint="0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -1329,81 +1376,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>107949</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>228599</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>1298574</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>36146</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Grafik 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEACC1DA-5E94-44AA-A9F1-164264CA0E54}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2308224" y="5000624"/>
-          <a:ext cx="7343775" cy="4179522"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>228600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1352732</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>111253</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1420,7 +1401,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1446,14 +1427,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>758825</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>15875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>1206500</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>39322</xdr:rowOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>50228</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1506,6 +1487,926 @@
         </a:extLst>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>51288</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>47626</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>149225</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Ellipse 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{783ADB17-017A-DE1F-28B3-A130D4C1AE9A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11318631" y="3897923"/>
+          <a:ext cx="1199418" cy="1563321"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+          <a:extLst>
+            <a:ext uri="{C807C97D-BFC1-408E-A445-0C87EB9F89A2}">
+              <ask:lineSketchStyleProps xmlns:ask="http://schemas.microsoft.com/office/drawing/2018/sketchyshapes" sd="2650216993">
+                <a:custGeom>
+                  <a:avLst/>
+                  <a:gdLst>
+                    <a:gd name="connsiteX0" fmla="*/ 0 w 457200"/>
+                    <a:gd name="connsiteY0" fmla="*/ 779463 h 1558925"/>
+                    <a:gd name="connsiteX1" fmla="*/ 228600 w 457200"/>
+                    <a:gd name="connsiteY1" fmla="*/ 0 h 1558925"/>
+                    <a:gd name="connsiteX2" fmla="*/ 457200 w 457200"/>
+                    <a:gd name="connsiteY2" fmla="*/ 779463 h 1558925"/>
+                    <a:gd name="connsiteX3" fmla="*/ 228600 w 457200"/>
+                    <a:gd name="connsiteY3" fmla="*/ 1558926 h 1558925"/>
+                    <a:gd name="connsiteX4" fmla="*/ 0 w 457200"/>
+                    <a:gd name="connsiteY4" fmla="*/ 779463 h 1558925"/>
+                  </a:gdLst>
+                  <a:ahLst/>
+                  <a:cxnLst>
+                    <a:cxn ang="0">
+                      <a:pos x="connsiteX0" y="connsiteY0"/>
+                    </a:cxn>
+                    <a:cxn ang="0">
+                      <a:pos x="connsiteX1" y="connsiteY1"/>
+                    </a:cxn>
+                    <a:cxn ang="0">
+                      <a:pos x="connsiteX2" y="connsiteY2"/>
+                    </a:cxn>
+                    <a:cxn ang="0">
+                      <a:pos x="connsiteX3" y="connsiteY3"/>
+                    </a:cxn>
+                    <a:cxn ang="0">
+                      <a:pos x="connsiteX4" y="connsiteY4"/>
+                    </a:cxn>
+                  </a:cxnLst>
+                  <a:rect l="l" t="t" r="r" b="b"/>
+                  <a:pathLst>
+                    <a:path w="457200" h="1558925" extrusionOk="0">
+                      <a:moveTo>
+                        <a:pt x="0" y="779463"/>
+                      </a:moveTo>
+                      <a:cubicBezTo>
+                        <a:pt x="-29412" y="350235"/>
+                        <a:pt x="108896" y="6437"/>
+                        <a:pt x="228600" y="0"/>
+                      </a:cubicBezTo>
+                      <a:cubicBezTo>
+                        <a:pt x="369641" y="30352"/>
+                        <a:pt x="458969" y="402956"/>
+                        <a:pt x="457200" y="779463"/>
+                      </a:cubicBezTo>
+                      <a:cubicBezTo>
+                        <a:pt x="443700" y="1189582"/>
+                        <a:pt x="359208" y="1564193"/>
+                        <a:pt x="228600" y="1558926"/>
+                      </a:cubicBezTo>
+                      <a:cubicBezTo>
+                        <a:pt x="115681" y="1509332"/>
+                        <a:pt x="21115" y="1249316"/>
+                        <a:pt x="0" y="779463"/>
+                      </a:cubicBezTo>
+                      <a:close/>
+                    </a:path>
+                  </a:pathLst>
+                </a:custGeom>
+                <ask:type>
+                  <ask:lineSketchNone/>
+                </ask:type>
+              </ask:lineSketchStyleProps>
+            </a:ext>
+          </a:extLst>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="de-CH" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>63499</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>107673</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Ellipse 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB61FAB3-366E-4FDE-BE28-86888B615475}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11319564" y="5504621"/>
+          <a:ext cx="1004957" cy="843170"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+          <a:extLst>
+            <a:ext uri="{C807C97D-BFC1-408E-A445-0C87EB9F89A2}">
+              <ask:lineSketchStyleProps xmlns:ask="http://schemas.microsoft.com/office/drawing/2018/sketchyshapes" sd="2650216993">
+                <a:custGeom>
+                  <a:avLst/>
+                  <a:gdLst>
+                    <a:gd name="connsiteX0" fmla="*/ 0 w 457200"/>
+                    <a:gd name="connsiteY0" fmla="*/ 779463 h 1558925"/>
+                    <a:gd name="connsiteX1" fmla="*/ 228600 w 457200"/>
+                    <a:gd name="connsiteY1" fmla="*/ 0 h 1558925"/>
+                    <a:gd name="connsiteX2" fmla="*/ 457200 w 457200"/>
+                    <a:gd name="connsiteY2" fmla="*/ 779463 h 1558925"/>
+                    <a:gd name="connsiteX3" fmla="*/ 228600 w 457200"/>
+                    <a:gd name="connsiteY3" fmla="*/ 1558926 h 1558925"/>
+                    <a:gd name="connsiteX4" fmla="*/ 0 w 457200"/>
+                    <a:gd name="connsiteY4" fmla="*/ 779463 h 1558925"/>
+                  </a:gdLst>
+                  <a:ahLst/>
+                  <a:cxnLst>
+                    <a:cxn ang="0">
+                      <a:pos x="connsiteX0" y="connsiteY0"/>
+                    </a:cxn>
+                    <a:cxn ang="0">
+                      <a:pos x="connsiteX1" y="connsiteY1"/>
+                    </a:cxn>
+                    <a:cxn ang="0">
+                      <a:pos x="connsiteX2" y="connsiteY2"/>
+                    </a:cxn>
+                    <a:cxn ang="0">
+                      <a:pos x="connsiteX3" y="connsiteY3"/>
+                    </a:cxn>
+                    <a:cxn ang="0">
+                      <a:pos x="connsiteX4" y="connsiteY4"/>
+                    </a:cxn>
+                  </a:cxnLst>
+                  <a:rect l="l" t="t" r="r" b="b"/>
+                  <a:pathLst>
+                    <a:path w="457200" h="1558925" extrusionOk="0">
+                      <a:moveTo>
+                        <a:pt x="0" y="779463"/>
+                      </a:moveTo>
+                      <a:cubicBezTo>
+                        <a:pt x="-29412" y="350235"/>
+                        <a:pt x="108896" y="6437"/>
+                        <a:pt x="228600" y="0"/>
+                      </a:cubicBezTo>
+                      <a:cubicBezTo>
+                        <a:pt x="369641" y="30352"/>
+                        <a:pt x="458969" y="402956"/>
+                        <a:pt x="457200" y="779463"/>
+                      </a:cubicBezTo>
+                      <a:cubicBezTo>
+                        <a:pt x="443700" y="1189582"/>
+                        <a:pt x="359208" y="1564193"/>
+                        <a:pt x="228600" y="1558926"/>
+                      </a:cubicBezTo>
+                      <a:cubicBezTo>
+                        <a:pt x="115681" y="1509332"/>
+                        <a:pt x="21115" y="1249316"/>
+                        <a:pt x="0" y="779463"/>
+                      </a:cubicBezTo>
+                      <a:close/>
+                    </a:path>
+                  </a:pathLst>
+                </a:custGeom>
+                <ask:type>
+                  <ask:lineSketchNone/>
+                </ask:type>
+              </ask:lineSketchStyleProps>
+            </a:ext>
+          </a:extLst>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="de-CH" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>182217</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Ellipse 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{611F0D77-485D-424F-912F-B3A506DA1041}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12399065" y="5686839"/>
+          <a:ext cx="1676952" cy="667302"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+          <a:extLst>
+            <a:ext uri="{C807C97D-BFC1-408E-A445-0C87EB9F89A2}">
+              <ask:lineSketchStyleProps xmlns:ask="http://schemas.microsoft.com/office/drawing/2018/sketchyshapes" sd="2650216993">
+                <a:custGeom>
+                  <a:avLst/>
+                  <a:gdLst>
+                    <a:gd name="connsiteX0" fmla="*/ 0 w 457200"/>
+                    <a:gd name="connsiteY0" fmla="*/ 779463 h 1558925"/>
+                    <a:gd name="connsiteX1" fmla="*/ 228600 w 457200"/>
+                    <a:gd name="connsiteY1" fmla="*/ 0 h 1558925"/>
+                    <a:gd name="connsiteX2" fmla="*/ 457200 w 457200"/>
+                    <a:gd name="connsiteY2" fmla="*/ 779463 h 1558925"/>
+                    <a:gd name="connsiteX3" fmla="*/ 228600 w 457200"/>
+                    <a:gd name="connsiteY3" fmla="*/ 1558926 h 1558925"/>
+                    <a:gd name="connsiteX4" fmla="*/ 0 w 457200"/>
+                    <a:gd name="connsiteY4" fmla="*/ 779463 h 1558925"/>
+                  </a:gdLst>
+                  <a:ahLst/>
+                  <a:cxnLst>
+                    <a:cxn ang="0">
+                      <a:pos x="connsiteX0" y="connsiteY0"/>
+                    </a:cxn>
+                    <a:cxn ang="0">
+                      <a:pos x="connsiteX1" y="connsiteY1"/>
+                    </a:cxn>
+                    <a:cxn ang="0">
+                      <a:pos x="connsiteX2" y="connsiteY2"/>
+                    </a:cxn>
+                    <a:cxn ang="0">
+                      <a:pos x="connsiteX3" y="connsiteY3"/>
+                    </a:cxn>
+                    <a:cxn ang="0">
+                      <a:pos x="connsiteX4" y="connsiteY4"/>
+                    </a:cxn>
+                  </a:cxnLst>
+                  <a:rect l="l" t="t" r="r" b="b"/>
+                  <a:pathLst>
+                    <a:path w="457200" h="1558925" extrusionOk="0">
+                      <a:moveTo>
+                        <a:pt x="0" y="779463"/>
+                      </a:moveTo>
+                      <a:cubicBezTo>
+                        <a:pt x="-29412" y="350235"/>
+                        <a:pt x="108896" y="6437"/>
+                        <a:pt x="228600" y="0"/>
+                      </a:cubicBezTo>
+                      <a:cubicBezTo>
+                        <a:pt x="369641" y="30352"/>
+                        <a:pt x="458969" y="402956"/>
+                        <a:pt x="457200" y="779463"/>
+                      </a:cubicBezTo>
+                      <a:cubicBezTo>
+                        <a:pt x="443700" y="1189582"/>
+                        <a:pt x="359208" y="1564193"/>
+                        <a:pt x="228600" y="1558926"/>
+                      </a:cubicBezTo>
+                      <a:cubicBezTo>
+                        <a:pt x="115681" y="1509332"/>
+                        <a:pt x="21115" y="1249316"/>
+                        <a:pt x="0" y="779463"/>
+                      </a:cubicBezTo>
+                      <a:close/>
+                    </a:path>
+                  </a:pathLst>
+                </a:custGeom>
+                <ask:type>
+                  <ask:lineSketchNone/>
+                </ask:type>
+              </ask:lineSketchStyleProps>
+            </a:ext>
+          </a:extLst>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="de-CH" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>486738</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>29308</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>190499</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>26133</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Textfeld 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF5CA0A7-435F-5287-0AB7-E9575D48A67A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10304815" y="2410558"/>
+          <a:ext cx="3806838" cy="1095863"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-CH" sz="1100" b="1"/>
+            <a:t>Far</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-CH" sz="1100" b="1" baseline="0"/>
+            <a:t> away environment or lot of obstacles, little noise:</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="de-CH" sz="1100" baseline="0"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="de-CH" sz="1100" baseline="0"/>
+            <a:t>-&gt; Try to put node device higher</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="de-CH" sz="1100" baseline="0"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="de-CH" sz="1100" baseline="0"/>
+            <a:t>-&gt; make shure antennas of node-device and gateway aren't</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="de-CH" sz="1100" baseline="0"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="de-CH" sz="1100" baseline="0"/>
+            <a:t>     close to walls or metal structures or devices</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="de-CH" sz="1100" baseline="0"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="de-CH" sz="1100" baseline="0"/>
+            <a:t>-&gt; Try to achieve line-of-sight if possible</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="de-CH" sz="1100" baseline="0"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="de-CH" sz="1100" baseline="0"/>
+            <a:t>-&gt; Add gateway which is closer</a:t>
+          </a:r>
+          <a:endParaRPr lang="de-CH" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>171695</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>26133</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>221388</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>48113</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Gerader Verbinder 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A7F27C1-4A7A-F13B-8553-D222CCF827F1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="6" idx="2"/>
+          <a:endCxn id="3" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="11916753" y="3506421"/>
+          <a:ext cx="291481" cy="388327"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>199090</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>36316</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>125534</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>117231</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Textfeld 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{924F918A-4E72-4EF7-A8AC-B905D923B048}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10017167" y="6806393"/>
+          <a:ext cx="2095213" cy="813607"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-CH" sz="1100" b="1"/>
+            <a:t>No or insufficient reception:</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="de-CH" sz="1100" baseline="0"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="de-CH" sz="1100" baseline="0"/>
+            <a:t>-&gt; Try to put gateway higher</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="de-CH" sz="1100" baseline="0"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="de-CH" sz="1100" baseline="0"/>
+            <a:t>-&gt; Try higher SF's</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="de-CH" sz="1100" baseline="0"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="de-CH" sz="1100" baseline="0"/>
+            <a:t>-&gt; Add gateway</a:t>
+          </a:r>
+          <a:endParaRPr lang="de-CH" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>286870</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>28361</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>213850</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>36316</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="Gerader Verbinder 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A66068D-F681-4C56-8872-21C195A87B2B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="3"/>
+          <a:endCxn id="9" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="11064774" y="6256246"/>
+          <a:ext cx="410557" cy="550147"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>143650</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>36316</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>8304</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>73270</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="Textfeld 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{879B069B-036F-164D-E9BA-589770B88344}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12372285" y="6806393"/>
+          <a:ext cx="2934634" cy="1135992"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-CH" b="1"/>
+            <a:t>Strong signal, but lots of interference or noise</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-CH" sz="1100" b="1"/>
+            <a:t>:</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="de-CH" sz="1100" baseline="0"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="de-CH" sz="1100" baseline="0"/>
+            <a:t>-&gt; Try to put node-device away from potential</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="de-CH" sz="1100" baseline="0"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="de-CH" sz="1100" baseline="0"/>
+            <a:t>     sources of interference (e.g., WiFi-Routers, </a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="de-CH" sz="1100" baseline="0"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="de-CH" sz="1100" baseline="0"/>
+            <a:t>     power supplies, machinery etc.)</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="de-CH" sz="1100" baseline="0"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="de-CH" sz="1100" baseline="0"/>
+            <a:t>-&gt; </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-CH"/>
+            <a:t>Ensure devices and antennas are not close to </a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="de-CH"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="de-CH"/>
+            <a:t>     metallic surfaces </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-CH" baseline="0"/>
+            <a:t> or walls</a:t>
+          </a:r>
+          <a:endParaRPr lang="de-CH" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>59115</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>160237</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>36316</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="Gerader Verbinder 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB594DB6-665F-4490-A08C-EC2E58771A0E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="5" idx="4"/>
+          <a:endCxn id="17" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13254903" y="6389810"/>
+          <a:ext cx="584699" cy="416583"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1828,729 +2729,693 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F5631FF-9388-4747-98B0-3AAB2640A2B7}">
-  <dimension ref="B2:O19"/>
+  <dimension ref="B2:Q17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:O11"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20.5" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.08984375" style="6" customWidth="1"/>
-    <col min="2" max="2" width="24.54296875" style="6" customWidth="1"/>
-    <col min="3" max="4" width="3.81640625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="8.7265625" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.81640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.453125" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.26953125" style="6" customWidth="1"/>
-    <col min="9" max="10" width="10.90625" style="6"/>
-    <col min="11" max="11" width="15.1796875" style="6" customWidth="1"/>
-    <col min="12" max="12" width="34.6328125" style="6" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="22.81640625" style="6" customWidth="1"/>
-    <col min="14" max="14" width="27.81640625" style="6" customWidth="1"/>
-    <col min="15" max="15" width="47.81640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="10.90625" style="6"/>
+    <col min="1" max="1" width="3.08984375" style="5" customWidth="1"/>
+    <col min="2" max="3" width="24.54296875" style="5" customWidth="1"/>
+    <col min="4" max="4" width="16.36328125" style="5" customWidth="1"/>
+    <col min="5" max="6" width="3.81640625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="8.7265625" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.81640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.453125" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.26953125" style="5" customWidth="1"/>
+    <col min="11" max="12" width="10.90625" style="5"/>
+    <col min="13" max="13" width="15.1796875" style="5" customWidth="1"/>
+    <col min="14" max="14" width="34.6328125" style="5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="22.81640625" style="5" customWidth="1"/>
+    <col min="16" max="16" width="27.81640625" style="5" customWidth="1"/>
+    <col min="17" max="17" width="47.81640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="10.90625" style="5"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" s="7" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="51" t="s">
+    <row r="2" spans="2:17" s="6" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="132" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="133"/>
+      <c r="D2" s="134"/>
+      <c r="E2" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="14" t="s">
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="H2" s="15"/>
-      <c r="I2" s="9" t="s">
+      <c r="J2" s="51"/>
+      <c r="K2" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="47" t="s">
+      <c r="L2" s="50"/>
+      <c r="M2" s="50"/>
+      <c r="N2" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="M2" s="14" t="s">
+      <c r="O2" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="N2" s="8"/>
-      <c r="O2" s="52"/>
-    </row>
-    <row r="3" spans="2:15" s="12" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="53"/>
-      <c r="C3" s="11" t="s">
+      <c r="P2" s="47"/>
+      <c r="Q2" s="48"/>
+    </row>
+    <row r="3" spans="2:17" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="128" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" s="135" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" s="130" t="s">
+        <v>69</v>
+      </c>
+      <c r="E3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="F3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="35" t="s">
+      <c r="G3" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="36"/>
-      <c r="G3" s="11" t="s">
+      <c r="H3" s="53"/>
+      <c r="I3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="J3" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="K3" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="L3" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="M3" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="L3" s="48" t="s">
+      <c r="N3" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="M3" s="11" t="s">
+      <c r="O3" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="N3" s="11" t="s">
+      <c r="P3" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="O3" s="54" t="s">
+      <c r="Q3" s="36" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="2:15" s="1" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="55"/>
-      <c r="C4" s="13" t="s">
+    <row r="4" spans="2:17" s="1" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="129"/>
+      <c r="C4" s="136"/>
+      <c r="D4" s="131"/>
+      <c r="E4" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="F4" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="G4" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="H4" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="I4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="J4" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="13" t="s">
+      <c r="K4" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="J4" s="13" t="s">
+      <c r="L4" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="K4" s="13" t="s">
+      <c r="M4" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="13"/>
-      <c r="O4" s="56"/>
-    </row>
-    <row r="5" spans="2:15" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="57" t="s">
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="37"/>
+    </row>
+    <row r="5" spans="2:17" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="16">
+      <c r="C5" s="126"/>
+      <c r="D5" s="126"/>
+      <c r="E5" s="10">
         <v>1</v>
       </c>
-      <c r="D5" s="10">
-        <f>IF(C5="","",VLOOKUP(C5,metadata!$B$4:$D$9,2,))</f>
+      <c r="F5" s="7">
+        <f>IF(E5="","",VLOOKUP(E5,metadata!$B$4:$D$9,2,))</f>
         <v>11</v>
       </c>
-      <c r="E5" s="16">
+      <c r="G5" s="10">
         <v>0</v>
       </c>
-      <c r="F5" s="10">
-        <f>IF(E5="","",VLOOKUP(E5,metadata!$B$13:$C$20,2,))</f>
+      <c r="H5" s="7">
+        <f>IF(G5="","",VLOOKUP(G5,metadata!$B$13:$C$20,2,))</f>
         <v>14</v>
       </c>
-      <c r="G5" s="10" t="str">
-        <f>IF(C5="","",VLOOKUP(C5,metadata!$B$4:$H$9,7,))</f>
+      <c r="I5" s="7" t="str">
+        <f>IF(E5="","",VLOOKUP(E5,metadata!$B$4:$H$9,7,))</f>
         <v>1h 16min</v>
       </c>
-      <c r="H5" s="10">
-        <f>IF(C5="","",VLOOKUP(C5,metadata!$B$4:$D$9,3,))</f>
+      <c r="J5" s="7">
+        <f>IF(E5="","",VLOOKUP(E5,metadata!$B$4:$D$9,3,))</f>
         <v>-17.5</v>
       </c>
-      <c r="I5" s="49">
+      <c r="K5" s="34">
         <v>-118</v>
       </c>
-      <c r="J5" s="17">
+      <c r="L5" s="7">
         <v>2</v>
       </c>
-      <c r="K5" s="50">
+      <c r="M5" s="35">
         <v>1</v>
       </c>
-      <c r="L5" s="45"/>
-      <c r="M5" s="46" t="str">
-        <f>IF(J5="","",IF(J5&lt;=H5,"Very Noisy, SNR below limits for LoRa",""))</f>
-        <v/>
-      </c>
-      <c r="N5" s="46" t="str">
-        <f>IF(K5="","",IF(K5=0,"Add Gateway(s), no reception.",IF(K5&lt;2,"Add Gateway to be safe.","")))</f>
+      <c r="N5" s="30"/>
+      <c r="O5" s="31" t="str">
+        <f>IF(L5="","",IF(L5&lt;=J5,"Very Noisy, SNR below limits for LoRa",""))</f>
+        <v/>
+      </c>
+      <c r="P5" s="31" t="str">
+        <f>IF(M5="","",IF(M5=0,"Add Gateway(s), no reception.",IF(M5&lt;2,"Add Gateway to be safe.","")))</f>
         <v>Add Gateway to be safe.</v>
       </c>
-      <c r="O5" s="58" t="str">
-        <f>IF(J5="","",IF(D5=7,"Keep SF/DR, already on best",IF(J5&gt;H5+3,"Try DR"&amp;C5+1&amp;"/ SF"&amp;D5-1,IF(J5&lt;H5,"Increase SF","Keep SF/DF"))))</f>
+      <c r="Q5" s="39" t="str">
+        <f>IF(L5="","",IF(F5=7,"Keep SF/DR, already on best",IF(L5&gt;J5+3,"Try DR"&amp;E5+1&amp;"/ SF"&amp;F5-1,IF(L5&lt;J5,"Increase SF","Keep SF/DF"))))</f>
         <v>Try DR2/ SF10</v>
       </c>
     </row>
-    <row r="6" spans="2:15" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="57"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="10" t="str">
-        <f>IF(C6="","",VLOOKUP(C6,metadata!$B$4:$D$9,2,))</f>
-        <v/>
-      </c>
-      <c r="E6" s="16"/>
-      <c r="F6" s="10" t="str">
-        <f>IF(E6="","",VLOOKUP(E6,metadata!$B$13:$C$20,2,))</f>
-        <v/>
-      </c>
-      <c r="G6" s="10" t="str">
-        <f>IF(C6="","",VLOOKUP(C6,metadata!$B$4:$H$9,7,))</f>
-        <v/>
-      </c>
-      <c r="H6" s="10" t="str">
-        <f>IF(C6="","",VLOOKUP(C6,metadata!$B$4:$D$9,3,))</f>
-        <v/>
-      </c>
-      <c r="I6" s="49"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="50"/>
-      <c r="L6" s="45"/>
-      <c r="M6" s="46" t="str">
-        <f t="shared" ref="M6:M10" si="0">IF(J6="","",IF(J6&lt;=H6,"Very Noisy, SNR below limits for LoRa",""))</f>
-        <v/>
-      </c>
-      <c r="N6" s="46" t="str">
-        <f t="shared" ref="N6:N10" si="1">IF(K6="","",IF(K6=0,"Add Gateway(s), no reception.",IF(K6&lt;2,"Add Gateway to be safe.","")))</f>
-        <v/>
-      </c>
-      <c r="O6" s="58" t="str">
-        <f t="shared" ref="O6:O10" si="2">IF(J6="","",IF(D6=7,"Keep SF/DR, already on best",IF(J6&gt;H6+3,"Try DR"&amp;C6+1&amp;"/ SF"&amp;D6-1,IF(J6&lt;H6,"Increase SF","Keep SF/DF"))))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="2:15" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="57"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="10" t="str">
-        <f>IF(C7="","",VLOOKUP(C7,metadata!$B$4:$D$9,2,))</f>
-        <v/>
-      </c>
-      <c r="E7" s="16"/>
-      <c r="F7" s="10" t="str">
-        <f>IF(E7="","",VLOOKUP(E7,metadata!$B$13:$C$20,2,))</f>
-        <v/>
-      </c>
-      <c r="G7" s="10" t="str">
-        <f>IF(C7="","",VLOOKUP(C7,metadata!$B$4:$H$9,7,))</f>
-        <v/>
-      </c>
-      <c r="H7" s="10" t="str">
-        <f>IF(C7="","",VLOOKUP(C7,metadata!$B$4:$D$9,3,))</f>
-        <v/>
-      </c>
-      <c r="I7" s="49"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="50"/>
-      <c r="L7" s="45"/>
-      <c r="M7" s="46" t="str">
+    <row r="6" spans="2:17" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="38"/>
+      <c r="C6" s="126"/>
+      <c r="D6" s="126"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="7" t="str">
+        <f>IF(E6="","",VLOOKUP(E6,metadata!$B$4:$D$9,2,))</f>
+        <v/>
+      </c>
+      <c r="G6" s="10"/>
+      <c r="H6" s="7" t="str">
+        <f>IF(G6="","",VLOOKUP(G6,metadata!$B$13:$C$20,2,))</f>
+        <v/>
+      </c>
+      <c r="I6" s="7" t="str">
+        <f>IF(E6="","",VLOOKUP(E6,metadata!$B$4:$H$9,7,))</f>
+        <v/>
+      </c>
+      <c r="J6" s="7" t="str">
+        <f>IF(E6="","",VLOOKUP(E6,metadata!$B$4:$D$9,3,))</f>
+        <v/>
+      </c>
+      <c r="K6" s="34"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="35"/>
+      <c r="N6" s="30"/>
+      <c r="O6" s="31" t="str">
+        <f t="shared" ref="O6:O10" si="0">IF(L6="","",IF(L6&lt;=J6,"Very Noisy, SNR below limits for LoRa",""))</f>
+        <v/>
+      </c>
+      <c r="P6" s="31" t="str">
+        <f t="shared" ref="P6:P10" si="1">IF(M6="","",IF(M6=0,"Add Gateway(s), no reception.",IF(M6&lt;2,"Add Gateway to be safe.","")))</f>
+        <v/>
+      </c>
+      <c r="Q6" s="39" t="str">
+        <f t="shared" ref="Q6:Q10" si="2">IF(L6="","",IF(F6=7,"Keep SF/DR, already on best",IF(L6&gt;J6+3,"Try DR"&amp;E6+1&amp;"/ SF"&amp;F6-1,IF(L6&lt;J6,"Increase SF","Keep SF/DF"))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="2:17" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="38"/>
+      <c r="C7" s="126"/>
+      <c r="D7" s="126"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="7" t="str">
+        <f>IF(E7="","",VLOOKUP(E7,metadata!$B$4:$D$9,2,))</f>
+        <v/>
+      </c>
+      <c r="G7" s="10"/>
+      <c r="H7" s="7" t="str">
+        <f>IF(G7="","",VLOOKUP(G7,metadata!$B$13:$C$20,2,))</f>
+        <v/>
+      </c>
+      <c r="I7" s="7" t="str">
+        <f>IF(E7="","",VLOOKUP(E7,metadata!$B$4:$H$9,7,))</f>
+        <v/>
+      </c>
+      <c r="J7" s="7" t="str">
+        <f>IF(E7="","",VLOOKUP(E7,metadata!$B$4:$D$9,3,))</f>
+        <v/>
+      </c>
+      <c r="K7" s="34"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="35"/>
+      <c r="N7" s="30"/>
+      <c r="O7" s="31" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="N7" s="46" t="str">
+      <c r="P7" s="31" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="O7" s="58" t="str">
+      <c r="Q7" s="39" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="8" spans="2:15" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="57"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="10" t="str">
-        <f>IF(C8="","",VLOOKUP(C8,metadata!$B$4:$D$9,2,))</f>
-        <v/>
-      </c>
-      <c r="E8" s="16"/>
-      <c r="F8" s="10" t="str">
-        <f>IF(E8="","",VLOOKUP(E8,metadata!$B$13:$C$20,2,))</f>
-        <v/>
-      </c>
-      <c r="G8" s="10" t="str">
-        <f>IF(C8="","",VLOOKUP(C8,metadata!$B$4:$H$9,7,))</f>
-        <v/>
-      </c>
-      <c r="H8" s="10" t="str">
-        <f>IF(C8="","",VLOOKUP(C8,metadata!$B$4:$D$9,3,))</f>
-        <v/>
-      </c>
-      <c r="I8" s="49"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="50"/>
-      <c r="L8" s="45"/>
-      <c r="M8" s="46" t="str">
+    <row r="8" spans="2:17" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="38"/>
+      <c r="C8" s="126"/>
+      <c r="D8" s="126"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="7" t="str">
+        <f>IF(E8="","",VLOOKUP(E8,metadata!$B$4:$D$9,2,))</f>
+        <v/>
+      </c>
+      <c r="G8" s="10"/>
+      <c r="H8" s="7" t="str">
+        <f>IF(G8="","",VLOOKUP(G8,metadata!$B$13:$C$20,2,))</f>
+        <v/>
+      </c>
+      <c r="I8" s="7" t="str">
+        <f>IF(E8="","",VLOOKUP(E8,metadata!$B$4:$H$9,7,))</f>
+        <v/>
+      </c>
+      <c r="J8" s="7" t="str">
+        <f>IF(E8="","",VLOOKUP(E8,metadata!$B$4:$D$9,3,))</f>
+        <v/>
+      </c>
+      <c r="K8" s="34"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="35"/>
+      <c r="N8" s="30"/>
+      <c r="O8" s="31" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="N8" s="46" t="str">
+      <c r="P8" s="31" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="O8" s="58" t="str">
+      <c r="Q8" s="39" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="9" spans="2:15" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="57"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="10" t="str">
-        <f>IF(C9="","",VLOOKUP(C9,metadata!$B$4:$D$9,2,))</f>
-        <v/>
-      </c>
-      <c r="E9" s="16"/>
-      <c r="F9" s="10" t="str">
-        <f>IF(E9="","",VLOOKUP(E9,metadata!$B$13:$C$20,2,))</f>
-        <v/>
-      </c>
-      <c r="G9" s="10" t="str">
-        <f>IF(C9="","",VLOOKUP(C9,metadata!$B$4:$H$9,7,))</f>
-        <v/>
-      </c>
-      <c r="H9" s="10" t="str">
-        <f>IF(C9="","",VLOOKUP(C9,metadata!$B$4:$D$9,3,))</f>
-        <v/>
-      </c>
-      <c r="I9" s="49"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="50"/>
-      <c r="L9" s="45"/>
-      <c r="M9" s="46" t="str">
+    <row r="9" spans="2:17" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="38"/>
+      <c r="C9" s="126"/>
+      <c r="D9" s="126"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="7" t="str">
+        <f>IF(E9="","",VLOOKUP(E9,metadata!$B$4:$D$9,2,))</f>
+        <v/>
+      </c>
+      <c r="G9" s="10"/>
+      <c r="H9" s="7" t="str">
+        <f>IF(G9="","",VLOOKUP(G9,metadata!$B$13:$C$20,2,))</f>
+        <v/>
+      </c>
+      <c r="I9" s="7" t="str">
+        <f>IF(E9="","",VLOOKUP(E9,metadata!$B$4:$H$9,7,))</f>
+        <v/>
+      </c>
+      <c r="J9" s="7" t="str">
+        <f>IF(E9="","",VLOOKUP(E9,metadata!$B$4:$D$9,3,))</f>
+        <v/>
+      </c>
+      <c r="K9" s="34"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="35"/>
+      <c r="N9" s="30"/>
+      <c r="O9" s="31" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="N9" s="46" t="str">
+      <c r="P9" s="31" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="O9" s="58" t="str">
+      <c r="Q9" s="39" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="10" spans="2:15" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="59"/>
-      <c r="C10" s="60"/>
-      <c r="D10" s="10" t="str">
-        <f>IF(C10="","",VLOOKUP(C10,metadata!$B$4:$D$9,2,))</f>
-        <v/>
-      </c>
-      <c r="E10" s="60"/>
-      <c r="F10" s="10" t="str">
-        <f>IF(E10="","",VLOOKUP(E10,metadata!$B$13:$C$20,2,))</f>
-        <v/>
-      </c>
-      <c r="G10" s="10" t="str">
-        <f>IF(C10="","",VLOOKUP(C10,metadata!$B$4:$H$9,7,))</f>
-        <v/>
-      </c>
-      <c r="H10" s="10" t="str">
-        <f>IF(C10="","",VLOOKUP(C10,metadata!$B$4:$D$9,3,))</f>
-        <v/>
-      </c>
-      <c r="I10" s="61"/>
-      <c r="J10" s="62"/>
-      <c r="K10" s="63"/>
-      <c r="L10" s="64"/>
-      <c r="M10" s="46" t="str">
+    <row r="10" spans="2:17" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="40"/>
+      <c r="C10" s="127"/>
+      <c r="D10" s="127"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="7" t="str">
+        <f>IF(E10="","",VLOOKUP(E10,metadata!$B$4:$D$9,2,))</f>
+        <v/>
+      </c>
+      <c r="G10" s="41"/>
+      <c r="H10" s="7" t="str">
+        <f>IF(G10="","",VLOOKUP(G10,metadata!$B$13:$C$20,2,))</f>
+        <v/>
+      </c>
+      <c r="I10" s="7" t="str">
+        <f>IF(E10="","",VLOOKUP(E10,metadata!$B$4:$H$9,7,))</f>
+        <v/>
+      </c>
+      <c r="J10" s="7" t="str">
+        <f>IF(E10="","",VLOOKUP(E10,metadata!$B$4:$D$9,3,))</f>
+        <v/>
+      </c>
+      <c r="K10" s="42"/>
+      <c r="L10" s="43"/>
+      <c r="M10" s="44"/>
+      <c r="N10" s="45"/>
+      <c r="O10" s="31" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="N10" s="46" t="str">
+      <c r="P10" s="31" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="O10" s="58" t="str">
+      <c r="Q10" s="39" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="11" spans="2:15" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="81" t="s">
+    <row r="11" spans="2:17" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="141" t="s">
         <v>59</v>
       </c>
-      <c r="C11" s="82"/>
-      <c r="D11" s="83"/>
-      <c r="E11" s="82"/>
-      <c r="F11" s="82"/>
-      <c r="G11" s="82"/>
-      <c r="H11" s="82"/>
-      <c r="I11" s="82"/>
-      <c r="J11" s="82"/>
-      <c r="K11" s="82"/>
-      <c r="L11" s="82"/>
-      <c r="M11" s="82"/>
-      <c r="N11" s="82"/>
-      <c r="O11" s="84"/>
-    </row>
-    <row r="12" spans="2:15" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="74" t="s">
+      <c r="C11" s="49"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="49"/>
+      <c r="H11" s="49"/>
+      <c r="I11" s="49"/>
+      <c r="J11" s="49"/>
+      <c r="K11" s="49"/>
+      <c r="L11" s="49"/>
+      <c r="M11" s="49"/>
+      <c r="N11" s="49"/>
+      <c r="O11" s="49"/>
+      <c r="P11" s="49"/>
+      <c r="Q11" s="142"/>
+    </row>
+    <row r="12" spans="2:17" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="137" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="76">
+      <c r="C12" s="138"/>
+      <c r="D12" s="138"/>
+      <c r="E12" s="143">
         <v>1</v>
       </c>
-      <c r="D12" s="26">
-        <f>IF(C12="","",VLOOKUP(C12,metadata!$B$4:$D$9,2,))</f>
+      <c r="F12" s="144">
+        <f>IF(E12="","",VLOOKUP(E12,metadata!$B$4:$D$9,2,))</f>
         <v>11</v>
       </c>
-      <c r="E12" s="76">
+      <c r="G12" s="143">
         <v>0</v>
       </c>
-      <c r="F12" s="26">
-        <f>IF(E12="","",VLOOKUP(E12,metadata!$B$13:$C$20,2,))</f>
+      <c r="H12" s="144">
+        <f>IF(G12="","",VLOOKUP(G12,metadata!$B$13:$C$20,2,))</f>
         <v>14</v>
       </c>
-      <c r="G12" s="26" t="str">
-        <f>IF(C12="","",VLOOKUP(C12,metadata!$B$4:$H$9,7,))</f>
+      <c r="I12" s="144" t="str">
+        <f>IF(E12="","",VLOOKUP(E12,metadata!$B$4:$H$9,7,))</f>
         <v>1h 16min</v>
       </c>
-      <c r="H12" s="26">
-        <f>IF(C12="","",VLOOKUP(C12,metadata!$B$4:$D$9,3,))</f>
+      <c r="J12" s="144">
+        <f>IF(E12="","",VLOOKUP(E12,metadata!$B$4:$D$9,3,))</f>
         <v>-17.5</v>
       </c>
-      <c r="I12" s="79">
+      <c r="K12" s="145">
         <v>-88</v>
       </c>
-      <c r="J12" s="17">
+      <c r="L12" s="144">
         <v>2</v>
       </c>
-      <c r="K12" s="50">
+      <c r="M12" s="146">
         <v>2</v>
       </c>
-      <c r="L12" s="66"/>
-      <c r="M12" s="68" t="str">
-        <f>IF(K12="","",IF(K12=0,"Add Gateway(s), no reception.",IF(K12&lt;2,"Add Gateway to be safe.","")))</f>
-        <v/>
-      </c>
-      <c r="N12" s="68" t="str">
-        <f>IF(K12="","",IF(K12=0,"Add Gateway(s), no reception.",IF(K12&lt;2,"Add Gateway to be safe.","")))</f>
-        <v/>
-      </c>
-      <c r="O12" s="71" t="str">
-        <f>IF(J12="","",IF(D12=7,"Keep SF/DR, already on best",IF(J12&gt;H12+3,"Try DR"&amp;C12+1&amp;"/ SF"&amp;D12-1,IF(J12&lt;H12,"Increase SF","Keep SF/DF"))))</f>
+      <c r="N12" s="147"/>
+      <c r="O12" s="148" t="str">
+        <f t="shared" ref="O12:O17" si="3">IF(M12="","",IF(M12=0,"Add Gateway(s), no reception.",IF(M12&lt;2,"Add Gateway to be safe.","")))</f>
+        <v/>
+      </c>
+      <c r="P12" s="148" t="str">
+        <f>IF(M12="","",IF(M12=0,"Add Gateway(s), no reception.",IF(M12&lt;2,"Add Gateway to be safe.","")))</f>
+        <v/>
+      </c>
+      <c r="Q12" s="149" t="str">
+        <f>IF(L12="","",IF(F12=7,"Keep SF/DR, already on best",IF(L12&gt;J12+3,"Try DR"&amp;E12+1&amp;"/ SF"&amp;F12-1,IF(L12&lt;J12,"Increase SF","Keep SF/DF"))))</f>
         <v>Try DR2/ SF10</v>
       </c>
     </row>
-    <row r="13" spans="2:15" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="74"/>
-      <c r="C13" s="77"/>
-      <c r="D13" s="65" t="str">
-        <f>IF(C13="","",VLOOKUP(C13,metadata!$B$4:$D$9,2,))</f>
-        <v/>
-      </c>
-      <c r="E13" s="77"/>
-      <c r="F13" s="65" t="str">
-        <f>IF(E13="","",VLOOKUP(E13,metadata!$B$13:$C$20,2,))</f>
-        <v/>
-      </c>
-      <c r="G13" s="65" t="str">
-        <f>IF(C13="","",VLOOKUP(C13,metadata!$B$4:$H$9,7,))</f>
-        <v/>
-      </c>
-      <c r="H13" s="65" t="str">
-        <f>IF(C13="","",VLOOKUP(C13,metadata!$B$4:$D$9,3,))</f>
-        <v/>
-      </c>
-      <c r="I13" s="79"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="50"/>
-      <c r="L13" s="66"/>
-      <c r="M13" s="69" t="str">
-        <f>IF(K13="","",IF(K13=0,"Add Gateway(s), no reception.",IF(K13&lt;2,"Add Gateway to be safe.","")))</f>
-        <v/>
-      </c>
-      <c r="N13" s="69" t="str">
-        <f t="shared" ref="N13:N19" si="3">IF(K13="","",IF(K13=0,"Add Gateway(s), no reception.",IF(K13&lt;2,"Add Gateway to be safe.","")))</f>
-        <v/>
-      </c>
-      <c r="O13" s="72" t="str">
-        <f t="shared" ref="O13:O19" si="4">IF(J13="","",IF(D13=7,"Keep SF/DR, already on best",IF(J13&gt;H13+3,"Try DR"&amp;C13+1&amp;"/ SF"&amp;D13-1,IF(J13&lt;H13,"Increase SF","Keep SF/DF"))))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="2:15" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="74"/>
-      <c r="C14" s="77"/>
-      <c r="D14" s="65" t="str">
-        <f>IF(C14="","",VLOOKUP(C14,metadata!$B$4:$D$9,2,))</f>
-        <v/>
-      </c>
-      <c r="E14" s="77"/>
-      <c r="F14" s="65" t="str">
-        <f>IF(E14="","",VLOOKUP(E14,metadata!$B$13:$C$20,2,))</f>
-        <v/>
-      </c>
-      <c r="G14" s="65" t="str">
-        <f>IF(C14="","",VLOOKUP(C14,metadata!$B$4:$H$9,7,))</f>
-        <v/>
-      </c>
-      <c r="H14" s="65" t="str">
-        <f>IF(C14="","",VLOOKUP(C14,metadata!$B$4:$D$9,3,))</f>
-        <v/>
-      </c>
-      <c r="I14" s="79"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="50"/>
-      <c r="L14" s="66"/>
-      <c r="M14" s="69" t="str">
-        <f>IF(K14="","",IF(K14=0,"Add Gateway(s), no reception.",IF(K14&lt;2,"Add Gateway to be safe.","")))</f>
-        <v/>
-      </c>
-      <c r="N14" s="69" t="str">
+    <row r="13" spans="2:17" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="38"/>
+      <c r="C13" s="126"/>
+      <c r="D13" s="126"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="7" t="str">
+        <f>IF(E13="","",VLOOKUP(E13,metadata!$B$4:$D$9,2,))</f>
+        <v/>
+      </c>
+      <c r="G13" s="10"/>
+      <c r="H13" s="7" t="str">
+        <f>IF(G13="","",VLOOKUP(G13,metadata!$B$13:$C$20,2,))</f>
+        <v/>
+      </c>
+      <c r="I13" s="7" t="str">
+        <f>IF(E13="","",VLOOKUP(E13,metadata!$B$4:$H$9,7,))</f>
+        <v/>
+      </c>
+      <c r="J13" s="7" t="str">
+        <f>IF(E13="","",VLOOKUP(E13,metadata!$B$4:$D$9,3,))</f>
+        <v/>
+      </c>
+      <c r="K13" s="34"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="35"/>
+      <c r="N13" s="30"/>
+      <c r="O13" s="31" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="O14" s="72" t="str">
+      <c r="P13" s="31" t="str">
+        <f t="shared" ref="P13:P17" si="4">IF(M13="","",IF(M13=0,"Add Gateway(s), no reception.",IF(M13&lt;2,"Add Gateway to be safe.","")))</f>
+        <v/>
+      </c>
+      <c r="Q13" s="39" t="str">
+        <f t="shared" ref="Q13:Q17" si="5">IF(L13="","",IF(F13=7,"Keep SF/DR, already on best",IF(L13&gt;J13+3,"Try DR"&amp;E13+1&amp;"/ SF"&amp;F13-1,IF(L13&lt;J13,"Increase SF","Keep SF/DF"))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="2:17" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="38"/>
+      <c r="C14" s="126"/>
+      <c r="D14" s="126"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="7" t="str">
+        <f>IF(E14="","",VLOOKUP(E14,metadata!$B$4:$D$9,2,))</f>
+        <v/>
+      </c>
+      <c r="G14" s="10"/>
+      <c r="H14" s="7" t="str">
+        <f>IF(G14="","",VLOOKUP(G14,metadata!$B$13:$C$20,2,))</f>
+        <v/>
+      </c>
+      <c r="I14" s="7" t="str">
+        <f>IF(E14="","",VLOOKUP(E14,metadata!$B$4:$H$9,7,))</f>
+        <v/>
+      </c>
+      <c r="J14" s="7" t="str">
+        <f>IF(E14="","",VLOOKUP(E14,metadata!$B$4:$D$9,3,))</f>
+        <v/>
+      </c>
+      <c r="K14" s="34"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="35"/>
+      <c r="N14" s="30"/>
+      <c r="O14" s="31" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="P14" s="31" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-    </row>
-    <row r="15" spans="2:15" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="74"/>
-      <c r="C15" s="77"/>
-      <c r="D15" s="65" t="str">
-        <f>IF(C15="","",VLOOKUP(C15,metadata!$B$4:$D$9,2,))</f>
-        <v/>
-      </c>
-      <c r="E15" s="77"/>
-      <c r="F15" s="65" t="str">
-        <f>IF(E15="","",VLOOKUP(E15,metadata!$B$13:$C$20,2,))</f>
-        <v/>
-      </c>
-      <c r="G15" s="65" t="str">
-        <f>IF(C15="","",VLOOKUP(C15,metadata!$B$4:$H$9,7,))</f>
-        <v/>
-      </c>
-      <c r="H15" s="65" t="str">
-        <f>IF(C15="","",VLOOKUP(C15,metadata!$B$4:$D$9,3,))</f>
-        <v/>
-      </c>
-      <c r="I15" s="79"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="50"/>
-      <c r="L15" s="66"/>
-      <c r="M15" s="69" t="str">
-        <f>IF(K15="","",IF(K15=0,"Add Gateway(s), no reception.",IF(K15&lt;2,"Add Gateway to be safe.","")))</f>
-        <v/>
-      </c>
-      <c r="N15" s="69" t="str">
+      <c r="Q14" s="39" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="2:17" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="38"/>
+      <c r="C15" s="126"/>
+      <c r="D15" s="126"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="7" t="str">
+        <f>IF(E15="","",VLOOKUP(E15,metadata!$B$4:$D$9,2,))</f>
+        <v/>
+      </c>
+      <c r="G15" s="10"/>
+      <c r="H15" s="7" t="str">
+        <f>IF(G15="","",VLOOKUP(G15,metadata!$B$13:$C$20,2,))</f>
+        <v/>
+      </c>
+      <c r="I15" s="7" t="str">
+        <f>IF(E15="","",VLOOKUP(E15,metadata!$B$4:$H$9,7,))</f>
+        <v/>
+      </c>
+      <c r="J15" s="7" t="str">
+        <f>IF(E15="","",VLOOKUP(E15,metadata!$B$4:$D$9,3,))</f>
+        <v/>
+      </c>
+      <c r="K15" s="34"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="35"/>
+      <c r="N15" s="30"/>
+      <c r="O15" s="31" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="O15" s="72" t="str">
+      <c r="P15" s="31" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-    </row>
-    <row r="16" spans="2:15" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="74"/>
-      <c r="C16" s="77"/>
-      <c r="D16" s="65" t="str">
-        <f>IF(C16="","",VLOOKUP(C16,metadata!$B$4:$D$9,2,))</f>
-        <v/>
-      </c>
-      <c r="E16" s="77"/>
-      <c r="F16" s="65" t="str">
-        <f>IF(E16="","",VLOOKUP(E16,metadata!$B$13:$C$20,2,))</f>
-        <v/>
-      </c>
-      <c r="G16" s="65" t="str">
-        <f>IF(C16="","",VLOOKUP(C16,metadata!$B$4:$H$9,7,))</f>
-        <v/>
-      </c>
-      <c r="H16" s="65" t="str">
-        <f>IF(C16="","",VLOOKUP(C16,metadata!$B$4:$D$9,3,))</f>
-        <v/>
-      </c>
-      <c r="I16" s="79"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="50"/>
-      <c r="L16" s="66"/>
-      <c r="M16" s="69" t="str">
-        <f>IF(K16="","",IF(K16=0,"Add Gateway(s), no reception.",IF(K16&lt;2,"Add Gateway to be safe.","")))</f>
-        <v/>
-      </c>
-      <c r="N16" s="69" t="str">
+      <c r="Q15" s="39" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="2:17" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="38"/>
+      <c r="C16" s="126"/>
+      <c r="D16" s="126"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="7" t="str">
+        <f>IF(E16="","",VLOOKUP(E16,metadata!$B$4:$D$9,2,))</f>
+        <v/>
+      </c>
+      <c r="G16" s="10"/>
+      <c r="H16" s="7" t="str">
+        <f>IF(G16="","",VLOOKUP(G16,metadata!$B$13:$C$20,2,))</f>
+        <v/>
+      </c>
+      <c r="I16" s="7" t="str">
+        <f>IF(E16="","",VLOOKUP(E16,metadata!$B$4:$H$9,7,))</f>
+        <v/>
+      </c>
+      <c r="J16" s="7" t="str">
+        <f>IF(E16="","",VLOOKUP(E16,metadata!$B$4:$D$9,3,))</f>
+        <v/>
+      </c>
+      <c r="K16" s="34"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="35"/>
+      <c r="N16" s="30"/>
+      <c r="O16" s="31" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="O16" s="72" t="str">
+      <c r="P16" s="31" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-    </row>
-    <row r="17" spans="2:15" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="74"/>
-      <c r="C17" s="77"/>
-      <c r="D17" s="65" t="str">
-        <f>IF(C17="","",VLOOKUP(C17,metadata!$B$4:$D$9,2,))</f>
-        <v/>
-      </c>
-      <c r="E17" s="77"/>
-      <c r="F17" s="65" t="str">
-        <f>IF(E17="","",VLOOKUP(E17,metadata!$B$13:$C$20,2,))</f>
-        <v/>
-      </c>
-      <c r="G17" s="65" t="str">
-        <f>IF(C17="","",VLOOKUP(C17,metadata!$B$4:$H$9,7,))</f>
-        <v/>
-      </c>
-      <c r="H17" s="65" t="str">
-        <f>IF(C17="","",VLOOKUP(C17,metadata!$B$4:$D$9,3,))</f>
-        <v/>
-      </c>
-      <c r="I17" s="79"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="50"/>
-      <c r="L17" s="66"/>
-      <c r="M17" s="69" t="str">
-        <f>IF(K17="","",IF(K17=0,"Add Gateway(s), no reception.",IF(K17&lt;2,"Add Gateway to be safe.","")))</f>
-        <v/>
-      </c>
-      <c r="N17" s="69" t="str">
+      <c r="Q16" s="39" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="2:17" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="40"/>
+      <c r="C17" s="127"/>
+      <c r="D17" s="127"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="43" t="str">
+        <f>IF(E17="","",VLOOKUP(E17,metadata!$B$4:$D$9,2,))</f>
+        <v/>
+      </c>
+      <c r="G17" s="41"/>
+      <c r="H17" s="43" t="str">
+        <f>IF(G17="","",VLOOKUP(G17,metadata!$B$13:$C$20,2,))</f>
+        <v/>
+      </c>
+      <c r="I17" s="43" t="str">
+        <f>IF(E17="","",VLOOKUP(E17,metadata!$B$4:$H$9,7,))</f>
+        <v/>
+      </c>
+      <c r="J17" s="43" t="str">
+        <f>IF(E17="","",VLOOKUP(E17,metadata!$B$4:$D$9,3,))</f>
+        <v/>
+      </c>
+      <c r="K17" s="42"/>
+      <c r="L17" s="43"/>
+      <c r="M17" s="44"/>
+      <c r="N17" s="45"/>
+      <c r="O17" s="139" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="O17" s="72" t="str">
+      <c r="P17" s="139" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-    </row>
-    <row r="18" spans="2:15" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="74"/>
-      <c r="C18" s="77"/>
-      <c r="D18" s="65" t="str">
-        <f>IF(C18="","",VLOOKUP(C18,metadata!$B$4:$D$9,2,))</f>
-        <v/>
-      </c>
-      <c r="E18" s="77"/>
-      <c r="F18" s="65" t="str">
-        <f>IF(E18="","",VLOOKUP(E18,metadata!$B$13:$C$20,2,))</f>
-        <v/>
-      </c>
-      <c r="G18" s="65" t="str">
-        <f>IF(C18="","",VLOOKUP(C18,metadata!$B$4:$H$9,7,))</f>
-        <v/>
-      </c>
-      <c r="H18" s="65" t="str">
-        <f>IF(C18="","",VLOOKUP(C18,metadata!$B$4:$D$9,3,))</f>
-        <v/>
-      </c>
-      <c r="I18" s="79"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="50"/>
-      <c r="L18" s="66"/>
-      <c r="M18" s="69" t="str">
-        <f>IF(K18="","",IF(K18=0,"Add Gateway(s), no reception.",IF(K18&lt;2,"Add Gateway to be safe.","")))</f>
-        <v/>
-      </c>
-      <c r="N18" s="69" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="O18" s="72" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="2:15" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="75"/>
-      <c r="C19" s="78"/>
-      <c r="D19" s="18" t="str">
-        <f>IF(C19="","",VLOOKUP(C19,metadata!$B$4:$D$9,2,))</f>
-        <v/>
-      </c>
-      <c r="E19" s="78"/>
-      <c r="F19" s="18" t="str">
-        <f>IF(E19="","",VLOOKUP(E19,metadata!$B$13:$C$20,2,))</f>
-        <v/>
-      </c>
-      <c r="G19" s="18" t="str">
-        <f>IF(C19="","",VLOOKUP(C19,metadata!$B$4:$H$9,7,))</f>
-        <v/>
-      </c>
-      <c r="H19" s="18" t="str">
-        <f>IF(C19="","",VLOOKUP(C19,metadata!$B$4:$D$9,3,))</f>
-        <v/>
-      </c>
-      <c r="I19" s="80"/>
-      <c r="J19" s="62"/>
-      <c r="K19" s="63"/>
-      <c r="L19" s="67"/>
-      <c r="M19" s="70" t="str">
-        <f>IF(K19="","",IF(K19=0,"Add Gateway(s), no reception.",IF(K19&lt;2,"Add Gateway to be safe.","")))</f>
-        <v/>
-      </c>
-      <c r="N19" s="70" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="O19" s="73" t="str">
-        <f t="shared" si="4"/>
+      <c r="Q17" s="140" t="str">
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="B11:O11"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="E3:F3"/>
+  <mergeCells count="6">
+    <mergeCell ref="O2:Q2"/>
+    <mergeCell ref="B11:Q11"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="G3:H3"/>
   </mergeCells>
-  <conditionalFormatting sqref="J5:J10 J12:J19">
-    <cfRule type="expression" dxfId="11" priority="7">
-      <formula>$J$5&lt;=$H$5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K5:K10 K12:K19">
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="lessThanOrEqual">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="lessThanOrEqual">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="13" operator="lessThanOrEqual">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="14" operator="greaterThan">
-      <formula>2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I5:K10 I12:K19">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+  <conditionalFormatting sqref="B5:E10 G5:G10 B11:D11 B12:E17 G12:G17">
+    <cfRule type="cellIs" dxfId="16" priority="1" operator="notEqual">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B5:C10 E5:E10 B11 B12:C19 E12:E19">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="notEqual">
+  <conditionalFormatting sqref="K5:M10 K12:M17">
+    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
       <formula>""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L5:L10 L12:L17">
+    <cfRule type="expression" dxfId="9" priority="7">
+      <formula>$L$5&lt;=$J$5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M5:M10 M12:M17">
+    <cfRule type="cellIs" dxfId="3" priority="5" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="6" operator="lessThanOrEqual">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="13" operator="lessThanOrEqual">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="14" operator="greaterThan">
+      <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -2634,11 +3499,11 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>I5:I10 I12:I19</xm:sqref>
+          <xm:sqref>K5:K10 K12:K17</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="8" operator="lessThan" id="{4F5F10AE-D6A8-4877-ADFE-372F0BA7D26F}">
-            <xm:f>metadata!$B$38</xm:f>
+            <xm:f>metadata!$B$40</xm:f>
             <x14:dxf>
               <font>
                 <b/>
@@ -2653,7 +3518,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="cellIs" priority="9" operator="lessThan" id="{9DBD3FFC-91EA-4FE1-91B0-568DB2C0631B}">
-            <xm:f>metadata!$B$39</xm:f>
+            <xm:f>metadata!$B$41</xm:f>
             <x14:dxf>
               <font>
                 <b/>
@@ -2668,7 +3533,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="cellIs" priority="10" operator="lessThan" id="{4119183B-4F7C-4E95-A2C5-5C94374A1B29}">
-            <xm:f>metadata!$B$40</xm:f>
+            <xm:f>metadata!$B$42</xm:f>
             <x14:dxf>
               <font>
                 <b/>
@@ -2683,7 +3548,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="cellIs" priority="11" operator="lessThan" id="{4575317E-D25D-4D59-8E6D-265A0FECBEEE}">
-            <xm:f>metadata!$B$41</xm:f>
+            <xm:f>metadata!$B$43</xm:f>
             <x14:dxf>
               <font>
                 <b/>
@@ -2698,7 +3563,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="cellIs" priority="15" operator="greaterThanOrEqual" id="{D637231B-DA67-4B5D-8816-BC1D11BAA3FA}">
-            <xm:f>metadata!$B$41</xm:f>
+            <xm:f>metadata!$B$43</xm:f>
             <x14:dxf>
               <font>
                 <b/>
@@ -2712,7 +3577,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>J5:J10 J12:J19</xm:sqref>
+          <xm:sqref>L5:L10 L12:L17</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -2722,13 +3587,13 @@
           <x14:formula1>
             <xm:f>metadata!$B$4:$B$9</xm:f>
           </x14:formula1>
-          <xm:sqref>C5 C12:C19</xm:sqref>
+          <xm:sqref>E5 E12:E17</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{71FF1A0F-39C6-4406-8BB2-4E5C78D18ED3}">
           <x14:formula1>
             <xm:f>metadata!$B$13:$B$20</xm:f>
           </x14:formula1>
-          <xm:sqref>E5 E12:E19</xm:sqref>
+          <xm:sqref>G5 G12:G17</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2738,10 +3603,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19516C02-D26E-4E50-92D5-1B313BC98CB6}">
-  <dimension ref="B2:K42"/>
+  <dimension ref="B2:AB63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F9" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2751,235 +3616,241 @@
     <col min="6" max="6" width="12.6328125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.1796875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19.90625" customWidth="1"/>
+    <col min="12" max="12" width="2.90625" customWidth="1"/>
+    <col min="13" max="13" width="4.453125" customWidth="1"/>
+    <col min="14" max="14" width="1" customWidth="1"/>
+    <col min="15" max="15" width="1.453125" customWidth="1"/>
+    <col min="16" max="27" width="3.36328125" customWidth="1"/>
+    <col min="28" max="28" width="5.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="B2" s="28" t="s">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="29" t="s">
+      <c r="E2" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="29" t="s">
+      <c r="F2" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="29" t="s">
+      <c r="G2" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="29" t="s">
+      <c r="H2" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B3" s="28"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="20" t="s">
+      <c r="B3" s="18"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="21" t="s">
+      <c r="E3" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="21" t="s">
+      <c r="F3" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="21" t="s">
+      <c r="G3" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="H3" s="21" t="s">
+      <c r="H3" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B4" s="27">
+      <c r="B4" s="17">
         <v>5</v>
       </c>
-      <c r="C4" s="23">
+      <c r="C4" s="15">
         <v>7</v>
       </c>
-      <c r="D4" s="23">
+      <c r="D4" s="15">
         <v>-7.5</v>
       </c>
-      <c r="E4" s="21">
+      <c r="E4" s="13">
         <v>5470</v>
       </c>
-      <c r="F4" s="24">
-        <f>($C$23+$C$24)*8/E4*1000</f>
+      <c r="F4" s="16">
+        <f t="shared" ref="F4:F9" si="0">($C$23+$C$24)*8/E4*1000</f>
         <v>127.23948811700184</v>
       </c>
-      <c r="G4" s="30">
+      <c r="G4" s="20">
         <f>24*60/($C$26/F4*1000)/60</f>
         <v>0.10179159049360148</v>
       </c>
-      <c r="H4" s="25" t="str">
+      <c r="H4" s="13" t="str">
         <f>IF(INT(G4)&gt;0, INT(G4)&amp;"h ","") &amp; ROUND((G4-INT(G4))*60,0) &amp; "min"</f>
         <v>6min</v>
       </c>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B5" s="27">
+      <c r="B5" s="17">
         <v>4</v>
       </c>
-      <c r="C5" s="23">
+      <c r="C5" s="15">
         <v>8</v>
       </c>
-      <c r="D5" s="23">
+      <c r="D5" s="15">
         <v>-10</v>
       </c>
-      <c r="E5" s="21">
+      <c r="E5" s="13">
         <v>3125</v>
       </c>
-      <c r="F5" s="24">
-        <f>($C$23+$C$24)*8/E5*1000</f>
+      <c r="F5" s="16">
+        <f t="shared" si="0"/>
         <v>222.72</v>
       </c>
-      <c r="G5" s="30">
-        <f t="shared" ref="G5:G9" si="0">24*60/($C$26/F5*1000)/60</f>
+      <c r="G5" s="20">
+        <f t="shared" ref="G5:G9" si="1">24*60/($C$26/F5*1000)/60</f>
         <v>0.17817599999999997</v>
       </c>
-      <c r="H5" s="25" t="str">
-        <f t="shared" ref="H5:H9" si="1">IF(INT(G5)&gt;0, INT(G5)&amp;"h ","") &amp; ROUND((G5-INT(G5))*60,0) &amp; "min"</f>
+      <c r="H5" s="13" t="str">
+        <f t="shared" ref="H5:H9" si="2">IF(INT(G5)&gt;0, INT(G5)&amp;"h ","") &amp; ROUND((G5-INT(G5))*60,0) &amp; "min"</f>
         <v>11min</v>
       </c>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B6" s="27">
+      <c r="B6" s="17">
         <v>3</v>
       </c>
-      <c r="C6" s="23">
+      <c r="C6" s="15">
         <v>9</v>
       </c>
-      <c r="D6" s="23">
+      <c r="D6" s="15">
         <v>-12.5</v>
       </c>
-      <c r="E6" s="21">
+      <c r="E6" s="13">
         <v>1760</v>
       </c>
-      <c r="F6" s="24">
-        <f>($C$23+$C$24)*8/E6*1000</f>
+      <c r="F6" s="16">
+        <f t="shared" si="0"/>
         <v>395.45454545454544</v>
       </c>
-      <c r="G6" s="30">
+      <c r="G6" s="20">
+        <f t="shared" si="1"/>
+        <v>0.3163636363636364</v>
+      </c>
+      <c r="H6" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>19min</v>
+      </c>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B7" s="17">
+        <v>2</v>
+      </c>
+      <c r="C7" s="15">
+        <v>10</v>
+      </c>
+      <c r="D7" s="15">
+        <v>-15</v>
+      </c>
+      <c r="E7" s="13">
+        <v>980</v>
+      </c>
+      <c r="F7" s="16">
         <f t="shared" si="0"/>
-        <v>0.3163636363636364</v>
-      </c>
-      <c r="H6" s="25" t="str">
+        <v>710.20408163265301</v>
+      </c>
+      <c r="G7" s="20">
         <f t="shared" si="1"/>
-        <v>19min</v>
-      </c>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="22"/>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B7" s="27">
-        <v>2</v>
-      </c>
-      <c r="C7" s="23">
-        <v>10</v>
-      </c>
-      <c r="D7" s="23">
-        <v>-15</v>
-      </c>
-      <c r="E7" s="21">
-        <v>980</v>
-      </c>
-      <c r="F7" s="24">
-        <f>($C$23+$C$24)*8/E7*1000</f>
-        <v>710.20408163265301</v>
-      </c>
-      <c r="G7" s="30">
+        <v>0.56816326530612249</v>
+      </c>
+      <c r="H7" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>34min</v>
+      </c>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B8" s="17">
+        <v>1</v>
+      </c>
+      <c r="C8" s="15">
+        <v>11</v>
+      </c>
+      <c r="D8" s="15">
+        <v>-17.5</v>
+      </c>
+      <c r="E8" s="13">
+        <v>440</v>
+      </c>
+      <c r="F8" s="16">
         <f t="shared" si="0"/>
-        <v>0.56816326530612249</v>
-      </c>
-      <c r="H7" s="25" t="str">
+        <v>1581.8181818181818</v>
+      </c>
+      <c r="G8" s="20">
         <f t="shared" si="1"/>
-        <v>34min</v>
-      </c>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="22"/>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B8" s="27">
-        <v>1</v>
-      </c>
-      <c r="C8" s="23">
-        <v>11</v>
-      </c>
-      <c r="D8" s="23">
-        <v>-17.5</v>
-      </c>
-      <c r="E8" s="21">
-        <v>440</v>
-      </c>
-      <c r="F8" s="24">
-        <f>($C$23+$C$24)*8/E8*1000</f>
-        <v>1581.8181818181818</v>
-      </c>
-      <c r="G8" s="30">
+        <v>1.2654545454545456</v>
+      </c>
+      <c r="H8" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>1h 16min</v>
+      </c>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B9" s="17">
+        <v>0</v>
+      </c>
+      <c r="C9" s="15">
+        <v>12</v>
+      </c>
+      <c r="D9" s="15">
+        <v>-20</v>
+      </c>
+      <c r="E9" s="13">
+        <v>250</v>
+      </c>
+      <c r="F9" s="16">
         <f t="shared" si="0"/>
-        <v>1.2654545454545456</v>
-      </c>
-      <c r="H8" s="25" t="str">
+        <v>2784</v>
+      </c>
+      <c r="G9" s="20">
         <f t="shared" si="1"/>
-        <v>1h 16min</v>
-      </c>
-      <c r="I8" s="22"/>
-      <c r="J8" s="22"/>
-      <c r="K8" s="22"/>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B9" s="27">
-        <v>0</v>
-      </c>
-      <c r="C9" s="23">
-        <v>12</v>
-      </c>
-      <c r="D9" s="23">
-        <v>-20</v>
-      </c>
-      <c r="E9" s="21">
-        <v>250</v>
-      </c>
-      <c r="F9" s="24">
-        <f>($C$23+$C$24)*8/E9*1000</f>
-        <v>2784</v>
-      </c>
-      <c r="G9" s="30">
-        <f t="shared" si="0"/>
         <v>2.2272000000000003</v>
       </c>
-      <c r="H9" s="25" t="str">
-        <f t="shared" si="1"/>
+      <c r="H9" s="13" t="str">
+        <f t="shared" si="2"/>
         <v>2h 14min</v>
       </c>
-      <c r="I9" s="22"/>
-      <c r="J9" s="22"/>
-      <c r="K9" s="22"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.35">
       <c r="E10" s="2"/>
       <c r="F10" s="3"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B11" s="2"/>
@@ -2993,152 +3864,299 @@
       <c r="J11" s="2"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B12" s="29" t="s">
+      <c r="B12" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="29" t="s">
+      <c r="C12" s="19" t="s">
         <v>24</v>
       </c>
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B13" s="21">
+      <c r="B13" s="13">
         <v>7</v>
       </c>
-      <c r="C13" s="21">
+      <c r="C13" s="13">
         <v>7</v>
       </c>
       <c r="H13" s="2"/>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B14" s="21">
+      <c r="B14" s="13">
         <v>6</v>
       </c>
-      <c r="C14" s="21">
+      <c r="C14" s="13">
         <v>8</v>
       </c>
       <c r="H14" s="2"/>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B15" s="21">
+      <c r="B15" s="13">
         <v>5</v>
       </c>
-      <c r="C15" s="21">
+      <c r="C15" s="13">
         <v>9</v>
       </c>
       <c r="H15" s="2"/>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B16" s="21">
+      <c r="B16" s="13">
         <v>4</v>
       </c>
-      <c r="C16" s="21">
+      <c r="C16" s="13">
         <v>10</v>
       </c>
       <c r="H16" s="2"/>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B17" s="21">
+    <row r="17" spans="2:27" x14ac:dyDescent="0.35">
+      <c r="B17" s="13">
         <v>3</v>
       </c>
-      <c r="C17" s="21">
+      <c r="C17" s="13">
         <v>11</v>
       </c>
       <c r="H17" s="2"/>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B18" s="21">
+    <row r="18" spans="2:27" x14ac:dyDescent="0.35">
+      <c r="B18" s="13">
         <v>2</v>
       </c>
-      <c r="C18" s="21">
+      <c r="C18" s="13">
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B19" s="21">
+    <row r="19" spans="2:27" x14ac:dyDescent="0.35">
+      <c r="B19" s="13">
         <v>1</v>
       </c>
-      <c r="C19" s="21">
+      <c r="C19" s="13">
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B20" s="21">
+    <row r="20" spans="2:27" x14ac:dyDescent="0.35">
+      <c r="B20" s="13">
         <v>0</v>
       </c>
-      <c r="C20" s="21">
+      <c r="C20" s="13">
         <v>14</v>
       </c>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B23" s="28" t="s">
+      <c r="M20" s="104" t="s">
+        <v>66</v>
+      </c>
+      <c r="N20" s="103"/>
+      <c r="O20" s="103"/>
+    </row>
+    <row r="21" spans="2:27" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M21" s="104"/>
+      <c r="N21" s="103"/>
+      <c r="O21" s="108"/>
+    </row>
+    <row r="22" spans="2:27" x14ac:dyDescent="0.35">
+      <c r="M22" s="104"/>
+      <c r="N22" s="103"/>
+      <c r="O22" s="108"/>
+      <c r="P22" s="88"/>
+      <c r="Q22" s="89"/>
+      <c r="R22" s="84"/>
+      <c r="S22" s="85"/>
+      <c r="T22" s="78"/>
+      <c r="U22" s="79"/>
+      <c r="V22" s="67"/>
+      <c r="W22" s="68"/>
+      <c r="X22" s="56" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y22" s="57"/>
+      <c r="Z22" s="57"/>
+      <c r="AA22" s="58"/>
+    </row>
+    <row r="23" spans="2:27" x14ac:dyDescent="0.35">
+      <c r="B23" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C23" s="39">
+      <c r="C23" s="24">
         <v>51</v>
       </c>
-      <c r="D23" s="27" t="s">
+      <c r="D23" s="17" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B24" s="28" t="s">
+      <c r="M23" s="104"/>
+      <c r="N23" s="103"/>
+      <c r="O23" s="108"/>
+      <c r="P23" s="90"/>
+      <c r="Q23" s="91"/>
+      <c r="R23" s="86"/>
+      <c r="S23" s="87"/>
+      <c r="T23" s="80"/>
+      <c r="U23" s="81"/>
+      <c r="V23" s="69"/>
+      <c r="W23" s="70"/>
+      <c r="X23" s="59"/>
+      <c r="Y23" s="60"/>
+      <c r="Z23" s="60"/>
+      <c r="AA23" s="61"/>
+    </row>
+    <row r="24" spans="2:27" x14ac:dyDescent="0.35">
+      <c r="B24" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="39">
+      <c r="C24" s="24">
         <v>36</v>
       </c>
-      <c r="D24" s="27" t="s">
+      <c r="D24" s="17" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B25" s="28" t="s">
+      <c r="M24" s="104"/>
+      <c r="N24" s="103"/>
+      <c r="O24" s="108"/>
+      <c r="P24" s="90"/>
+      <c r="Q24" s="91"/>
+      <c r="R24" s="86"/>
+      <c r="S24" s="87"/>
+      <c r="T24" s="80"/>
+      <c r="U24" s="81"/>
+      <c r="V24" s="69"/>
+      <c r="W24" s="70"/>
+      <c r="X24" s="59"/>
+      <c r="Y24" s="60"/>
+      <c r="Z24" s="60"/>
+      <c r="AA24" s="61"/>
+    </row>
+    <row r="25" spans="2:27" x14ac:dyDescent="0.35">
+      <c r="B25" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C25" s="31">
+      <c r="C25" s="17">
         <v>0.1</v>
       </c>
-      <c r="D25" s="27" t="s">
+      <c r="D25" s="17" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B26" s="28" t="s">
+      <c r="M25" s="104"/>
+      <c r="N25" s="103"/>
+      <c r="O25" s="108"/>
+      <c r="P25" s="90"/>
+      <c r="Q25" s="91"/>
+      <c r="R25" s="86"/>
+      <c r="S25" s="87"/>
+      <c r="T25" s="80"/>
+      <c r="U25" s="81"/>
+      <c r="V25" s="69"/>
+      <c r="W25" s="70"/>
+      <c r="X25" s="59"/>
+      <c r="Y25" s="60"/>
+      <c r="Z25" s="60"/>
+      <c r="AA25" s="61"/>
+    </row>
+    <row r="26" spans="2:27" x14ac:dyDescent="0.35">
+      <c r="B26" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C26" s="31">
+      <c r="C26" s="17">
         <v>30</v>
       </c>
-      <c r="D26" s="27" t="s">
+      <c r="D26" s="17" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B28" s="37" t="s">
+      <c r="M26" s="104"/>
+      <c r="N26" s="103"/>
+      <c r="O26" s="108"/>
+      <c r="P26" s="90"/>
+      <c r="Q26" s="91"/>
+      <c r="R26" s="86"/>
+      <c r="S26" s="87"/>
+      <c r="T26" s="80"/>
+      <c r="U26" s="81"/>
+      <c r="V26" s="69"/>
+      <c r="W26" s="70"/>
+      <c r="X26" s="59"/>
+      <c r="Y26" s="60"/>
+      <c r="Z26" s="60"/>
+      <c r="AA26" s="61"/>
+    </row>
+    <row r="27" spans="2:27" x14ac:dyDescent="0.35">
+      <c r="M27" s="117">
+        <f>B43</f>
+        <v>5</v>
+      </c>
+      <c r="N27" s="105"/>
+      <c r="O27" s="118"/>
+      <c r="P27" s="90"/>
+      <c r="Q27" s="91"/>
+      <c r="R27" s="86"/>
+      <c r="S27" s="87"/>
+      <c r="T27" s="80"/>
+      <c r="U27" s="81"/>
+      <c r="V27" s="69"/>
+      <c r="W27" s="70"/>
+      <c r="X27" s="62"/>
+      <c r="Y27" s="63"/>
+      <c r="Z27" s="63"/>
+      <c r="AA27" s="64"/>
+    </row>
+    <row r="28" spans="2:27" x14ac:dyDescent="0.35">
+      <c r="B28" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="C28" s="37"/>
-      <c r="D28" s="37"/>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B29" s="32" t="s">
+      <c r="C28" s="54"/>
+      <c r="D28" s="54"/>
+      <c r="M28" s="117"/>
+      <c r="N28" s="106"/>
+      <c r="O28" s="119"/>
+      <c r="P28" s="90"/>
+      <c r="Q28" s="91"/>
+      <c r="R28" s="86"/>
+      <c r="S28" s="87"/>
+      <c r="T28" s="80"/>
+      <c r="U28" s="81"/>
+      <c r="V28" s="69" t="s">
+        <v>60</v>
+      </c>
+      <c r="W28" s="75"/>
+      <c r="X28" s="73"/>
+      <c r="Y28" s="73"/>
+      <c r="Z28" s="73"/>
+      <c r="AA28" s="68"/>
+    </row>
+    <row r="29" spans="2:27" x14ac:dyDescent="0.35">
+      <c r="B29" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="C29" s="22"/>
-      <c r="D29" s="33" t="s">
+      <c r="C29" s="14"/>
+      <c r="D29" s="21" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B30" s="38">
+      <c r="G29" t="s">
+        <v>71</v>
+      </c>
+      <c r="M29" s="117">
+        <f>B42</f>
+        <v>0</v>
+      </c>
+      <c r="N29" s="106"/>
+      <c r="O29" s="119"/>
+      <c r="P29" s="90"/>
+      <c r="Q29" s="91"/>
+      <c r="R29" s="86"/>
+      <c r="S29" s="87"/>
+      <c r="T29" s="80"/>
+      <c r="U29" s="81"/>
+      <c r="V29" s="71"/>
+      <c r="W29" s="74"/>
+      <c r="X29" s="74"/>
+      <c r="Y29" s="74"/>
+      <c r="Z29" s="74"/>
+      <c r="AA29" s="72"/>
+    </row>
+    <row r="30" spans="2:27" x14ac:dyDescent="0.35">
+      <c r="B30" s="23">
         <v>-125</v>
       </c>
-      <c r="C30" s="34" t="str">
+      <c r="C30" s="22" t="str">
         <f>"&lt; "&amp;B30</f>
         <v>&lt; -125</v>
       </c>
-      <c r="D30" s="44" t="s">
+      <c r="D30" s="29" t="s">
         <v>31</v>
       </c>
       <c r="E30" t="s">
@@ -3147,16 +4165,36 @@
       <c r="F30" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B31" s="38">
+      <c r="G30" t="s">
+        <v>71</v>
+      </c>
+      <c r="M30" s="117"/>
+      <c r="N30" s="106"/>
+      <c r="O30" s="119"/>
+      <c r="P30" s="90"/>
+      <c r="Q30" s="91"/>
+      <c r="R30" s="86"/>
+      <c r="S30" s="87"/>
+      <c r="T30" s="99" t="s">
+        <v>63</v>
+      </c>
+      <c r="U30" s="101"/>
+      <c r="V30" s="82"/>
+      <c r="W30" s="82"/>
+      <c r="X30" s="82"/>
+      <c r="Y30" s="82"/>
+      <c r="Z30" s="82"/>
+      <c r="AA30" s="79"/>
+    </row>
+    <row r="31" spans="2:27" x14ac:dyDescent="0.35">
+      <c r="B31" s="23">
         <v>-115</v>
       </c>
-      <c r="C31" s="34" t="str">
+      <c r="C31" s="22" t="str">
         <f>"range "&amp;B31&amp; " … "&amp;B30</f>
         <v>range -115 … -125</v>
       </c>
-      <c r="D31" s="43" t="s">
+      <c r="D31" s="28" t="s">
         <v>32</v>
       </c>
       <c r="E31" t="s">
@@ -3165,16 +4203,37 @@
       <c r="F31" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B32" s="38">
+      <c r="G31" t="s">
+        <v>71</v>
+      </c>
+      <c r="M31" s="117">
+        <f>B41</f>
+        <v>-7</v>
+      </c>
+      <c r="N31" s="106"/>
+      <c r="O31" s="119"/>
+      <c r="P31" s="90"/>
+      <c r="Q31" s="91"/>
+      <c r="R31" s="86"/>
+      <c r="S31" s="87"/>
+      <c r="T31" s="99"/>
+      <c r="U31" s="101"/>
+      <c r="V31" s="83"/>
+      <c r="W31" s="83"/>
+      <c r="X31" s="83"/>
+      <c r="Y31" s="83"/>
+      <c r="Z31" s="83"/>
+      <c r="AA31" s="81"/>
+    </row>
+    <row r="32" spans="2:27" x14ac:dyDescent="0.35">
+      <c r="B32" s="23">
         <v>-100</v>
       </c>
-      <c r="C32" s="34" t="str">
+      <c r="C32" s="22" t="str">
         <f>"range "&amp;B32&amp; " … "&amp;B31</f>
         <v>range -100 … -115</v>
       </c>
-      <c r="D32" s="42" t="s">
+      <c r="D32" s="27" t="s">
         <v>36</v>
       </c>
       <c r="E32" t="s">
@@ -3183,142 +4242,347 @@
       <c r="F32" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B33" s="38">
+      <c r="G32" t="s">
+        <v>71</v>
+      </c>
+      <c r="M32" s="117"/>
+      <c r="N32" s="106"/>
+      <c r="O32" s="119"/>
+      <c r="P32" s="90"/>
+      <c r="Q32" s="91"/>
+      <c r="R32" s="96" t="s">
+        <v>64</v>
+      </c>
+      <c r="S32" s="97"/>
+      <c r="T32" s="94"/>
+      <c r="U32" s="94"/>
+      <c r="V32" s="94"/>
+      <c r="W32" s="94"/>
+      <c r="X32" s="94"/>
+      <c r="Y32" s="94"/>
+      <c r="Z32" s="94"/>
+      <c r="AA32" s="95"/>
+    </row>
+    <row r="33" spans="2:28" x14ac:dyDescent="0.35">
+      <c r="B33" s="23">
         <v>-90</v>
       </c>
-      <c r="C33" s="34" t="str">
+      <c r="C33" s="22" t="str">
         <f>"range "&amp;B33&amp; " … "&amp;B32</f>
         <v>range -90 … -100</v>
       </c>
-      <c r="D33" s="41" t="s">
+      <c r="D33" s="26" t="s">
         <v>33</v>
       </c>
       <c r="E33" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B34" s="34" t="str">
+      <c r="G33" t="s">
+        <v>71</v>
+      </c>
+      <c r="K33" s="117" t="str">
+        <f>D4&amp;"(SF7) to "&amp;D9&amp;" (SF12)"</f>
+        <v>-7.5(SF7) to -20 (SF12)</v>
+      </c>
+      <c r="L33" s="117"/>
+      <c r="M33" s="117"/>
+      <c r="N33" s="106"/>
+      <c r="O33" s="119"/>
+      <c r="P33" s="90"/>
+      <c r="Q33" s="91"/>
+      <c r="R33" s="96"/>
+      <c r="S33" s="97"/>
+      <c r="T33" s="97"/>
+      <c r="U33" s="97"/>
+      <c r="V33" s="97"/>
+      <c r="W33" s="97"/>
+      <c r="X33" s="97"/>
+      <c r="Y33" s="97"/>
+      <c r="Z33" s="97"/>
+      <c r="AA33" s="98"/>
+    </row>
+    <row r="34" spans="2:28" x14ac:dyDescent="0.35">
+      <c r="B34" s="22" t="str">
         <f>"&gt; "&amp;B33</f>
         <v>&gt; -90</v>
       </c>
-      <c r="C34" s="34" t="str">
+      <c r="C34" s="22" t="str">
         <f>"&gt; "&amp;B33</f>
         <v>&gt; -90</v>
       </c>
-      <c r="D34" s="40" t="s">
+      <c r="D34" s="25" t="s">
         <v>34</v>
       </c>
       <c r="E34" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B36" s="37" t="s">
+      <c r="G34" t="s">
+        <v>71</v>
+      </c>
+      <c r="K34" s="117"/>
+      <c r="L34" s="117"/>
+      <c r="M34" s="117"/>
+      <c r="N34" s="106"/>
+      <c r="O34" s="119"/>
+      <c r="P34" s="100" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q34" s="102"/>
+      <c r="R34" s="93"/>
+      <c r="S34" s="93"/>
+      <c r="T34" s="93"/>
+      <c r="U34" s="93"/>
+      <c r="V34" s="93"/>
+      <c r="W34" s="93"/>
+      <c r="X34" s="93"/>
+      <c r="Y34" s="93"/>
+      <c r="Z34" s="93"/>
+      <c r="AA34" s="89"/>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.35">
+      <c r="B35" s="109"/>
+      <c r="C35" s="109"/>
+      <c r="D35" s="124"/>
+      <c r="K35" s="125"/>
+      <c r="L35" s="125"/>
+      <c r="M35" s="125"/>
+      <c r="N35" s="107"/>
+      <c r="O35" s="119"/>
+      <c r="P35" s="111"/>
+      <c r="Q35" s="112"/>
+      <c r="R35" s="113"/>
+      <c r="S35" s="113"/>
+      <c r="T35" s="113"/>
+      <c r="U35" s="113"/>
+      <c r="V35" s="113"/>
+      <c r="W35" s="113"/>
+      <c r="X35" s="113"/>
+      <c r="Y35" s="113"/>
+      <c r="Z35" s="113"/>
+      <c r="AA35" s="92"/>
+    </row>
+    <row r="36" spans="2:28" ht="7" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="109"/>
+      <c r="C36" s="109"/>
+      <c r="D36" s="124"/>
+      <c r="M36" s="110"/>
+      <c r="N36" s="114"/>
+      <c r="O36" s="115"/>
+      <c r="P36" s="66"/>
+      <c r="Q36" s="66"/>
+      <c r="R36" s="116"/>
+      <c r="S36" s="116"/>
+      <c r="T36" s="116"/>
+      <c r="U36" s="116"/>
+      <c r="V36" s="116"/>
+      <c r="W36" s="116"/>
+      <c r="X36" s="116"/>
+      <c r="Y36" s="116"/>
+      <c r="Z36" s="116"/>
+      <c r="AA36" s="116"/>
+      <c r="AB36" s="76"/>
+    </row>
+    <row r="37" spans="2:28" ht="7" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M37" s="110"/>
+      <c r="N37" s="110"/>
+      <c r="O37" s="77"/>
+      <c r="P37" s="77"/>
+      <c r="Q37" s="123"/>
+      <c r="R37" s="120"/>
+      <c r="S37" s="120"/>
+      <c r="T37" s="120"/>
+      <c r="U37" s="120"/>
+      <c r="V37" s="120"/>
+      <c r="W37" s="120"/>
+      <c r="X37" s="120"/>
+      <c r="Y37" s="120"/>
+      <c r="Z37" s="120"/>
+      <c r="AA37" s="121"/>
+      <c r="AB37" s="122"/>
+    </row>
+    <row r="38" spans="2:28" x14ac:dyDescent="0.35">
+      <c r="B38" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="C36" s="37"/>
-      <c r="D36" s="37"/>
-    </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B37" s="32" t="s">
+      <c r="C38" s="54"/>
+      <c r="D38" s="54"/>
+      <c r="M38" s="110"/>
+      <c r="N38" s="110"/>
+      <c r="O38" s="110"/>
+      <c r="Q38" s="55">
+        <f>B30</f>
+        <v>-125</v>
+      </c>
+      <c r="R38" s="55"/>
+      <c r="S38" s="55">
+        <f>B31</f>
+        <v>-115</v>
+      </c>
+      <c r="T38" s="55"/>
+      <c r="U38" s="55">
+        <f>B32</f>
+        <v>-100</v>
+      </c>
+      <c r="V38" s="55"/>
+      <c r="W38" s="55">
+        <f>B33</f>
+        <v>-90</v>
+      </c>
+      <c r="X38" s="55"/>
+      <c r="Y38" s="65" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="39" spans="2:28" x14ac:dyDescent="0.35">
+      <c r="B39" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="C39" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D37" s="33" t="s">
+      <c r="D39" s="21" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B38" s="38">
+    <row r="40" spans="2:28" x14ac:dyDescent="0.35">
+      <c r="B40" s="23">
         <v>-15</v>
       </c>
-      <c r="C38" s="34" t="str">
-        <f>"&lt; "&amp;B38</f>
+      <c r="C40" s="22" t="str">
+        <f>"&lt; "&amp;B40</f>
         <v>&lt; -15</v>
       </c>
-      <c r="D38" s="44" t="s">
+      <c r="D40" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E40" t="s">
         <v>47</v>
       </c>
-      <c r="F38" t="s">
+      <c r="F40" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B39" s="38">
+      <c r="G40" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB40" s="65"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.35">
+      <c r="B41" s="23">
         <v>-7</v>
       </c>
-      <c r="C39" s="34" t="str">
-        <f>"range "&amp;B39&amp; " … "&amp;B38</f>
+      <c r="C41" s="22" t="str">
+        <f>"range "&amp;B41&amp; " … "&amp;B40</f>
         <v>range -7 … -15</v>
       </c>
-      <c r="D39" s="43" t="s">
+      <c r="D41" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="E39" t="s">
-        <v>47</v>
-      </c>
-      <c r="F39" t="s">
+      <c r="E41" t="s">
+        <v>70</v>
+      </c>
+      <c r="F41" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B40" s="38">
+      <c r="G41" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="42" spans="2:28" x14ac:dyDescent="0.35">
+      <c r="B42" s="23">
         <v>0</v>
       </c>
-      <c r="C40" s="34" t="str">
-        <f>"range "&amp;B40&amp; " … "&amp;B39</f>
+      <c r="C42" s="22" t="str">
+        <f>"range "&amp;B42&amp; " … "&amp;B41</f>
         <v>range 0 … -7</v>
       </c>
-      <c r="D40" s="42" t="s">
+      <c r="D42" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="E40" t="s">
+      <c r="E42" t="s">
         <v>44</v>
       </c>
-      <c r="F40" t="s">
+      <c r="F42" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B41" s="38">
+      <c r="G42" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.35">
+      <c r="B43" s="23">
         <v>5</v>
       </c>
-      <c r="C41" s="34" t="str">
-        <f>"range "&amp;B41&amp; " … "&amp;B40</f>
+      <c r="C43" s="22" t="str">
+        <f>"range "&amp;B43&amp; " … "&amp;B42</f>
         <v>range 5 … 0</v>
       </c>
-      <c r="D41" s="41" t="s">
+      <c r="D43" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="E41" t="s">
+      <c r="E43" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B42" s="22"/>
-      <c r="C42" s="34" t="str">
-        <f>"&gt; "&amp;B41</f>
+    <row r="44" spans="2:28" x14ac:dyDescent="0.35">
+      <c r="B44" s="14"/>
+      <c r="C44" s="22" t="str">
+        <f>"&gt; "&amp;B43</f>
         <v>&gt; 5</v>
       </c>
-      <c r="D42" s="40" t="s">
+      <c r="D44" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="E42" t="s">
+      <c r="E44" t="s">
         <v>42</v>
       </c>
     </row>
+    <row r="62" ht="6.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="63" ht="6.5" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="43">
+    <mergeCell ref="O37:Q37"/>
+    <mergeCell ref="R37:S37"/>
+    <mergeCell ref="T37:U37"/>
+    <mergeCell ref="V37:W37"/>
+    <mergeCell ref="X37:AA37"/>
+    <mergeCell ref="O36:Q36"/>
+    <mergeCell ref="R36:S36"/>
+    <mergeCell ref="T36:U36"/>
+    <mergeCell ref="V36:W36"/>
+    <mergeCell ref="X36:AA36"/>
+    <mergeCell ref="O28:O29"/>
+    <mergeCell ref="O30:O31"/>
+    <mergeCell ref="O32:O33"/>
+    <mergeCell ref="O34:O35"/>
+    <mergeCell ref="N28:N29"/>
+    <mergeCell ref="N30:N31"/>
+    <mergeCell ref="N32:N33"/>
+    <mergeCell ref="N34:N35"/>
+    <mergeCell ref="K33:M34"/>
+    <mergeCell ref="K35:M35"/>
+    <mergeCell ref="M20:M26"/>
+    <mergeCell ref="Q38:R38"/>
+    <mergeCell ref="T22:U29"/>
+    <mergeCell ref="T30:U31"/>
+    <mergeCell ref="V30:AA31"/>
+    <mergeCell ref="R22:S31"/>
+    <mergeCell ref="R32:S33"/>
+    <mergeCell ref="T32:AA33"/>
+    <mergeCell ref="P22:Q33"/>
+    <mergeCell ref="P34:Q35"/>
+    <mergeCell ref="R34:AA35"/>
     <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="X22:AA27"/>
+    <mergeCell ref="W38:X38"/>
+    <mergeCell ref="U38:V38"/>
+    <mergeCell ref="V22:W27"/>
+    <mergeCell ref="X28:AA29"/>
+    <mergeCell ref="V28:W29"/>
+    <mergeCell ref="M27:M28"/>
+    <mergeCell ref="M29:M30"/>
+    <mergeCell ref="M31:M32"/>
+    <mergeCell ref="S38:T38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/docs/field_tester_table.xlsx
+++ b/docs/field_tester_table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositories\github\hslu-ige-laes\lora-devices-ttn\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71000FC2-003D-4D76-A491-27866ABF3D59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B37EB6F3-1F3F-4601-A144-27208F80B84E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25695" yWindow="0" windowWidth="26010" windowHeight="20985" activeTab="1" xr2:uid="{5E3F2E18-7DEC-441E-A9D7-951EC58CBC1B}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="26010" windowHeight="20985" activeTab="1" xr2:uid="{5E3F2E18-7DEC-441E-A9D7-951EC58CBC1B}"/>
   </bookViews>
   <sheets>
     <sheet name="table" sheetId="2" r:id="rId1"/>
@@ -718,7 +718,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="150">
+  <cellXfs count="149">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -851,6 +851,94 @@
     <xf numFmtId="0" fontId="4" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -859,10 +947,16 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -875,74 +969,48 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -955,10 +1023,16 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -973,6 +1047,21 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -985,173 +1074,83 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1432,9 +1431,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>1206500</xdr:colOff>
+      <xdr:colOff>1209675</xdr:colOff>
       <xdr:row>70</xdr:row>
-      <xdr:rowOff>50228</xdr:rowOff>
+      <xdr:rowOff>47053</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2755,43 +2754,43 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:17" s="6" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="132" t="s">
+      <c r="B2" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="133"/>
-      <c r="D2" s="134"/>
-      <c r="E2" s="46" t="s">
+      <c r="C2" s="63"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="78" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="46" t="s">
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="78" t="s">
         <v>35</v>
       </c>
-      <c r="J2" s="51"/>
-      <c r="K2" s="50" t="s">
+      <c r="J2" s="85"/>
+      <c r="K2" s="84" t="s">
         <v>26</v>
       </c>
-      <c r="L2" s="50"/>
-      <c r="M2" s="50"/>
+      <c r="L2" s="84"/>
+      <c r="M2" s="84"/>
       <c r="N2" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="O2" s="46" t="s">
+      <c r="O2" s="78" t="s">
         <v>41</v>
       </c>
-      <c r="P2" s="47"/>
-      <c r="Q2" s="48"/>
+      <c r="P2" s="79"/>
+      <c r="Q2" s="80"/>
     </row>
     <row r="3" spans="2:17" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="128" t="s">
+      <c r="B3" s="58" t="s">
         <v>68</v>
       </c>
-      <c r="C3" s="135" t="s">
+      <c r="C3" s="65" t="s">
         <v>67</v>
       </c>
-      <c r="D3" s="130" t="s">
+      <c r="D3" s="60" t="s">
         <v>69</v>
       </c>
       <c r="E3" s="8" t="s">
@@ -2800,10 +2799,10 @@
       <c r="F3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="52" t="s">
+      <c r="G3" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="53"/>
+      <c r="H3" s="87"/>
       <c r="I3" s="8" t="s">
         <v>14</v>
       </c>
@@ -2833,9 +2832,9 @@
       </c>
     </row>
     <row r="4" spans="2:17" s="1" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="129"/>
-      <c r="C4" s="136"/>
-      <c r="D4" s="131"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="61"/>
       <c r="E4" s="9" t="s">
         <v>23</v>
       </c>
@@ -2872,8 +2871,8 @@
       <c r="B5" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="126"/>
-      <c r="D5" s="126"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="56"/>
       <c r="E5" s="10">
         <v>1</v>
       </c>
@@ -2921,8 +2920,8 @@
     </row>
     <row r="6" spans="2:17" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="38"/>
-      <c r="C6" s="126"/>
-      <c r="D6" s="126"/>
+      <c r="C6" s="56"/>
+      <c r="D6" s="56"/>
       <c r="E6" s="10"/>
       <c r="F6" s="7" t="str">
         <f>IF(E6="","",VLOOKUP(E6,metadata!$B$4:$D$9,2,))</f>
@@ -2960,8 +2959,8 @@
     </row>
     <row r="7" spans="2:17" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="38"/>
-      <c r="C7" s="126"/>
-      <c r="D7" s="126"/>
+      <c r="C7" s="56"/>
+      <c r="D7" s="56"/>
       <c r="E7" s="10"/>
       <c r="F7" s="7" t="str">
         <f>IF(E7="","",VLOOKUP(E7,metadata!$B$4:$D$9,2,))</f>
@@ -2999,8 +2998,8 @@
     </row>
     <row r="8" spans="2:17" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="38"/>
-      <c r="C8" s="126"/>
-      <c r="D8" s="126"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="56"/>
       <c r="E8" s="10"/>
       <c r="F8" s="7" t="str">
         <f>IF(E8="","",VLOOKUP(E8,metadata!$B$4:$D$9,2,))</f>
@@ -3038,8 +3037,8 @@
     </row>
     <row r="9" spans="2:17" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="38"/>
-      <c r="C9" s="126"/>
-      <c r="D9" s="126"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="56"/>
       <c r="E9" s="10"/>
       <c r="F9" s="7" t="str">
         <f>IF(E9="","",VLOOKUP(E9,metadata!$B$4:$D$9,2,))</f>
@@ -3077,8 +3076,8 @@
     </row>
     <row r="10" spans="2:17" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="40"/>
-      <c r="C10" s="127"/>
-      <c r="D10" s="127"/>
+      <c r="C10" s="57"/>
+      <c r="D10" s="57"/>
       <c r="E10" s="41"/>
       <c r="F10" s="7" t="str">
         <f>IF(E10="","",VLOOKUP(E10,metadata!$B$4:$D$9,2,))</f>
@@ -3115,80 +3114,80 @@
       </c>
     </row>
     <row r="11" spans="2:17" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="141" t="s">
+      <c r="B11" s="81" t="s">
         <v>59</v>
       </c>
-      <c r="C11" s="49"/>
-      <c r="D11" s="49"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="49"/>
-      <c r="G11" s="49"/>
-      <c r="H11" s="49"/>
-      <c r="I11" s="49"/>
-      <c r="J11" s="49"/>
-      <c r="K11" s="49"/>
-      <c r="L11" s="49"/>
-      <c r="M11" s="49"/>
-      <c r="N11" s="49"/>
-      <c r="O11" s="49"/>
-      <c r="P11" s="49"/>
-      <c r="Q11" s="142"/>
+      <c r="C11" s="82"/>
+      <c r="D11" s="82"/>
+      <c r="E11" s="82"/>
+      <c r="F11" s="82"/>
+      <c r="G11" s="82"/>
+      <c r="H11" s="82"/>
+      <c r="I11" s="82"/>
+      <c r="J11" s="82"/>
+      <c r="K11" s="82"/>
+      <c r="L11" s="82"/>
+      <c r="M11" s="82"/>
+      <c r="N11" s="82"/>
+      <c r="O11" s="82"/>
+      <c r="P11" s="82"/>
+      <c r="Q11" s="83"/>
     </row>
     <row r="12" spans="2:17" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="137" t="s">
+      <c r="B12" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="138"/>
-      <c r="D12" s="138"/>
-      <c r="E12" s="143">
+      <c r="C12" s="68"/>
+      <c r="D12" s="68"/>
+      <c r="E12" s="71">
         <v>1</v>
       </c>
-      <c r="F12" s="144">
+      <c r="F12" s="72">
         <f>IF(E12="","",VLOOKUP(E12,metadata!$B$4:$D$9,2,))</f>
         <v>11</v>
       </c>
-      <c r="G12" s="143">
+      <c r="G12" s="71">
         <v>0</v>
       </c>
-      <c r="H12" s="144">
+      <c r="H12" s="72">
         <f>IF(G12="","",VLOOKUP(G12,metadata!$B$13:$C$20,2,))</f>
         <v>14</v>
       </c>
-      <c r="I12" s="144" t="str">
+      <c r="I12" s="72" t="str">
         <f>IF(E12="","",VLOOKUP(E12,metadata!$B$4:$H$9,7,))</f>
         <v>1h 16min</v>
       </c>
-      <c r="J12" s="144">
+      <c r="J12" s="72">
         <f>IF(E12="","",VLOOKUP(E12,metadata!$B$4:$D$9,3,))</f>
         <v>-17.5</v>
       </c>
-      <c r="K12" s="145">
+      <c r="K12" s="73">
         <v>-88</v>
       </c>
-      <c r="L12" s="144">
+      <c r="L12" s="72">
         <v>2</v>
       </c>
-      <c r="M12" s="146">
+      <c r="M12" s="74">
         <v>2</v>
       </c>
-      <c r="N12" s="147"/>
-      <c r="O12" s="148" t="str">
+      <c r="N12" s="75"/>
+      <c r="O12" s="76" t="str">
         <f t="shared" ref="O12:O17" si="3">IF(M12="","",IF(M12=0,"Add Gateway(s), no reception.",IF(M12&lt;2,"Add Gateway to be safe.","")))</f>
         <v/>
       </c>
-      <c r="P12" s="148" t="str">
+      <c r="P12" s="76" t="str">
         <f>IF(M12="","",IF(M12=0,"Add Gateway(s), no reception.",IF(M12&lt;2,"Add Gateway to be safe.","")))</f>
         <v/>
       </c>
-      <c r="Q12" s="149" t="str">
+      <c r="Q12" s="77" t="str">
         <f>IF(L12="","",IF(F12=7,"Keep SF/DR, already on best",IF(L12&gt;J12+3,"Try DR"&amp;E12+1&amp;"/ SF"&amp;F12-1,IF(L12&lt;J12,"Increase SF","Keep SF/DF"))))</f>
         <v>Try DR2/ SF10</v>
       </c>
     </row>
     <row r="13" spans="2:17" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="38"/>
-      <c r="C13" s="126"/>
-      <c r="D13" s="126"/>
+      <c r="C13" s="56"/>
+      <c r="D13" s="56"/>
       <c r="E13" s="10"/>
       <c r="F13" s="7" t="str">
         <f>IF(E13="","",VLOOKUP(E13,metadata!$B$4:$D$9,2,))</f>
@@ -3226,8 +3225,8 @@
     </row>
     <row r="14" spans="2:17" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="38"/>
-      <c r="C14" s="126"/>
-      <c r="D14" s="126"/>
+      <c r="C14" s="56"/>
+      <c r="D14" s="56"/>
       <c r="E14" s="10"/>
       <c r="F14" s="7" t="str">
         <f>IF(E14="","",VLOOKUP(E14,metadata!$B$4:$D$9,2,))</f>
@@ -3265,8 +3264,8 @@
     </row>
     <row r="15" spans="2:17" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="38"/>
-      <c r="C15" s="126"/>
-      <c r="D15" s="126"/>
+      <c r="C15" s="56"/>
+      <c r="D15" s="56"/>
       <c r="E15" s="10"/>
       <c r="F15" s="7" t="str">
         <f>IF(E15="","",VLOOKUP(E15,metadata!$B$4:$D$9,2,))</f>
@@ -3304,8 +3303,8 @@
     </row>
     <row r="16" spans="2:17" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="38"/>
-      <c r="C16" s="126"/>
-      <c r="D16" s="126"/>
+      <c r="C16" s="56"/>
+      <c r="D16" s="56"/>
       <c r="E16" s="10"/>
       <c r="F16" s="7" t="str">
         <f>IF(E16="","",VLOOKUP(E16,metadata!$B$4:$D$9,2,))</f>
@@ -3343,8 +3342,8 @@
     </row>
     <row r="17" spans="2:17" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="40"/>
-      <c r="C17" s="127"/>
-      <c r="D17" s="127"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="57"/>
       <c r="E17" s="41"/>
       <c r="F17" s="43" t="str">
         <f>IF(E17="","",VLOOKUP(E17,metadata!$B$4:$D$9,2,))</f>
@@ -3367,15 +3366,15 @@
       <c r="L17" s="43"/>
       <c r="M17" s="44"/>
       <c r="N17" s="45"/>
-      <c r="O17" s="139" t="str">
+      <c r="O17" s="69" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="P17" s="139" t="str">
+      <c r="P17" s="69" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="Q17" s="140" t="str">
+      <c r="Q17" s="70" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -3605,8 +3604,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19516C02-D26E-4E50-92D5-1B313BC98CB6}">
   <dimension ref="B2:AB63"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F9" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3616,6 +3615,7 @@
     <col min="6" max="6" width="12.6328125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.1796875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19.90625" customWidth="1"/>
+    <col min="11" max="11" width="12" customWidth="1"/>
     <col min="12" max="12" width="2.90625" customWidth="1"/>
     <col min="13" max="13" width="4.453125" customWidth="1"/>
     <col min="14" max="14" width="1" customWidth="1"/>
@@ -3940,35 +3940,35 @@
       <c r="C20" s="13">
         <v>14</v>
       </c>
-      <c r="M20" s="104" t="s">
+      <c r="M20" s="100" t="s">
         <v>66</v>
       </c>
-      <c r="N20" s="103"/>
-      <c r="O20" s="103"/>
+      <c r="N20" s="49"/>
+      <c r="O20" s="49"/>
     </row>
     <row r="21" spans="2:27" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="M21" s="104"/>
-      <c r="N21" s="103"/>
-      <c r="O21" s="108"/>
+      <c r="M21" s="100"/>
+      <c r="N21" s="49"/>
+      <c r="O21" s="51"/>
     </row>
     <row r="22" spans="2:27" x14ac:dyDescent="0.35">
-      <c r="M22" s="104"/>
-      <c r="N22" s="103"/>
-      <c r="O22" s="108"/>
-      <c r="P22" s="88"/>
-      <c r="Q22" s="89"/>
-      <c r="R22" s="84"/>
-      <c r="S22" s="85"/>
-      <c r="T22" s="78"/>
-      <c r="U22" s="79"/>
-      <c r="V22" s="67"/>
-      <c r="W22" s="68"/>
-      <c r="X22" s="56" t="s">
+      <c r="M22" s="100"/>
+      <c r="N22" s="49"/>
+      <c r="O22" s="51"/>
+      <c r="P22" s="119"/>
+      <c r="Q22" s="120"/>
+      <c r="R22" s="110"/>
+      <c r="S22" s="111"/>
+      <c r="T22" s="102"/>
+      <c r="U22" s="103"/>
+      <c r="V22" s="140"/>
+      <c r="W22" s="141"/>
+      <c r="X22" s="131" t="s">
         <v>61</v>
       </c>
-      <c r="Y22" s="57"/>
-      <c r="Z22" s="57"/>
-      <c r="AA22" s="58"/>
+      <c r="Y22" s="132"/>
+      <c r="Z22" s="132"/>
+      <c r="AA22" s="133"/>
     </row>
     <row r="23" spans="2:27" x14ac:dyDescent="0.35">
       <c r="B23" s="18" t="s">
@@ -3980,21 +3980,21 @@
       <c r="D23" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="M23" s="104"/>
-      <c r="N23" s="103"/>
-      <c r="O23" s="108"/>
-      <c r="P23" s="90"/>
-      <c r="Q23" s="91"/>
-      <c r="R23" s="86"/>
-      <c r="S23" s="87"/>
-      <c r="T23" s="80"/>
-      <c r="U23" s="81"/>
-      <c r="V23" s="69"/>
-      <c r="W23" s="70"/>
-      <c r="X23" s="59"/>
-      <c r="Y23" s="60"/>
-      <c r="Z23" s="60"/>
-      <c r="AA23" s="61"/>
+      <c r="M23" s="100"/>
+      <c r="N23" s="49"/>
+      <c r="O23" s="51"/>
+      <c r="P23" s="121"/>
+      <c r="Q23" s="122"/>
+      <c r="R23" s="112"/>
+      <c r="S23" s="113"/>
+      <c r="T23" s="104"/>
+      <c r="U23" s="105"/>
+      <c r="V23" s="142"/>
+      <c r="W23" s="143"/>
+      <c r="X23" s="134"/>
+      <c r="Y23" s="135"/>
+      <c r="Z23" s="135"/>
+      <c r="AA23" s="136"/>
     </row>
     <row r="24" spans="2:27" x14ac:dyDescent="0.35">
       <c r="B24" s="18" t="s">
@@ -4006,21 +4006,21 @@
       <c r="D24" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="M24" s="104"/>
-      <c r="N24" s="103"/>
-      <c r="O24" s="108"/>
-      <c r="P24" s="90"/>
-      <c r="Q24" s="91"/>
-      <c r="R24" s="86"/>
-      <c r="S24" s="87"/>
-      <c r="T24" s="80"/>
-      <c r="U24" s="81"/>
-      <c r="V24" s="69"/>
-      <c r="W24" s="70"/>
-      <c r="X24" s="59"/>
-      <c r="Y24" s="60"/>
-      <c r="Z24" s="60"/>
-      <c r="AA24" s="61"/>
+      <c r="M24" s="100"/>
+      <c r="N24" s="49"/>
+      <c r="O24" s="51"/>
+      <c r="P24" s="121"/>
+      <c r="Q24" s="122"/>
+      <c r="R24" s="112"/>
+      <c r="S24" s="113"/>
+      <c r="T24" s="104"/>
+      <c r="U24" s="105"/>
+      <c r="V24" s="142"/>
+      <c r="W24" s="143"/>
+      <c r="X24" s="134"/>
+      <c r="Y24" s="135"/>
+      <c r="Z24" s="135"/>
+      <c r="AA24" s="136"/>
     </row>
     <row r="25" spans="2:27" x14ac:dyDescent="0.35">
       <c r="B25" s="18" t="s">
@@ -4032,21 +4032,21 @@
       <c r="D25" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="M25" s="104"/>
-      <c r="N25" s="103"/>
-      <c r="O25" s="108"/>
-      <c r="P25" s="90"/>
-      <c r="Q25" s="91"/>
-      <c r="R25" s="86"/>
-      <c r="S25" s="87"/>
-      <c r="T25" s="80"/>
-      <c r="U25" s="81"/>
-      <c r="V25" s="69"/>
-      <c r="W25" s="70"/>
-      <c r="X25" s="59"/>
-      <c r="Y25" s="60"/>
-      <c r="Z25" s="60"/>
-      <c r="AA25" s="61"/>
+      <c r="M25" s="100"/>
+      <c r="N25" s="49"/>
+      <c r="O25" s="51"/>
+      <c r="P25" s="121"/>
+      <c r="Q25" s="122"/>
+      <c r="R25" s="112"/>
+      <c r="S25" s="113"/>
+      <c r="T25" s="104"/>
+      <c r="U25" s="105"/>
+      <c r="V25" s="142"/>
+      <c r="W25" s="143"/>
+      <c r="X25" s="134"/>
+      <c r="Y25" s="135"/>
+      <c r="Z25" s="135"/>
+      <c r="AA25" s="136"/>
     </row>
     <row r="26" spans="2:27" x14ac:dyDescent="0.35">
       <c r="B26" s="18" t="s">
@@ -4058,65 +4058,65 @@
       <c r="D26" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="M26" s="104"/>
-      <c r="N26" s="103"/>
-      <c r="O26" s="108"/>
-      <c r="P26" s="90"/>
-      <c r="Q26" s="91"/>
-      <c r="R26" s="86"/>
-      <c r="S26" s="87"/>
-      <c r="T26" s="80"/>
-      <c r="U26" s="81"/>
-      <c r="V26" s="69"/>
-      <c r="W26" s="70"/>
-      <c r="X26" s="59"/>
-      <c r="Y26" s="60"/>
-      <c r="Z26" s="60"/>
-      <c r="AA26" s="61"/>
+      <c r="M26" s="100"/>
+      <c r="N26" s="49"/>
+      <c r="O26" s="51"/>
+      <c r="P26" s="121"/>
+      <c r="Q26" s="122"/>
+      <c r="R26" s="112"/>
+      <c r="S26" s="113"/>
+      <c r="T26" s="104"/>
+      <c r="U26" s="105"/>
+      <c r="V26" s="142"/>
+      <c r="W26" s="143"/>
+      <c r="X26" s="134"/>
+      <c r="Y26" s="135"/>
+      <c r="Z26" s="135"/>
+      <c r="AA26" s="136"/>
     </row>
     <row r="27" spans="2:27" x14ac:dyDescent="0.35">
-      <c r="M27" s="117">
+      <c r="M27" s="98">
         <f>B43</f>
         <v>5</v>
       </c>
-      <c r="N27" s="105"/>
-      <c r="O27" s="118"/>
-      <c r="P27" s="90"/>
-      <c r="Q27" s="91"/>
-      <c r="R27" s="86"/>
-      <c r="S27" s="87"/>
-      <c r="T27" s="80"/>
-      <c r="U27" s="81"/>
-      <c r="V27" s="69"/>
-      <c r="W27" s="70"/>
-      <c r="X27" s="62"/>
-      <c r="Y27" s="63"/>
-      <c r="Z27" s="63"/>
-      <c r="AA27" s="64"/>
+      <c r="N27" s="50"/>
+      <c r="O27" s="53"/>
+      <c r="P27" s="121"/>
+      <c r="Q27" s="122"/>
+      <c r="R27" s="112"/>
+      <c r="S27" s="113"/>
+      <c r="T27" s="104"/>
+      <c r="U27" s="105"/>
+      <c r="V27" s="142"/>
+      <c r="W27" s="143"/>
+      <c r="X27" s="137"/>
+      <c r="Y27" s="138"/>
+      <c r="Z27" s="138"/>
+      <c r="AA27" s="139"/>
     </row>
     <row r="28" spans="2:27" x14ac:dyDescent="0.35">
-      <c r="B28" s="54" t="s">
+      <c r="B28" s="130" t="s">
         <v>37</v>
       </c>
-      <c r="C28" s="54"/>
-      <c r="D28" s="54"/>
-      <c r="M28" s="117"/>
-      <c r="N28" s="106"/>
-      <c r="O28" s="119"/>
-      <c r="P28" s="90"/>
-      <c r="Q28" s="91"/>
-      <c r="R28" s="86"/>
-      <c r="S28" s="87"/>
-      <c r="T28" s="80"/>
-      <c r="U28" s="81"/>
-      <c r="V28" s="69" t="s">
+      <c r="C28" s="130"/>
+      <c r="D28" s="130"/>
+      <c r="M28" s="98"/>
+      <c r="N28" s="96"/>
+      <c r="O28" s="95"/>
+      <c r="P28" s="121"/>
+      <c r="Q28" s="122"/>
+      <c r="R28" s="112"/>
+      <c r="S28" s="113"/>
+      <c r="T28" s="104"/>
+      <c r="U28" s="105"/>
+      <c r="V28" s="142" t="s">
         <v>60</v>
       </c>
-      <c r="W28" s="75"/>
-      <c r="X28" s="73"/>
-      <c r="Y28" s="73"/>
-      <c r="Z28" s="73"/>
-      <c r="AA28" s="68"/>
+      <c r="W28" s="147"/>
+      <c r="X28" s="144"/>
+      <c r="Y28" s="144"/>
+      <c r="Z28" s="144"/>
+      <c r="AA28" s="141"/>
     </row>
     <row r="29" spans="2:27" x14ac:dyDescent="0.35">
       <c r="B29" s="19" t="s">
@@ -4129,24 +4129,24 @@
       <c r="G29" t="s">
         <v>71</v>
       </c>
-      <c r="M29" s="117">
+      <c r="M29" s="98">
         <f>B42</f>
         <v>0</v>
       </c>
-      <c r="N29" s="106"/>
-      <c r="O29" s="119"/>
-      <c r="P29" s="90"/>
-      <c r="Q29" s="91"/>
-      <c r="R29" s="86"/>
-      <c r="S29" s="87"/>
-      <c r="T29" s="80"/>
-      <c r="U29" s="81"/>
-      <c r="V29" s="71"/>
-      <c r="W29" s="74"/>
-      <c r="X29" s="74"/>
-      <c r="Y29" s="74"/>
-      <c r="Z29" s="74"/>
-      <c r="AA29" s="72"/>
+      <c r="N29" s="96"/>
+      <c r="O29" s="95"/>
+      <c r="P29" s="121"/>
+      <c r="Q29" s="122"/>
+      <c r="R29" s="112"/>
+      <c r="S29" s="113"/>
+      <c r="T29" s="104"/>
+      <c r="U29" s="105"/>
+      <c r="V29" s="148"/>
+      <c r="W29" s="145"/>
+      <c r="X29" s="145"/>
+      <c r="Y29" s="145"/>
+      <c r="Z29" s="145"/>
+      <c r="AA29" s="146"/>
     </row>
     <row r="30" spans="2:27" x14ac:dyDescent="0.35">
       <c r="B30" s="23">
@@ -4168,23 +4168,23 @@
       <c r="G30" t="s">
         <v>71</v>
       </c>
-      <c r="M30" s="117"/>
-      <c r="N30" s="106"/>
-      <c r="O30" s="119"/>
-      <c r="P30" s="90"/>
-      <c r="Q30" s="91"/>
-      <c r="R30" s="86"/>
-      <c r="S30" s="87"/>
-      <c r="T30" s="99" t="s">
+      <c r="M30" s="98"/>
+      <c r="N30" s="96"/>
+      <c r="O30" s="95"/>
+      <c r="P30" s="121"/>
+      <c r="Q30" s="122"/>
+      <c r="R30" s="112"/>
+      <c r="S30" s="113"/>
+      <c r="T30" s="106" t="s">
         <v>63</v>
       </c>
-      <c r="U30" s="101"/>
-      <c r="V30" s="82"/>
-      <c r="W30" s="82"/>
-      <c r="X30" s="82"/>
-      <c r="Y30" s="82"/>
-      <c r="Z30" s="82"/>
-      <c r="AA30" s="79"/>
+      <c r="U30" s="107"/>
+      <c r="V30" s="108"/>
+      <c r="W30" s="108"/>
+      <c r="X30" s="108"/>
+      <c r="Y30" s="108"/>
+      <c r="Z30" s="108"/>
+      <c r="AA30" s="103"/>
     </row>
     <row r="31" spans="2:27" x14ac:dyDescent="0.35">
       <c r="B31" s="23">
@@ -4206,24 +4206,24 @@
       <c r="G31" t="s">
         <v>71</v>
       </c>
-      <c r="M31" s="117">
+      <c r="M31" s="98">
         <f>B41</f>
         <v>-7</v>
       </c>
-      <c r="N31" s="106"/>
-      <c r="O31" s="119"/>
-      <c r="P31" s="90"/>
-      <c r="Q31" s="91"/>
-      <c r="R31" s="86"/>
-      <c r="S31" s="87"/>
-      <c r="T31" s="99"/>
-      <c r="U31" s="101"/>
-      <c r="V31" s="83"/>
-      <c r="W31" s="83"/>
-      <c r="X31" s="83"/>
-      <c r="Y31" s="83"/>
-      <c r="Z31" s="83"/>
-      <c r="AA31" s="81"/>
+      <c r="N31" s="96"/>
+      <c r="O31" s="95"/>
+      <c r="P31" s="121"/>
+      <c r="Q31" s="122"/>
+      <c r="R31" s="112"/>
+      <c r="S31" s="113"/>
+      <c r="T31" s="106"/>
+      <c r="U31" s="107"/>
+      <c r="V31" s="109"/>
+      <c r="W31" s="109"/>
+      <c r="X31" s="109"/>
+      <c r="Y31" s="109"/>
+      <c r="Z31" s="109"/>
+      <c r="AA31" s="105"/>
     </row>
     <row r="32" spans="2:27" x14ac:dyDescent="0.35">
       <c r="B32" s="23">
@@ -4245,23 +4245,23 @@
       <c r="G32" t="s">
         <v>71</v>
       </c>
-      <c r="M32" s="117"/>
-      <c r="N32" s="106"/>
-      <c r="O32" s="119"/>
-      <c r="P32" s="90"/>
-      <c r="Q32" s="91"/>
-      <c r="R32" s="96" t="s">
+      <c r="M32" s="98"/>
+      <c r="N32" s="96"/>
+      <c r="O32" s="95"/>
+      <c r="P32" s="121"/>
+      <c r="Q32" s="122"/>
+      <c r="R32" s="114" t="s">
         <v>64</v>
       </c>
-      <c r="S32" s="97"/>
-      <c r="T32" s="94"/>
-      <c r="U32" s="94"/>
-      <c r="V32" s="94"/>
-      <c r="W32" s="94"/>
-      <c r="X32" s="94"/>
-      <c r="Y32" s="94"/>
-      <c r="Z32" s="94"/>
-      <c r="AA32" s="95"/>
+      <c r="S32" s="115"/>
+      <c r="T32" s="116"/>
+      <c r="U32" s="116"/>
+      <c r="V32" s="116"/>
+      <c r="W32" s="116"/>
+      <c r="X32" s="116"/>
+      <c r="Y32" s="116"/>
+      <c r="Z32" s="116"/>
+      <c r="AA32" s="117"/>
     </row>
     <row r="33" spans="2:28" x14ac:dyDescent="0.35">
       <c r="B33" s="23">
@@ -4280,26 +4280,26 @@
       <c r="G33" t="s">
         <v>71</v>
       </c>
-      <c r="K33" s="117" t="str">
+      <c r="K33" s="98" t="str">
         <f>D4&amp;"(SF7) to "&amp;D9&amp;" (SF12)"</f>
         <v>-7.5(SF7) to -20 (SF12)</v>
       </c>
-      <c r="L33" s="117"/>
-      <c r="M33" s="117"/>
-      <c r="N33" s="106"/>
-      <c r="O33" s="119"/>
-      <c r="P33" s="90"/>
-      <c r="Q33" s="91"/>
-      <c r="R33" s="96"/>
-      <c r="S33" s="97"/>
-      <c r="T33" s="97"/>
-      <c r="U33" s="97"/>
-      <c r="V33" s="97"/>
-      <c r="W33" s="97"/>
-      <c r="X33" s="97"/>
-      <c r="Y33" s="97"/>
-      <c r="Z33" s="97"/>
-      <c r="AA33" s="98"/>
+      <c r="L33" s="98"/>
+      <c r="M33" s="98"/>
+      <c r="N33" s="96"/>
+      <c r="O33" s="95"/>
+      <c r="P33" s="121"/>
+      <c r="Q33" s="122"/>
+      <c r="R33" s="114"/>
+      <c r="S33" s="115"/>
+      <c r="T33" s="115"/>
+      <c r="U33" s="115"/>
+      <c r="V33" s="115"/>
+      <c r="W33" s="115"/>
+      <c r="X33" s="115"/>
+      <c r="Y33" s="115"/>
+      <c r="Z33" s="115"/>
+      <c r="AA33" s="118"/>
     </row>
     <row r="34" spans="2:28" x14ac:dyDescent="0.35">
       <c r="B34" s="22" t="str">
@@ -4319,117 +4319,111 @@
       <c r="G34" t="s">
         <v>71</v>
       </c>
-      <c r="K34" s="117"/>
-      <c r="L34" s="117"/>
-      <c r="M34" s="117"/>
-      <c r="N34" s="106"/>
-      <c r="O34" s="119"/>
-      <c r="P34" s="100" t="s">
+      <c r="K34" s="98"/>
+      <c r="L34" s="98"/>
+      <c r="M34" s="98"/>
+      <c r="N34" s="96"/>
+      <c r="O34" s="95"/>
+      <c r="P34" s="123" t="s">
         <v>65</v>
       </c>
-      <c r="Q34" s="102"/>
-      <c r="R34" s="93"/>
-      <c r="S34" s="93"/>
-      <c r="T34" s="93"/>
-      <c r="U34" s="93"/>
-      <c r="V34" s="93"/>
-      <c r="W34" s="93"/>
-      <c r="X34" s="93"/>
-      <c r="Y34" s="93"/>
-      <c r="Z34" s="93"/>
-      <c r="AA34" s="89"/>
+      <c r="Q34" s="124"/>
+      <c r="R34" s="127"/>
+      <c r="S34" s="127"/>
+      <c r="T34" s="127"/>
+      <c r="U34" s="127"/>
+      <c r="V34" s="127"/>
+      <c r="W34" s="127"/>
+      <c r="X34" s="127"/>
+      <c r="Y34" s="127"/>
+      <c r="Z34" s="127"/>
+      <c r="AA34" s="120"/>
     </row>
     <row r="35" spans="2:28" x14ac:dyDescent="0.35">
-      <c r="B35" s="109"/>
-      <c r="C35" s="109"/>
-      <c r="D35" s="124"/>
-      <c r="K35" s="125"/>
-      <c r="L35" s="125"/>
-      <c r="M35" s="125"/>
-      <c r="N35" s="107"/>
-      <c r="O35" s="119"/>
-      <c r="P35" s="111"/>
-      <c r="Q35" s="112"/>
-      <c r="R35" s="113"/>
-      <c r="S35" s="113"/>
-      <c r="T35" s="113"/>
-      <c r="U35" s="113"/>
-      <c r="V35" s="113"/>
-      <c r="W35" s="113"/>
-      <c r="X35" s="113"/>
-      <c r="Y35" s="113"/>
-      <c r="Z35" s="113"/>
-      <c r="AA35" s="92"/>
+      <c r="B35" s="46"/>
+      <c r="C35" s="46"/>
+      <c r="D35" s="55"/>
+      <c r="K35" s="99"/>
+      <c r="L35" s="99"/>
+      <c r="M35" s="99"/>
+      <c r="N35" s="97"/>
+      <c r="O35" s="95"/>
+      <c r="P35" s="125"/>
+      <c r="Q35" s="126"/>
+      <c r="R35" s="128"/>
+      <c r="S35" s="128"/>
+      <c r="T35" s="128"/>
+      <c r="U35" s="128"/>
+      <c r="V35" s="128"/>
+      <c r="W35" s="128"/>
+      <c r="X35" s="128"/>
+      <c r="Y35" s="128"/>
+      <c r="Z35" s="128"/>
+      <c r="AA35" s="129"/>
     </row>
     <row r="36" spans="2:28" ht="7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="109"/>
-      <c r="C36" s="109"/>
-      <c r="D36" s="124"/>
-      <c r="M36" s="110"/>
-      <c r="N36" s="114"/>
-      <c r="O36" s="115"/>
-      <c r="P36" s="66"/>
-      <c r="Q36" s="66"/>
-      <c r="R36" s="116"/>
-      <c r="S36" s="116"/>
-      <c r="T36" s="116"/>
-      <c r="U36" s="116"/>
-      <c r="V36" s="116"/>
-      <c r="W36" s="116"/>
-      <c r="X36" s="116"/>
-      <c r="Y36" s="116"/>
-      <c r="Z36" s="116"/>
-      <c r="AA36" s="116"/>
-      <c r="AB36" s="76"/>
+      <c r="B36" s="46"/>
+      <c r="C36" s="46"/>
+      <c r="D36" s="55"/>
+      <c r="N36" s="52"/>
+      <c r="O36" s="92"/>
+      <c r="P36" s="93"/>
+      <c r="Q36" s="93"/>
+      <c r="R36" s="94"/>
+      <c r="S36" s="94"/>
+      <c r="T36" s="94"/>
+      <c r="U36" s="94"/>
+      <c r="V36" s="94"/>
+      <c r="W36" s="94"/>
+      <c r="X36" s="94"/>
+      <c r="Y36" s="94"/>
+      <c r="Z36" s="94"/>
+      <c r="AA36" s="94"/>
+      <c r="AB36" s="48"/>
     </row>
     <row r="37" spans="2:28" ht="7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="M37" s="110"/>
-      <c r="N37" s="110"/>
-      <c r="O37" s="77"/>
-      <c r="P37" s="77"/>
-      <c r="Q37" s="123"/>
-      <c r="R37" s="120"/>
-      <c r="S37" s="120"/>
-      <c r="T37" s="120"/>
-      <c r="U37" s="120"/>
-      <c r="V37" s="120"/>
-      <c r="W37" s="120"/>
-      <c r="X37" s="120"/>
-      <c r="Y37" s="120"/>
-      <c r="Z37" s="120"/>
-      <c r="AA37" s="121"/>
-      <c r="AB37" s="122"/>
+      <c r="O37" s="88"/>
+      <c r="P37" s="88"/>
+      <c r="Q37" s="89"/>
+      <c r="R37" s="90"/>
+      <c r="S37" s="90"/>
+      <c r="T37" s="90"/>
+      <c r="U37" s="90"/>
+      <c r="V37" s="90"/>
+      <c r="W37" s="90"/>
+      <c r="X37" s="90"/>
+      <c r="Y37" s="90"/>
+      <c r="Z37" s="90"/>
+      <c r="AA37" s="91"/>
+      <c r="AB37" s="54"/>
     </row>
     <row r="38" spans="2:28" x14ac:dyDescent="0.35">
-      <c r="B38" s="54" t="s">
+      <c r="B38" s="130" t="s">
         <v>38</v>
       </c>
-      <c r="C38" s="54"/>
-      <c r="D38" s="54"/>
-      <c r="M38" s="110"/>
-      <c r="N38" s="110"/>
-      <c r="O38" s="110"/>
-      <c r="Q38" s="55">
+      <c r="C38" s="130"/>
+      <c r="D38" s="130"/>
+      <c r="Q38" s="101">
         <f>B30</f>
         <v>-125</v>
       </c>
-      <c r="R38" s="55"/>
-      <c r="S38" s="55">
+      <c r="R38" s="101"/>
+      <c r="S38" s="101">
         <f>B31</f>
         <v>-115</v>
       </c>
-      <c r="T38" s="55"/>
-      <c r="U38" s="55">
+      <c r="T38" s="101"/>
+      <c r="U38" s="101">
         <f>B32</f>
         <v>-100</v>
       </c>
-      <c r="V38" s="55"/>
-      <c r="W38" s="55">
+      <c r="V38" s="101"/>
+      <c r="W38" s="101">
         <f>B33</f>
         <v>-90</v>
       </c>
-      <c r="X38" s="55"/>
-      <c r="Y38" s="65" t="s">
+      <c r="X38" s="101"/>
+      <c r="Y38" s="47" t="s">
         <v>62</v>
       </c>
     </row>
@@ -4464,7 +4458,7 @@
       <c r="G40" t="s">
         <v>71</v>
       </c>
-      <c r="AB40" s="65"/>
+      <c r="AB40" s="47"/>
     </row>
     <row r="41" spans="2:28" x14ac:dyDescent="0.35">
       <c r="B41" s="23">
@@ -4540,37 +4534,6 @@
     <row r="63" ht="6.5" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="O37:Q37"/>
-    <mergeCell ref="R37:S37"/>
-    <mergeCell ref="T37:U37"/>
-    <mergeCell ref="V37:W37"/>
-    <mergeCell ref="X37:AA37"/>
-    <mergeCell ref="O36:Q36"/>
-    <mergeCell ref="R36:S36"/>
-    <mergeCell ref="T36:U36"/>
-    <mergeCell ref="V36:W36"/>
-    <mergeCell ref="X36:AA36"/>
-    <mergeCell ref="O28:O29"/>
-    <mergeCell ref="O30:O31"/>
-    <mergeCell ref="O32:O33"/>
-    <mergeCell ref="O34:O35"/>
-    <mergeCell ref="N28:N29"/>
-    <mergeCell ref="N30:N31"/>
-    <mergeCell ref="N32:N33"/>
-    <mergeCell ref="N34:N35"/>
-    <mergeCell ref="K33:M34"/>
-    <mergeCell ref="K35:M35"/>
-    <mergeCell ref="M20:M26"/>
-    <mergeCell ref="Q38:R38"/>
-    <mergeCell ref="T22:U29"/>
-    <mergeCell ref="T30:U31"/>
-    <mergeCell ref="V30:AA31"/>
-    <mergeCell ref="R22:S31"/>
-    <mergeCell ref="R32:S33"/>
-    <mergeCell ref="T32:AA33"/>
-    <mergeCell ref="P22:Q33"/>
-    <mergeCell ref="P34:Q35"/>
-    <mergeCell ref="R34:AA35"/>
     <mergeCell ref="B28:D28"/>
     <mergeCell ref="B38:D38"/>
     <mergeCell ref="X22:AA27"/>
@@ -4583,6 +4546,37 @@
     <mergeCell ref="M29:M30"/>
     <mergeCell ref="M31:M32"/>
     <mergeCell ref="S38:T38"/>
+    <mergeCell ref="V30:AA31"/>
+    <mergeCell ref="R22:S31"/>
+    <mergeCell ref="R32:S33"/>
+    <mergeCell ref="T32:AA33"/>
+    <mergeCell ref="P22:Q33"/>
+    <mergeCell ref="K33:M34"/>
+    <mergeCell ref="K35:M35"/>
+    <mergeCell ref="M20:M26"/>
+    <mergeCell ref="Q38:R38"/>
+    <mergeCell ref="T22:U29"/>
+    <mergeCell ref="T30:U31"/>
+    <mergeCell ref="P34:Q35"/>
+    <mergeCell ref="R34:AA35"/>
+    <mergeCell ref="O28:O29"/>
+    <mergeCell ref="O30:O31"/>
+    <mergeCell ref="O32:O33"/>
+    <mergeCell ref="O34:O35"/>
+    <mergeCell ref="N28:N29"/>
+    <mergeCell ref="N30:N31"/>
+    <mergeCell ref="N32:N33"/>
+    <mergeCell ref="N34:N35"/>
+    <mergeCell ref="O36:Q36"/>
+    <mergeCell ref="R36:S36"/>
+    <mergeCell ref="T36:U36"/>
+    <mergeCell ref="V36:W36"/>
+    <mergeCell ref="X36:AA36"/>
+    <mergeCell ref="O37:Q37"/>
+    <mergeCell ref="R37:S37"/>
+    <mergeCell ref="T37:U37"/>
+    <mergeCell ref="V37:W37"/>
+    <mergeCell ref="X37:AA37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/docs/field_tester_table.xlsx
+++ b/docs/field_tester_table.xlsx
@@ -8,14 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositories\github\hslu-ige-laes\lora-devices-ttn\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B37EB6F3-1F3F-4601-A144-27208F80B84E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7CDD677-FD48-4960-8EAA-47147FD7D417}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="26010" windowHeight="20985" activeTab="1" xr2:uid="{5E3F2E18-7DEC-441E-A9D7-951EC58CBC1B}"/>
+    <workbookView xWindow="25695" yWindow="0" windowWidth="26010" windowHeight="20985" xr2:uid="{5E3F2E18-7DEC-441E-A9D7-951EC58CBC1B}"/>
   </bookViews>
   <sheets>
     <sheet name="table" sheetId="2" r:id="rId1"/>
     <sheet name="metadata" sheetId="3" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">table!$B$5:$W$18</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -37,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="83">
   <si>
     <t>DR</t>
   </si>
@@ -90,16 +93,10 @@
     <t>Location</t>
   </si>
   <si>
-    <t>RSSI</t>
-  </si>
-  <si>
     <t>SNR</t>
   </si>
   <si>
     <t>Gateway Count</t>
-  </si>
-  <si>
-    <t>Office</t>
   </si>
   <si>
     <t>[dBm]</t>
@@ -162,9 +159,6 @@
     <t>label</t>
   </si>
   <si>
-    <t>Analysis Results</t>
-  </si>
-  <si>
     <t>Very clean signal</t>
   </si>
   <si>
@@ -213,12 +207,6 @@
     <t>Obstacles, machinery, power lines etc.</t>
   </si>
   <si>
-    <t>Recommendations (not yet finished work in progress)</t>
-  </si>
-  <si>
-    <t>added new Gateway gtw-02</t>
-  </si>
-  <si>
     <t>GOOD</t>
   </si>
   <si>
@@ -253,6 +241,54 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>SNR Fieldtester</t>
+  </si>
+  <si>
+    <t>max. RSSI</t>
+  </si>
+  <si>
+    <t>Position</t>
+  </si>
+  <si>
+    <t>eui-a840411d1eb44150-hslu</t>
+  </si>
+  <si>
+    <t>hslu-lora-hote21-outdoor01</t>
+  </si>
+  <si>
+    <t>add more</t>
+  </si>
+  <si>
+    <t>min. RSSI</t>
+  </si>
+  <si>
+    <t>Entrance door</t>
+  </si>
+  <si>
+    <t>Trakt4</t>
+  </si>
+  <si>
+    <t>C413 - Office</t>
+  </si>
+  <si>
+    <t>Office Desk</t>
+  </si>
+  <si>
+    <t>eui-a84041ffff27c540</t>
+  </si>
+  <si>
+    <t>added new Gateway eui-a840411d1eb44150-hslu</t>
+  </si>
+  <si>
+    <t>close to water pipes in wall</t>
+  </si>
+  <si>
+    <t>Recommendations</t>
+  </si>
+  <si>
+    <t>Minimal Analysis, could be better…</t>
   </si>
 </sst>
 </file>
@@ -292,7 +328,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF00B050"/>
+      <color theme="1" tint="0.249977111117893"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -300,7 +336,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1" tint="0.249977111117893"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -718,7 +753,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="149">
+  <cellXfs count="162">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -793,21 +828,18 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -820,10 +852,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -843,12 +871,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -879,15 +901,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -900,9 +916,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -927,12 +940,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -969,6 +976,177 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -981,187 +1159,75 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="17">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="1" tint="0.24994659260841701"/>
+  <dxfs count="613">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
       </font>
       <fill>
         <patternFill>
@@ -1189,6 +1255,18 @@
       </font>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
@@ -1213,6 +1291,46 @@
       </font>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
           <bgColor theme="9"/>
         </patternFill>
       </fill>
@@ -1274,6 +1392,6331 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1375,16 +7818,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1352732</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>111253</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>314507</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>16003</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1407,8 +7850,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="266700" y="5000625"/>
-          <a:ext cx="1305107" cy="911353"/>
+          <a:off x="12236450" y="5953125"/>
+          <a:ext cx="1308282" cy="911353"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2728,693 +9171,967 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F5631FF-9388-4747-98B0-3AAB2640A2B7}">
-  <dimension ref="B2:Q17"/>
+  <dimension ref="B2:W18"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20.5" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3.08984375" style="5" customWidth="1"/>
-    <col min="2" max="3" width="24.54296875" style="5" customWidth="1"/>
-    <col min="4" max="4" width="16.36328125" style="5" customWidth="1"/>
-    <col min="5" max="6" width="3.81640625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="8.7265625" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.81640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.453125" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.26953125" style="5" customWidth="1"/>
-    <col min="11" max="12" width="10.90625" style="5"/>
-    <col min="13" max="13" width="15.1796875" style="5" customWidth="1"/>
-    <col min="14" max="14" width="34.6328125" style="5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="22.81640625" style="5" customWidth="1"/>
-    <col min="16" max="16" width="27.81640625" style="5" customWidth="1"/>
-    <col min="17" max="17" width="47.81640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="10.90625" style="5"/>
+    <col min="2" max="2" width="17.7265625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="20" style="5" customWidth="1"/>
+    <col min="4" max="4" width="14" style="152" customWidth="1"/>
+    <col min="5" max="5" width="12.90625" style="5" customWidth="1"/>
+    <col min="6" max="7" width="3.81640625" style="5" customWidth="1"/>
+    <col min="8" max="8" width="8.7265625" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.81640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.453125" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.26953125" style="5" customWidth="1"/>
+    <col min="12" max="13" width="10.90625" style="5"/>
+    <col min="14" max="14" width="15.26953125" style="5" customWidth="1"/>
+    <col min="15" max="15" width="15.1796875" style="5" customWidth="1"/>
+    <col min="16" max="17" width="4.7265625" style="5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4.7265625" style="5" customWidth="1"/>
+    <col min="19" max="19" width="4.7265625" style="5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="34.6328125" style="5" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="22.81640625" style="5" customWidth="1"/>
+    <col min="22" max="22" width="27.81640625" style="5" customWidth="1"/>
+    <col min="23" max="23" width="47.81640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="10.90625" style="5"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:17" s="6" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="62" t="s">
+    <row r="2" spans="2:23" s="6" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="63"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="78" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="78" t="s">
-        <v>35</v>
-      </c>
-      <c r="J2" s="85"/>
-      <c r="K2" s="84" t="s">
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="68" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="75"/>
+      <c r="J2" s="68" t="s">
+        <v>33</v>
+      </c>
+      <c r="K2" s="75"/>
+      <c r="L2" s="74" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" s="74"/>
+      <c r="N2" s="74"/>
+      <c r="O2" s="74"/>
+      <c r="P2" s="69"/>
+      <c r="Q2" s="69"/>
+      <c r="R2" s="69"/>
+      <c r="S2" s="75"/>
+      <c r="T2" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="U2" s="68" t="s">
+        <v>82</v>
+      </c>
+      <c r="V2" s="69"/>
+      <c r="W2" s="70"/>
+    </row>
+    <row r="3" spans="2:23" s="143" customFormat="1" ht="140.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="139" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="140" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" s="147" t="s">
+        <v>62</v>
+      </c>
+      <c r="E3" s="141" t="s">
+        <v>64</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="76" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="77"/>
+      <c r="J3" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="L2" s="84"/>
-      <c r="M2" s="84"/>
-      <c r="N2" s="32" t="s">
-        <v>56</v>
-      </c>
-      <c r="O2" s="78" t="s">
-        <v>41</v>
-      </c>
-      <c r="P2" s="79"/>
-      <c r="Q2" s="80"/>
-    </row>
-    <row r="3" spans="2:17" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="58" t="s">
+      <c r="L3" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="C3" s="65" t="s">
+      <c r="M3" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="N3" s="8" t="s">
         <v>67</v>
-      </c>
-      <c r="D3" s="60" t="s">
-        <v>69</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="G3" s="86" t="s">
-        <v>2</v>
-      </c>
-      <c r="H3" s="87"/>
-      <c r="I3" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="K3" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="L3" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="M3" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="N3" s="33" t="s">
-        <v>57</v>
       </c>
       <c r="O3" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="P3" s="8" t="s">
+      <c r="P3" s="144" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q3" s="144" t="s">
+        <v>78</v>
+      </c>
+      <c r="R3" s="144" t="s">
+        <v>70</v>
+      </c>
+      <c r="S3" s="144" t="s">
+        <v>72</v>
+      </c>
+      <c r="T3" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="U3" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="V3" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="W3" s="142" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="2:23" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="53"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="148"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="Q3" s="36" t="s">
-        <v>58</v>
-      </c>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="M4" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="N4" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="O4" s="9"/>
+      <c r="P4" s="158"/>
+      <c r="Q4" s="158"/>
+      <c r="R4" s="158"/>
+      <c r="S4" s="158"/>
+      <c r="T4" s="9"/>
+      <c r="U4" s="9"/>
+      <c r="V4" s="9"/>
+      <c r="W4" s="34"/>
     </row>
-    <row r="4" spans="2:17" s="1" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="59"/>
-      <c r="C4" s="66"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4" s="9" t="s">
+    <row r="5" spans="2:23" s="1" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="B5" s="53"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="148"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="157"/>
+      <c r="Q5" s="157"/>
+      <c r="R5" s="157"/>
+      <c r="S5" s="157"/>
+      <c r="T5" s="9"/>
+      <c r="U5" s="9"/>
+      <c r="V5" s="9"/>
+      <c r="W5" s="34"/>
+    </row>
+    <row r="6" spans="2:23" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="C6" s="51" t="s">
+        <v>77</v>
+      </c>
+      <c r="D6" s="149">
+        <v>2</v>
+      </c>
+      <c r="E6" s="51" t="s">
+        <v>75</v>
+      </c>
+      <c r="F6" s="10">
+        <v>5</v>
+      </c>
+      <c r="G6" s="7">
+        <f>IF(F6="","",VLOOKUP(F6,metadata!$B$4:$D$9,2,))</f>
+        <v>7</v>
+      </c>
+      <c r="H6" s="10">
+        <v>0</v>
+      </c>
+      <c r="I6" s="7">
+        <f>IF(H6="","",VLOOKUP(H6,metadata!$B$13:$C$20,2,))</f>
+        <v>14</v>
+      </c>
+      <c r="J6" s="7" t="str">
+        <f>IF(F6="","",VLOOKUP(F6,metadata!$B$4:$H$9,7,))</f>
+        <v>6min</v>
+      </c>
+      <c r="K6" s="7">
+        <f>IF(F6="","",VLOOKUP(F6,metadata!$B$4:$D$9,3,))</f>
+        <v>-7.5</v>
+      </c>
+      <c r="L6" s="33">
+        <v>-103</v>
+      </c>
+      <c r="M6" s="33">
+        <v>-103</v>
+      </c>
+      <c r="N6" s="7">
+        <v>3</v>
+      </c>
+      <c r="O6" s="145">
+        <f>IF(COUNTA(P6:S6)=0,"",COUNTA(P6:S6))</f>
+        <v>1</v>
+      </c>
+      <c r="P6" s="156">
+        <v>3.2</v>
+      </c>
+      <c r="Q6" s="156"/>
+      <c r="R6" s="156"/>
+      <c r="S6" s="156"/>
+      <c r="T6" s="159" t="s">
+        <v>80</v>
+      </c>
+      <c r="U6" s="30" t="str">
+        <f>IF(N6="","",IF(N6&lt;=K6,"Very Noisy, SNR below limits for LoRa",""))</f>
+        <v/>
+      </c>
+      <c r="V6" s="30" t="str">
+        <f>IF(O6="","",IF(O6=0,"Add Gateway(s), no reception.",IF(O6&lt;2,"Add Gateway to be safe.","")))</f>
+        <v>Add Gateway to be safe.</v>
+      </c>
+      <c r="W6" s="36" t="str">
+        <f>IF(N6="","",IF(G6=7,"Keep SF/DR, already on best",IF(N6&gt;K6+3,"Try DR"&amp;F6+1&amp;"/ SF"&amp;G6-1,IF(N6&lt;K6,"Increase SF","Keep SF/DF"))))</f>
+        <v>Keep SF/DR, already on best</v>
+      </c>
+    </row>
+    <row r="7" spans="2:23" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="D7" s="149">
+        <v>2</v>
+      </c>
+      <c r="E7" s="51" t="s">
+        <v>75</v>
+      </c>
+      <c r="F7" s="10">
+        <v>5</v>
+      </c>
+      <c r="G7" s="7">
+        <f>IF(F7="","",VLOOKUP(F7,metadata!$B$4:$D$9,2,))</f>
+        <v>7</v>
+      </c>
+      <c r="H7" s="10">
+        <v>0</v>
+      </c>
+      <c r="I7" s="7">
+        <f>IF(H7="","",VLOOKUP(H7,metadata!$B$13:$C$20,2,))</f>
+        <v>14</v>
+      </c>
+      <c r="J7" s="7" t="str">
+        <f>IF(F7="","",VLOOKUP(F7,metadata!$B$4:$H$9,7,))</f>
+        <v>6min</v>
+      </c>
+      <c r="K7" s="7">
+        <f>IF(F7="","",VLOOKUP(F7,metadata!$B$4:$D$9,3,))</f>
+        <v>-7.5</v>
+      </c>
+      <c r="L7" s="33">
+        <v>-101</v>
+      </c>
+      <c r="M7" s="33">
+        <v>-104</v>
+      </c>
+      <c r="N7" s="7">
         <v>15</v>
       </c>
-      <c r="J4" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K4" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="L4" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="M4" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="N4" s="9"/>
-      <c r="O4" s="9"/>
-      <c r="P4" s="9"/>
-      <c r="Q4" s="37"/>
+      <c r="O7" s="145">
+        <f>IF(COUNTA(P7:S7)=0,"",COUNTA(P7:S7))</f>
+        <v>2</v>
+      </c>
+      <c r="P7" s="154">
+        <v>7.8</v>
+      </c>
+      <c r="Q7" s="154">
+        <v>-9.5</v>
+      </c>
+      <c r="R7" s="154"/>
+      <c r="S7" s="154"/>
+      <c r="T7" s="159"/>
+      <c r="U7" s="30" t="str">
+        <f>IF(N7="","",IF(N7&lt;=K7,"Very Noisy, SNR below limits for LoRa",""))</f>
+        <v/>
+      </c>
+      <c r="V7" s="30" t="str">
+        <f>IF(O7="","",IF(O7=0,"Add Gateway(s), no reception.",IF(O7&lt;2,"Add Gateway to be safe.","")))</f>
+        <v/>
+      </c>
+      <c r="W7" s="36" t="str">
+        <f>IF(N7="","",IF(G7=7,"Keep SF/DR, already on best",IF(N7&gt;K7+3,"Try DR"&amp;F7+1&amp;"/ SF"&amp;G7-1,IF(N7&lt;K7,"Increase SF","Keep SF/DF"))))</f>
+        <v>Keep SF/DR, already on best</v>
+      </c>
     </row>
-    <row r="5" spans="2:17" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="56"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="10">
-        <v>1</v>
-      </c>
-      <c r="F5" s="7">
-        <f>IF(E5="","",VLOOKUP(E5,metadata!$B$4:$D$9,2,))</f>
-        <v>11</v>
-      </c>
-      <c r="G5" s="10">
+    <row r="8" spans="2:23" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="35"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="149"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="7" t="str">
+        <f>IF(F8="","",VLOOKUP(F8,metadata!$B$4:$D$9,2,))</f>
+        <v/>
+      </c>
+      <c r="H8" s="10"/>
+      <c r="I8" s="7" t="str">
+        <f>IF(H8="","",VLOOKUP(H8,metadata!$B$13:$C$20,2,))</f>
+        <v/>
+      </c>
+      <c r="J8" s="7" t="str">
+        <f>IF(F8="","",VLOOKUP(F8,metadata!$B$4:$H$9,7,))</f>
+        <v/>
+      </c>
+      <c r="K8" s="7" t="str">
+        <f>IF(F8="","",VLOOKUP(F8,metadata!$B$4:$D$9,3,))</f>
+        <v/>
+      </c>
+      <c r="L8" s="33"/>
+      <c r="M8" s="33"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="145" t="str">
+        <f>IF(COUNTA(P8:S8)=0,"",COUNTA(P8:S8))</f>
+        <v/>
+      </c>
+      <c r="P8" s="154"/>
+      <c r="Q8" s="154"/>
+      <c r="R8" s="154"/>
+      <c r="S8" s="154"/>
+      <c r="T8" s="159"/>
+      <c r="U8" s="30" t="str">
+        <f>IF(N8="","",IF(N8&lt;=K8,"Very Noisy, SNR below limits for LoRa",""))</f>
+        <v/>
+      </c>
+      <c r="V8" s="30" t="str">
+        <f>IF(O8="","",IF(O8=0,"Add Gateway(s), no reception.",IF(O8&lt;2,"Add Gateway to be safe.","")))</f>
+        <v/>
+      </c>
+      <c r="W8" s="36" t="str">
+        <f>IF(N8="","",IF(G8=7,"Keep SF/DR, already on best",IF(N8&gt;K8+3,"Try DR"&amp;F8+1&amp;"/ SF"&amp;G8-1,IF(N8&lt;K8,"Increase SF","Keep SF/DF"))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="2:23" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="35"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="149"/>
+      <c r="E9" s="51"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="7" t="str">
+        <f>IF(F9="","",VLOOKUP(F9,metadata!$B$4:$D$9,2,))</f>
+        <v/>
+      </c>
+      <c r="H9" s="10"/>
+      <c r="I9" s="7" t="str">
+        <f>IF(H9="","",VLOOKUP(H9,metadata!$B$13:$C$20,2,))</f>
+        <v/>
+      </c>
+      <c r="J9" s="7" t="str">
+        <f>IF(F9="","",VLOOKUP(F9,metadata!$B$4:$H$9,7,))</f>
+        <v/>
+      </c>
+      <c r="K9" s="7" t="str">
+        <f>IF(F9="","",VLOOKUP(F9,metadata!$B$4:$D$9,3,))</f>
+        <v/>
+      </c>
+      <c r="L9" s="33"/>
+      <c r="M9" s="33"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="145" t="str">
+        <f>IF(COUNTA(P9:S9)=0,"",COUNTA(P9:S9))</f>
+        <v/>
+      </c>
+      <c r="P9" s="154"/>
+      <c r="Q9" s="154"/>
+      <c r="R9" s="154"/>
+      <c r="S9" s="154"/>
+      <c r="T9" s="159"/>
+      <c r="U9" s="30" t="str">
+        <f>IF(N9="","",IF(N9&lt;=K9,"Very Noisy, SNR below limits for LoRa",""))</f>
+        <v/>
+      </c>
+      <c r="V9" s="30" t="str">
+        <f>IF(O9="","",IF(O9=0,"Add Gateway(s), no reception.",IF(O9&lt;2,"Add Gateway to be safe.","")))</f>
+        <v/>
+      </c>
+      <c r="W9" s="36" t="str">
+        <f>IF(N9="","",IF(G9=7,"Keep SF/DR, already on best",IF(N9&gt;K9+3,"Try DR"&amp;F9+1&amp;"/ SF"&amp;G9-1,IF(N9&lt;K9,"Increase SF","Keep SF/DF"))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="2:23" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="35"/>
+      <c r="C10" s="51"/>
+      <c r="D10" s="149"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="7" t="str">
+        <f>IF(F10="","",VLOOKUP(F10,metadata!$B$4:$D$9,2,))</f>
+        <v/>
+      </c>
+      <c r="H10" s="10"/>
+      <c r="I10" s="7" t="str">
+        <f>IF(H10="","",VLOOKUP(H10,metadata!$B$13:$C$20,2,))</f>
+        <v/>
+      </c>
+      <c r="J10" s="7" t="str">
+        <f>IF(F10="","",VLOOKUP(F10,metadata!$B$4:$H$9,7,))</f>
+        <v/>
+      </c>
+      <c r="K10" s="7" t="str">
+        <f>IF(F10="","",VLOOKUP(F10,metadata!$B$4:$D$9,3,))</f>
+        <v/>
+      </c>
+      <c r="L10" s="33"/>
+      <c r="M10" s="33"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="145" t="str">
+        <f>IF(COUNTA(P10:S10)=0,"",COUNTA(P10:S10))</f>
+        <v/>
+      </c>
+      <c r="P10" s="154"/>
+      <c r="Q10" s="154"/>
+      <c r="R10" s="154"/>
+      <c r="S10" s="154"/>
+      <c r="T10" s="159"/>
+      <c r="U10" s="30" t="str">
+        <f>IF(N10="","",IF(N10&lt;=K10,"Very Noisy, SNR below limits for LoRa",""))</f>
+        <v/>
+      </c>
+      <c r="V10" s="30" t="str">
+        <f>IF(O10="","",IF(O10=0,"Add Gateway(s), no reception.",IF(O10&lt;2,"Add Gateway to be safe.","")))</f>
+        <v/>
+      </c>
+      <c r="W10" s="36" t="str">
+        <f>IF(N10="","",IF(G10=7,"Keep SF/DR, already on best",IF(N10&gt;K10+3,"Try DR"&amp;F10+1&amp;"/ SF"&amp;G10-1,IF(N10&lt;K10,"Increase SF","Keep SF/DF"))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="2:23" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="37"/>
+      <c r="C11" s="52"/>
+      <c r="D11" s="150"/>
+      <c r="E11" s="52"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="7" t="str">
+        <f>IF(F11="","",VLOOKUP(F11,metadata!$B$4:$D$9,2,))</f>
+        <v/>
+      </c>
+      <c r="H11" s="38"/>
+      <c r="I11" s="7" t="str">
+        <f>IF(H11="","",VLOOKUP(H11,metadata!$B$13:$C$20,2,))</f>
+        <v/>
+      </c>
+      <c r="J11" s="7" t="str">
+        <f>IF(F11="","",VLOOKUP(F11,metadata!$B$4:$H$9,7,))</f>
+        <v/>
+      </c>
+      <c r="K11" s="7" t="str">
+        <f>IF(F11="","",VLOOKUP(F11,metadata!$B$4:$D$9,3,))</f>
+        <v/>
+      </c>
+      <c r="L11" s="33"/>
+      <c r="M11" s="33"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="145" t="str">
+        <f>IF(COUNTA(P11:S11)=0,"",COUNTA(P11:S11))</f>
+        <v/>
+      </c>
+      <c r="P11" s="154"/>
+      <c r="Q11" s="154"/>
+      <c r="R11" s="154"/>
+      <c r="S11" s="154"/>
+      <c r="T11" s="159"/>
+      <c r="U11" s="30" t="str">
+        <f>IF(N11="","",IF(N11&lt;=K11,"Very Noisy, SNR below limits for LoRa",""))</f>
+        <v/>
+      </c>
+      <c r="V11" s="30" t="str">
+        <f>IF(O11="","",IF(O11=0,"Add Gateway(s), no reception.",IF(O11&lt;2,"Add Gateway to be safe.","")))</f>
+        <v/>
+      </c>
+      <c r="W11" s="36" t="str">
+        <f>IF(N11="","",IF(G11=7,"Keep SF/DR, already on best",IF(N11&gt;K11+3,"Try DR"&amp;F11+1&amp;"/ SF"&amp;G11-1,IF(N11&lt;K11,"Increase SF","Keep SF/DF"))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="2:23" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="71" t="s">
+        <v>79</v>
+      </c>
+      <c r="C12" s="72"/>
+      <c r="D12" s="72"/>
+      <c r="E12" s="72"/>
+      <c r="F12" s="72"/>
+      <c r="G12" s="72"/>
+      <c r="H12" s="72"/>
+      <c r="I12" s="72"/>
+      <c r="J12" s="72"/>
+      <c r="K12" s="72"/>
+      <c r="L12" s="72"/>
+      <c r="M12" s="72"/>
+      <c r="N12" s="72"/>
+      <c r="O12" s="72"/>
+      <c r="P12" s="72"/>
+      <c r="Q12" s="72"/>
+      <c r="R12" s="72"/>
+      <c r="S12" s="72"/>
+      <c r="T12" s="72"/>
+      <c r="U12" s="72"/>
+      <c r="V12" s="72"/>
+      <c r="W12" s="73"/>
+    </row>
+    <row r="13" spans="2:23" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="59" t="s">
+        <v>76</v>
+      </c>
+      <c r="C13" s="60" t="s">
+        <v>77</v>
+      </c>
+      <c r="D13" s="151">
+        <v>2</v>
+      </c>
+      <c r="E13" s="60" t="s">
+        <v>75</v>
+      </c>
+      <c r="F13" s="63">
+        <v>5</v>
+      </c>
+      <c r="G13" s="64">
+        <f>IF(F13="","",VLOOKUP(F13,metadata!$B$4:$D$9,2,))</f>
+        <v>7</v>
+      </c>
+      <c r="H13" s="63">
         <v>0</v>
       </c>
-      <c r="H5" s="7">
-        <f>IF(G5="","",VLOOKUP(G5,metadata!$B$13:$C$20,2,))</f>
+      <c r="I13" s="64">
+        <f>IF(H13="","",VLOOKUP(H13,metadata!$B$13:$C$20,2,))</f>
         <v>14</v>
       </c>
-      <c r="I5" s="7" t="str">
-        <f>IF(E5="","",VLOOKUP(E5,metadata!$B$4:$H$9,7,))</f>
-        <v>1h 16min</v>
-      </c>
-      <c r="J5" s="7">
-        <f>IF(E5="","",VLOOKUP(E5,metadata!$B$4:$D$9,3,))</f>
-        <v>-17.5</v>
-      </c>
-      <c r="K5" s="34">
-        <v>-118</v>
-      </c>
-      <c r="L5" s="7">
+      <c r="J13" s="64" t="str">
+        <f>IF(F13="","",VLOOKUP(F13,metadata!$B$4:$H$9,7,))</f>
+        <v>6min</v>
+      </c>
+      <c r="K13" s="64">
+        <f>IF(F13="","",VLOOKUP(F13,metadata!$B$4:$D$9,3,))</f>
+        <v>-7.5</v>
+      </c>
+      <c r="L13" s="65">
+        <v>-88</v>
+      </c>
+      <c r="M13" s="65">
+        <v>-105</v>
+      </c>
+      <c r="N13" s="64">
+        <v>4</v>
+      </c>
+      <c r="O13" s="146">
+        <f>IF(COUNTA(P13:S13)=0,"",COUNTA(P13:S13))</f>
         <v>2</v>
       </c>
-      <c r="M5" s="35">
-        <v>1</v>
-      </c>
-      <c r="N5" s="30"/>
-      <c r="O5" s="31" t="str">
-        <f>IF(L5="","",IF(L5&lt;=J5,"Very Noisy, SNR below limits for LoRa",""))</f>
+      <c r="P13" s="156">
+        <v>3.4</v>
+      </c>
+      <c r="Q13" s="156"/>
+      <c r="R13" s="156">
+        <v>7.2</v>
+      </c>
+      <c r="S13" s="156"/>
+      <c r="T13" s="160" t="s">
+        <v>80</v>
+      </c>
+      <c r="U13" s="66" t="str">
+        <f>IF(O13="","",IF(O13=0,"Add Gateway(s), no reception.",IF(O13&lt;2,"Add Gateway to be safe.","")))</f>
         <v/>
       </c>
-      <c r="P5" s="31" t="str">
-        <f>IF(M5="","",IF(M5=0,"Add Gateway(s), no reception.",IF(M5&lt;2,"Add Gateway to be safe.","")))</f>
-        <v>Add Gateway to be safe.</v>
-      </c>
-      <c r="Q5" s="39" t="str">
-        <f>IF(L5="","",IF(F5=7,"Keep SF/DR, already on best",IF(L5&gt;J5+3,"Try DR"&amp;E5+1&amp;"/ SF"&amp;F5-1,IF(L5&lt;J5,"Increase SF","Keep SF/DF"))))</f>
-        <v>Try DR2/ SF10</v>
+      <c r="V13" s="66" t="str">
+        <f>IF(O13="","",IF(O13=0,"Add Gateway(s), no reception.",IF(O13&lt;2,"Add Gateway to be safe.","")))</f>
+        <v/>
+      </c>
+      <c r="W13" s="67" t="str">
+        <f>IF(N13="","",IF(G13=7,"Keep SF/DR, already on best",IF(N13&gt;K13+3,"Try DR"&amp;F13+1&amp;"/ SF"&amp;G13-1,IF(N13&lt;K13,"Increase SF","Keep SF/DF"))))</f>
+        <v>Keep SF/DR, already on best</v>
       </c>
     </row>
-    <row r="6" spans="2:17" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="38"/>
-      <c r="C6" s="56"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="7" t="str">
-        <f>IF(E6="","",VLOOKUP(E6,metadata!$B$4:$D$9,2,))</f>
+    <row r="14" spans="2:23" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="C14" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="D14" s="149">
+        <v>2</v>
+      </c>
+      <c r="E14" s="51" t="s">
+        <v>75</v>
+      </c>
+      <c r="F14" s="10">
+        <v>5</v>
+      </c>
+      <c r="G14" s="7">
+        <f>IF(F14="","",VLOOKUP(F14,metadata!$B$4:$D$9,2,))</f>
+        <v>7</v>
+      </c>
+      <c r="H14" s="10">
+        <v>0</v>
+      </c>
+      <c r="I14" s="7">
+        <f>IF(H14="","",VLOOKUP(H14,metadata!$B$13:$C$20,2,))</f>
+        <v>14</v>
+      </c>
+      <c r="J14" s="7" t="str">
+        <f>IF(F14="","",VLOOKUP(F14,metadata!$B$4:$H$9,7,))</f>
+        <v>6min</v>
+      </c>
+      <c r="K14" s="7">
+        <f>IF(F14="","",VLOOKUP(F14,metadata!$B$4:$D$9,3,))</f>
+        <v>-7.5</v>
+      </c>
+      <c r="L14" s="33">
+        <v>-41</v>
+      </c>
+      <c r="M14" s="33">
+        <v>-104</v>
+      </c>
+      <c r="N14" s="7">
+        <v>15</v>
+      </c>
+      <c r="O14" s="145">
+        <f>IF(COUNTA(P14:S14)=0,"",COUNTA(P14:S14))</f>
+        <v>3</v>
+      </c>
+      <c r="P14" s="154">
+        <v>7.5</v>
+      </c>
+      <c r="Q14" s="154">
+        <v>-8.9</v>
+      </c>
+      <c r="R14" s="154">
+        <v>9</v>
+      </c>
+      <c r="S14" s="154"/>
+      <c r="T14" s="160"/>
+      <c r="U14" s="30" t="str">
+        <f>IF(O14="","",IF(O14=0,"Add Gateway(s), no reception.",IF(O14&lt;2,"Add Gateway to be safe.","")))</f>
         <v/>
       </c>
-      <c r="G6" s="10"/>
-      <c r="H6" s="7" t="str">
-        <f>IF(G6="","",VLOOKUP(G6,metadata!$B$13:$C$20,2,))</f>
+      <c r="V14" s="30" t="str">
+        <f>IF(O14="","",IF(O14=0,"Add Gateway(s), no reception.",IF(O14&lt;2,"Add Gateway to be safe.","")))</f>
         <v/>
       </c>
-      <c r="I6" s="7" t="str">
-        <f>IF(E6="","",VLOOKUP(E6,metadata!$B$4:$H$9,7,))</f>
+      <c r="W14" s="36" t="str">
+        <f>IF(N14="","",IF(G14=7,"Keep SF/DR, already on best",IF(N14&gt;K14+3,"Try DR"&amp;F14+1&amp;"/ SF"&amp;G14-1,IF(N14&lt;K14,"Increase SF","Keep SF/DF"))))</f>
+        <v>Keep SF/DR, already on best</v>
+      </c>
+    </row>
+    <row r="15" spans="2:23" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="35"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="149"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="7" t="str">
+        <f>IF(F15="","",VLOOKUP(F15,metadata!$B$4:$D$9,2,))</f>
         <v/>
       </c>
-      <c r="J6" s="7" t="str">
-        <f>IF(E6="","",VLOOKUP(E6,metadata!$B$4:$D$9,3,))</f>
+      <c r="H15" s="10"/>
+      <c r="I15" s="7" t="str">
+        <f>IF(H15="","",VLOOKUP(H15,metadata!$B$13:$C$20,2,))</f>
         <v/>
       </c>
-      <c r="K6" s="34"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="35"/>
-      <c r="N6" s="30"/>
-      <c r="O6" s="31" t="str">
-        <f t="shared" ref="O6:O10" si="0">IF(L6="","",IF(L6&lt;=J6,"Very Noisy, SNR below limits for LoRa",""))</f>
+      <c r="J15" s="7" t="str">
+        <f>IF(F15="","",VLOOKUP(F15,metadata!$B$4:$H$9,7,))</f>
         <v/>
       </c>
-      <c r="P6" s="31" t="str">
-        <f t="shared" ref="P6:P10" si="1">IF(M6="","",IF(M6=0,"Add Gateway(s), no reception.",IF(M6&lt;2,"Add Gateway to be safe.","")))</f>
+      <c r="K15" s="7" t="str">
+        <f>IF(F15="","",VLOOKUP(F15,metadata!$B$4:$D$9,3,))</f>
         <v/>
       </c>
-      <c r="Q6" s="39" t="str">
-        <f t="shared" ref="Q6:Q10" si="2">IF(L6="","",IF(F6=7,"Keep SF/DR, already on best",IF(L6&gt;J6+3,"Try DR"&amp;E6+1&amp;"/ SF"&amp;F6-1,IF(L6&lt;J6,"Increase SF","Keep SF/DF"))))</f>
+      <c r="L15" s="33"/>
+      <c r="M15" s="33"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="145" t="str">
+        <f>IF(COUNTA(P15:S15)=0,"",COUNTA(P15:S15))</f>
         <v/>
       </c>
+      <c r="P15" s="154"/>
+      <c r="Q15" s="154"/>
+      <c r="R15" s="154"/>
+      <c r="S15" s="154"/>
+      <c r="T15" s="160"/>
+      <c r="U15" s="30" t="str">
+        <f>IF(O15="","",IF(O15=0,"Add Gateway(s), no reception.",IF(O15&lt;2,"Add Gateway to be safe.","")))</f>
+        <v/>
+      </c>
+      <c r="V15" s="30" t="str">
+        <f>IF(O15="","",IF(O15=0,"Add Gateway(s), no reception.",IF(O15&lt;2,"Add Gateway to be safe.","")))</f>
+        <v/>
+      </c>
+      <c r="W15" s="36" t="str">
+        <f>IF(N15="","",IF(G15=7,"Keep SF/DR, already on best",IF(N15&gt;K15+3,"Try DR"&amp;F15+1&amp;"/ SF"&amp;G15-1,IF(N15&lt;K15,"Increase SF","Keep SF/DF"))))</f>
+        <v/>
+      </c>
     </row>
-    <row r="7" spans="2:17" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="38"/>
-      <c r="C7" s="56"/>
-      <c r="D7" s="56"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="7" t="str">
-        <f>IF(E7="","",VLOOKUP(E7,metadata!$B$4:$D$9,2,))</f>
+    <row r="16" spans="2:23" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="35"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="149"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="7" t="str">
+        <f>IF(F16="","",VLOOKUP(F16,metadata!$B$4:$D$9,2,))</f>
         <v/>
       </c>
-      <c r="G7" s="10"/>
-      <c r="H7" s="7" t="str">
-        <f>IF(G7="","",VLOOKUP(G7,metadata!$B$13:$C$20,2,))</f>
+      <c r="H16" s="10"/>
+      <c r="I16" s="7" t="str">
+        <f>IF(H16="","",VLOOKUP(H16,metadata!$B$13:$C$20,2,))</f>
         <v/>
       </c>
-      <c r="I7" s="7" t="str">
-        <f>IF(E7="","",VLOOKUP(E7,metadata!$B$4:$H$9,7,))</f>
+      <c r="J16" s="7" t="str">
+        <f>IF(F16="","",VLOOKUP(F16,metadata!$B$4:$H$9,7,))</f>
         <v/>
       </c>
-      <c r="J7" s="7" t="str">
-        <f>IF(E7="","",VLOOKUP(E7,metadata!$B$4:$D$9,3,))</f>
+      <c r="K16" s="7" t="str">
+        <f>IF(F16="","",VLOOKUP(F16,metadata!$B$4:$D$9,3,))</f>
         <v/>
       </c>
-      <c r="K7" s="34"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="35"/>
-      <c r="N7" s="30"/>
-      <c r="O7" s="31" t="str">
-        <f t="shared" si="0"/>
+      <c r="L16" s="33"/>
+      <c r="M16" s="33"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="145" t="str">
+        <f>IF(COUNTA(P16:S16)=0,"",COUNTA(P16:S16))</f>
         <v/>
       </c>
-      <c r="P7" s="31" t="str">
-        <f t="shared" si="1"/>
+      <c r="P16" s="154"/>
+      <c r="Q16" s="154"/>
+      <c r="R16" s="154"/>
+      <c r="S16" s="154"/>
+      <c r="T16" s="160"/>
+      <c r="U16" s="30" t="str">
+        <f>IF(O16="","",IF(O16=0,"Add Gateway(s), no reception.",IF(O16&lt;2,"Add Gateway to be safe.","")))</f>
         <v/>
       </c>
-      <c r="Q7" s="39" t="str">
-        <f t="shared" si="2"/>
+      <c r="V16" s="30" t="str">
+        <f>IF(O16="","",IF(O16=0,"Add Gateway(s), no reception.",IF(O16&lt;2,"Add Gateway to be safe.","")))</f>
         <v/>
       </c>
+      <c r="W16" s="36" t="str">
+        <f>IF(N16="","",IF(G16=7,"Keep SF/DR, already on best",IF(N16&gt;K16+3,"Try DR"&amp;F16+1&amp;"/ SF"&amp;G16-1,IF(N16&lt;K16,"Increase SF","Keep SF/DF"))))</f>
+        <v/>
+      </c>
     </row>
-    <row r="8" spans="2:17" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="38"/>
-      <c r="C8" s="56"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="7" t="str">
-        <f>IF(E8="","",VLOOKUP(E8,metadata!$B$4:$D$9,2,))</f>
+    <row r="17" spans="2:23" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="35"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="149"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="7" t="str">
+        <f>IF(F17="","",VLOOKUP(F17,metadata!$B$4:$D$9,2,))</f>
         <v/>
       </c>
-      <c r="G8" s="10"/>
-      <c r="H8" s="7" t="str">
-        <f>IF(G8="","",VLOOKUP(G8,metadata!$B$13:$C$20,2,))</f>
+      <c r="H17" s="10"/>
+      <c r="I17" s="7" t="str">
+        <f>IF(H17="","",VLOOKUP(H17,metadata!$B$13:$C$20,2,))</f>
         <v/>
       </c>
-      <c r="I8" s="7" t="str">
-        <f>IF(E8="","",VLOOKUP(E8,metadata!$B$4:$H$9,7,))</f>
+      <c r="J17" s="7" t="str">
+        <f>IF(F17="","",VLOOKUP(F17,metadata!$B$4:$H$9,7,))</f>
         <v/>
       </c>
-      <c r="J8" s="7" t="str">
-        <f>IF(E8="","",VLOOKUP(E8,metadata!$B$4:$D$9,3,))</f>
+      <c r="K17" s="7" t="str">
+        <f>IF(F17="","",VLOOKUP(F17,metadata!$B$4:$D$9,3,))</f>
         <v/>
       </c>
-      <c r="K8" s="34"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="35"/>
-      <c r="N8" s="30"/>
-      <c r="O8" s="31" t="str">
-        <f t="shared" si="0"/>
+      <c r="L17" s="33"/>
+      <c r="M17" s="33"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="145" t="str">
+        <f>IF(COUNTA(P17:S17)=0,"",COUNTA(P17:S17))</f>
         <v/>
       </c>
-      <c r="P8" s="31" t="str">
-        <f t="shared" si="1"/>
+      <c r="P17" s="154"/>
+      <c r="Q17" s="154"/>
+      <c r="R17" s="154"/>
+      <c r="S17" s="154"/>
+      <c r="T17" s="160"/>
+      <c r="U17" s="30" t="str">
+        <f>IF(O17="","",IF(O17=0,"Add Gateway(s), no reception.",IF(O17&lt;2,"Add Gateway to be safe.","")))</f>
         <v/>
       </c>
-      <c r="Q8" s="39" t="str">
-        <f t="shared" si="2"/>
+      <c r="V17" s="30" t="str">
+        <f>IF(O17="","",IF(O17=0,"Add Gateway(s), no reception.",IF(O17&lt;2,"Add Gateway to be safe.","")))</f>
         <v/>
       </c>
+      <c r="W17" s="36" t="str">
+        <f>IF(N17="","",IF(G17=7,"Keep SF/DR, already on best",IF(N17&gt;K17+3,"Try DR"&amp;F17+1&amp;"/ SF"&amp;G17-1,IF(N17&lt;K17,"Increase SF","Keep SF/DF"))))</f>
+        <v/>
+      </c>
     </row>
-    <row r="9" spans="2:17" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="38"/>
-      <c r="C9" s="56"/>
-      <c r="D9" s="56"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="7" t="str">
-        <f>IF(E9="","",VLOOKUP(E9,metadata!$B$4:$D$9,2,))</f>
+    <row r="18" spans="2:23" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="37"/>
+      <c r="C18" s="52"/>
+      <c r="D18" s="150"/>
+      <c r="E18" s="52"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="40" t="str">
+        <f>IF(F18="","",VLOOKUP(F18,metadata!$B$4:$D$9,2,))</f>
         <v/>
       </c>
-      <c r="G9" s="10"/>
-      <c r="H9" s="7" t="str">
-        <f>IF(G9="","",VLOOKUP(G9,metadata!$B$13:$C$20,2,))</f>
+      <c r="H18" s="38"/>
+      <c r="I18" s="40" t="str">
+        <f>IF(H18="","",VLOOKUP(H18,metadata!$B$13:$C$20,2,))</f>
         <v/>
       </c>
-      <c r="I9" s="7" t="str">
-        <f>IF(E9="","",VLOOKUP(E9,metadata!$B$4:$H$9,7,))</f>
+      <c r="J18" s="40" t="str">
+        <f>IF(F18="","",VLOOKUP(F18,metadata!$B$4:$H$9,7,))</f>
         <v/>
       </c>
-      <c r="J9" s="7" t="str">
-        <f>IF(E9="","",VLOOKUP(E9,metadata!$B$4:$D$9,3,))</f>
+      <c r="K18" s="40" t="str">
+        <f>IF(F18="","",VLOOKUP(F18,metadata!$B$4:$D$9,3,))</f>
         <v/>
       </c>
-      <c r="K9" s="34"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="35"/>
-      <c r="N9" s="30"/>
-      <c r="O9" s="31" t="str">
-        <f t="shared" si="0"/>
+      <c r="L18" s="39"/>
+      <c r="M18" s="39"/>
+      <c r="N18" s="40"/>
+      <c r="O18" s="153" t="str">
+        <f>IF(COUNTA(P18:S18)=0,"",COUNTA(P18:S18))</f>
         <v/>
       </c>
-      <c r="P9" s="31" t="str">
-        <f t="shared" si="1"/>
+      <c r="P18" s="155"/>
+      <c r="Q18" s="155"/>
+      <c r="R18" s="155"/>
+      <c r="S18" s="155"/>
+      <c r="T18" s="161"/>
+      <c r="U18" s="61" t="str">
+        <f>IF(O18="","",IF(O18=0,"Add Gateway(s), no reception.",IF(O18&lt;2,"Add Gateway to be safe.","")))</f>
         <v/>
       </c>
-      <c r="Q9" s="39" t="str">
-        <f t="shared" si="2"/>
+      <c r="V18" s="61" t="str">
+        <f>IF(O18="","",IF(O18=0,"Add Gateway(s), no reception.",IF(O18&lt;2,"Add Gateway to be safe.","")))</f>
         <v/>
       </c>
-    </row>
-    <row r="10" spans="2:17" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="40"/>
-      <c r="C10" s="57"/>
-      <c r="D10" s="57"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="7" t="str">
-        <f>IF(E10="","",VLOOKUP(E10,metadata!$B$4:$D$9,2,))</f>
-        <v/>
-      </c>
-      <c r="G10" s="41"/>
-      <c r="H10" s="7" t="str">
-        <f>IF(G10="","",VLOOKUP(G10,metadata!$B$13:$C$20,2,))</f>
-        <v/>
-      </c>
-      <c r="I10" s="7" t="str">
-        <f>IF(E10="","",VLOOKUP(E10,metadata!$B$4:$H$9,7,))</f>
-        <v/>
-      </c>
-      <c r="J10" s="7" t="str">
-        <f>IF(E10="","",VLOOKUP(E10,metadata!$B$4:$D$9,3,))</f>
-        <v/>
-      </c>
-      <c r="K10" s="42"/>
-      <c r="L10" s="43"/>
-      <c r="M10" s="44"/>
-      <c r="N10" s="45"/>
-      <c r="O10" s="31" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="P10" s="31" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="Q10" s="39" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="2:17" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="81" t="s">
-        <v>59</v>
-      </c>
-      <c r="C11" s="82"/>
-      <c r="D11" s="82"/>
-      <c r="E11" s="82"/>
-      <c r="F11" s="82"/>
-      <c r="G11" s="82"/>
-      <c r="H11" s="82"/>
-      <c r="I11" s="82"/>
-      <c r="J11" s="82"/>
-      <c r="K11" s="82"/>
-      <c r="L11" s="82"/>
-      <c r="M11" s="82"/>
-      <c r="N11" s="82"/>
-      <c r="O11" s="82"/>
-      <c r="P11" s="82"/>
-      <c r="Q11" s="83"/>
-    </row>
-    <row r="12" spans="2:17" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="67" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="68"/>
-      <c r="D12" s="68"/>
-      <c r="E12" s="71">
-        <v>1</v>
-      </c>
-      <c r="F12" s="72">
-        <f>IF(E12="","",VLOOKUP(E12,metadata!$B$4:$D$9,2,))</f>
-        <v>11</v>
-      </c>
-      <c r="G12" s="71">
-        <v>0</v>
-      </c>
-      <c r="H12" s="72">
-        <f>IF(G12="","",VLOOKUP(G12,metadata!$B$13:$C$20,2,))</f>
-        <v>14</v>
-      </c>
-      <c r="I12" s="72" t="str">
-        <f>IF(E12="","",VLOOKUP(E12,metadata!$B$4:$H$9,7,))</f>
-        <v>1h 16min</v>
-      </c>
-      <c r="J12" s="72">
-        <f>IF(E12="","",VLOOKUP(E12,metadata!$B$4:$D$9,3,))</f>
-        <v>-17.5</v>
-      </c>
-      <c r="K12" s="73">
-        <v>-88</v>
-      </c>
-      <c r="L12" s="72">
-        <v>2</v>
-      </c>
-      <c r="M12" s="74">
-        <v>2</v>
-      </c>
-      <c r="N12" s="75"/>
-      <c r="O12" s="76" t="str">
-        <f t="shared" ref="O12:O17" si="3">IF(M12="","",IF(M12=0,"Add Gateway(s), no reception.",IF(M12&lt;2,"Add Gateway to be safe.","")))</f>
-        <v/>
-      </c>
-      <c r="P12" s="76" t="str">
-        <f>IF(M12="","",IF(M12=0,"Add Gateway(s), no reception.",IF(M12&lt;2,"Add Gateway to be safe.","")))</f>
-        <v/>
-      </c>
-      <c r="Q12" s="77" t="str">
-        <f>IF(L12="","",IF(F12=7,"Keep SF/DR, already on best",IF(L12&gt;J12+3,"Try DR"&amp;E12+1&amp;"/ SF"&amp;F12-1,IF(L12&lt;J12,"Increase SF","Keep SF/DF"))))</f>
-        <v>Try DR2/ SF10</v>
-      </c>
-    </row>
-    <row r="13" spans="2:17" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="38"/>
-      <c r="C13" s="56"/>
-      <c r="D13" s="56"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="7" t="str">
-        <f>IF(E13="","",VLOOKUP(E13,metadata!$B$4:$D$9,2,))</f>
-        <v/>
-      </c>
-      <c r="G13" s="10"/>
-      <c r="H13" s="7" t="str">
-        <f>IF(G13="","",VLOOKUP(G13,metadata!$B$13:$C$20,2,))</f>
-        <v/>
-      </c>
-      <c r="I13" s="7" t="str">
-        <f>IF(E13="","",VLOOKUP(E13,metadata!$B$4:$H$9,7,))</f>
-        <v/>
-      </c>
-      <c r="J13" s="7" t="str">
-        <f>IF(E13="","",VLOOKUP(E13,metadata!$B$4:$D$9,3,))</f>
-        <v/>
-      </c>
-      <c r="K13" s="34"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="35"/>
-      <c r="N13" s="30"/>
-      <c r="O13" s="31" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="P13" s="31" t="str">
-        <f t="shared" ref="P13:P17" si="4">IF(M13="","",IF(M13=0,"Add Gateway(s), no reception.",IF(M13&lt;2,"Add Gateway to be safe.","")))</f>
-        <v/>
-      </c>
-      <c r="Q13" s="39" t="str">
-        <f t="shared" ref="Q13:Q17" si="5">IF(L13="","",IF(F13=7,"Keep SF/DR, already on best",IF(L13&gt;J13+3,"Try DR"&amp;E13+1&amp;"/ SF"&amp;F13-1,IF(L13&lt;J13,"Increase SF","Keep SF/DF"))))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="2:17" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="38"/>
-      <c r="C14" s="56"/>
-      <c r="D14" s="56"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="7" t="str">
-        <f>IF(E14="","",VLOOKUP(E14,metadata!$B$4:$D$9,2,))</f>
-        <v/>
-      </c>
-      <c r="G14" s="10"/>
-      <c r="H14" s="7" t="str">
-        <f>IF(G14="","",VLOOKUP(G14,metadata!$B$13:$C$20,2,))</f>
-        <v/>
-      </c>
-      <c r="I14" s="7" t="str">
-        <f>IF(E14="","",VLOOKUP(E14,metadata!$B$4:$H$9,7,))</f>
-        <v/>
-      </c>
-      <c r="J14" s="7" t="str">
-        <f>IF(E14="","",VLOOKUP(E14,metadata!$B$4:$D$9,3,))</f>
-        <v/>
-      </c>
-      <c r="K14" s="34"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="35"/>
-      <c r="N14" s="30"/>
-      <c r="O14" s="31" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="P14" s="31" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="Q14" s="39" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="2:17" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="38"/>
-      <c r="C15" s="56"/>
-      <c r="D15" s="56"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="7" t="str">
-        <f>IF(E15="","",VLOOKUP(E15,metadata!$B$4:$D$9,2,))</f>
-        <v/>
-      </c>
-      <c r="G15" s="10"/>
-      <c r="H15" s="7" t="str">
-        <f>IF(G15="","",VLOOKUP(G15,metadata!$B$13:$C$20,2,))</f>
-        <v/>
-      </c>
-      <c r="I15" s="7" t="str">
-        <f>IF(E15="","",VLOOKUP(E15,metadata!$B$4:$H$9,7,))</f>
-        <v/>
-      </c>
-      <c r="J15" s="7" t="str">
-        <f>IF(E15="","",VLOOKUP(E15,metadata!$B$4:$D$9,3,))</f>
-        <v/>
-      </c>
-      <c r="K15" s="34"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="35"/>
-      <c r="N15" s="30"/>
-      <c r="O15" s="31" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="P15" s="31" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="Q15" s="39" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="2:17" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="38"/>
-      <c r="C16" s="56"/>
-      <c r="D16" s="56"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="7" t="str">
-        <f>IF(E16="","",VLOOKUP(E16,metadata!$B$4:$D$9,2,))</f>
-        <v/>
-      </c>
-      <c r="G16" s="10"/>
-      <c r="H16" s="7" t="str">
-        <f>IF(G16="","",VLOOKUP(G16,metadata!$B$13:$C$20,2,))</f>
-        <v/>
-      </c>
-      <c r="I16" s="7" t="str">
-        <f>IF(E16="","",VLOOKUP(E16,metadata!$B$4:$H$9,7,))</f>
-        <v/>
-      </c>
-      <c r="J16" s="7" t="str">
-        <f>IF(E16="","",VLOOKUP(E16,metadata!$B$4:$D$9,3,))</f>
-        <v/>
-      </c>
-      <c r="K16" s="34"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="35"/>
-      <c r="N16" s="30"/>
-      <c r="O16" s="31" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="P16" s="31" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="Q16" s="39" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="2:17" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="40"/>
-      <c r="C17" s="57"/>
-      <c r="D17" s="57"/>
-      <c r="E17" s="41"/>
-      <c r="F17" s="43" t="str">
-        <f>IF(E17="","",VLOOKUP(E17,metadata!$B$4:$D$9,2,))</f>
-        <v/>
-      </c>
-      <c r="G17" s="41"/>
-      <c r="H17" s="43" t="str">
-        <f>IF(G17="","",VLOOKUP(G17,metadata!$B$13:$C$20,2,))</f>
-        <v/>
-      </c>
-      <c r="I17" s="43" t="str">
-        <f>IF(E17="","",VLOOKUP(E17,metadata!$B$4:$H$9,7,))</f>
-        <v/>
-      </c>
-      <c r="J17" s="43" t="str">
-        <f>IF(E17="","",VLOOKUP(E17,metadata!$B$4:$D$9,3,))</f>
-        <v/>
-      </c>
-      <c r="K17" s="42"/>
-      <c r="L17" s="43"/>
-      <c r="M17" s="44"/>
-      <c r="N17" s="45"/>
-      <c r="O17" s="69" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="P17" s="69" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="Q17" s="70" t="str">
-        <f t="shared" si="5"/>
+      <c r="W18" s="62" t="str">
+        <f>IF(N18="","",IF(G18=7,"Keep SF/DR, already on best",IF(N18&gt;K18+3,"Try DR"&amp;F18+1&amp;"/ SF"&amp;G18-1,IF(N18&lt;K18,"Increase SF","Keep SF/DF"))))</f>
         <v/>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="O2:Q2"/>
-    <mergeCell ref="B11:Q11"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="G3:H3"/>
+  <autoFilter ref="B5:W18" xr:uid="{7F5631FF-9388-4747-98B0-3AAB2640A2B7}"/>
+  <mergeCells count="7">
+    <mergeCell ref="U2:W2"/>
+    <mergeCell ref="B12:W12"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="P2:S2"/>
   </mergeCells>
-  <conditionalFormatting sqref="B5:E10 G5:G10 B11:D11 B12:E17 G12:G17">
-    <cfRule type="cellIs" dxfId="16" priority="1" operator="notEqual">
+  <conditionalFormatting sqref="H6:H11 B12:E12 H13:H18 B6:F11 B13:F18">
+    <cfRule type="cellIs" dxfId="67" priority="163" operator="notEqual">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K5:M10 K12:M17">
-    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
+  <conditionalFormatting sqref="P6:S11">
+    <cfRule type="cellIs" dxfId="61" priority="9" operator="equal">
+      <formula>""</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="60" priority="72">
+      <formula>$F6=""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P6:S11">
+    <cfRule type="expression" dxfId="59" priority="73">
+      <formula>P6&lt;=$K6</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N6:N11">
+    <cfRule type="expression" dxfId="25" priority="20">
+      <formula>$F6=""</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="21" operator="equal">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L5:L10 L12:L17">
-    <cfRule type="expression" dxfId="9" priority="7">
-      <formula>$L$5&lt;=$J$5</formula>
+  <conditionalFormatting sqref="N6:N11">
+    <cfRule type="expression" dxfId="23" priority="22">
+      <formula>N6&lt;=$K6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M5:M10 M12:M17">
-    <cfRule type="cellIs" dxfId="3" priority="5" operator="lessThanOrEqual">
-      <formula>0</formula>
+  <conditionalFormatting sqref="N13:N18">
+    <cfRule type="expression" dxfId="17" priority="12">
+      <formula>$F13=""</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="6" operator="lessThanOrEqual">
-      <formula>1</formula>
+    <cfRule type="cellIs" dxfId="16" priority="13" operator="equal">
+      <formula>""</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="13" operator="lessThanOrEqual">
-      <formula>2</formula>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N13:N18">
+    <cfRule type="expression" dxfId="15" priority="14">
+      <formula>N13&lt;=$K13</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="14" operator="greaterThan">
-      <formula>2</formula>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L6:M11">
+    <cfRule type="cellIs" dxfId="9" priority="11" operator="equal">
+      <formula>""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L13:M18">
+    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
+      <formula>""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P13:S18">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
+      <formula>""</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="2">
+      <formula>$F13=""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P13:S18">
+    <cfRule type="expression" dxfId="5" priority="3">
+      <formula>P13&lt;=$K13</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -3423,7 +10140,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="12" operator="greaterThanOrEqual" id="{B2CB881D-58F4-4A91-B155-6DBF5070FFCA}">
+          <x14:cfRule type="cellIs" priority="174" operator="greaterThanOrEqual" id="{B2CB881D-58F4-4A91-B155-6DBF5070FFCA}">
             <xm:f>metadata!$B$33</xm:f>
             <x14:dxf>
               <font>
@@ -3438,7 +10155,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="16" operator="lessThan" id="{D7F46B3D-0A8D-41A8-890E-26C16A7A4193}">
+          <x14:cfRule type="cellIs" priority="178" operator="lessThan" id="{D7F46B3D-0A8D-41A8-890E-26C16A7A4193}">
             <xm:f>metadata!$B$30</xm:f>
             <x14:dxf>
               <font>
@@ -3453,7 +10170,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="17" operator="lessThan" id="{5B7E58D9-86B2-40F1-AAC6-C4CC7ECBFE49}">
+          <x14:cfRule type="cellIs" priority="179" operator="lessThan" id="{5B7E58D9-86B2-40F1-AAC6-C4CC7ECBFE49}">
             <xm:f>metadata!$B$31</xm:f>
             <x14:dxf>
               <font>
@@ -3468,7 +10185,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="18" operator="lessThan" id="{37446D85-0329-4F76-BDB3-CA686FDB6415}">
+          <x14:cfRule type="cellIs" priority="180" operator="lessThan" id="{37446D85-0329-4F76-BDB3-CA686FDB6415}">
             <xm:f>metadata!$B$32</xm:f>
             <x14:dxf>
               <font>
@@ -3483,7 +10200,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="19" operator="lessThan" id="{904689C0-F445-48D1-98A0-4D717704E522}">
+          <x14:cfRule type="cellIs" priority="181" operator="lessThan" id="{904689C0-F445-48D1-98A0-4D717704E522}">
             <xm:f>metadata!$B$33</xm:f>
             <x14:dxf>
               <font>
@@ -3498,10 +10215,10 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>K5:K10 K12:K17</xm:sqref>
+          <xm:sqref>L6:M11 L13:M18</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="8" operator="lessThan" id="{4F5F10AE-D6A8-4877-ADFE-372F0BA7D26F}">
+          <x14:cfRule type="cellIs" priority="74" operator="lessThan" id="{EDDB300E-A15C-4E39-A93D-ACF7D23F5921}">
             <xm:f>metadata!$B$40</xm:f>
             <x14:dxf>
               <font>
@@ -3516,7 +10233,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="9" operator="lessThan" id="{9DBD3FFC-91EA-4FE1-91B0-568DB2C0631B}">
+          <x14:cfRule type="cellIs" priority="75" operator="lessThan" id="{7A439F99-5F5A-41C0-A202-4F64DD49DD24}">
             <xm:f>metadata!$B$41</xm:f>
             <x14:dxf>
               <font>
@@ -3531,7 +10248,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="10" operator="lessThan" id="{4119183B-4F7C-4E95-A2C5-5C94374A1B29}">
+          <x14:cfRule type="cellIs" priority="76" operator="lessThan" id="{09F0E6C8-6960-437F-8D0D-96A37892AFEF}">
             <xm:f>metadata!$B$42</xm:f>
             <x14:dxf>
               <font>
@@ -3546,7 +10263,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="11" operator="lessThan" id="{4575317E-D25D-4D59-8E6D-265A0FECBEEE}">
+          <x14:cfRule type="cellIs" priority="78" operator="lessThan" id="{EAA94AB0-9711-4F1E-8CCB-06B76C563792}">
             <xm:f>metadata!$B$43</xm:f>
             <x14:dxf>
               <font>
@@ -3561,7 +10278,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="15" operator="greaterThanOrEqual" id="{D637231B-DA67-4B5D-8816-BC1D11BAA3FA}">
+          <x14:cfRule type="cellIs" priority="79" operator="greaterThanOrEqual" id="{871FEB8E-9039-4AA1-A2E9-FFE4095FD109}">
             <xm:f>metadata!$B$43</xm:f>
             <x14:dxf>
               <font>
@@ -3576,7 +10293,241 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>L5:L10 L12:L17</xm:sqref>
+          <xm:sqref>P6:S11</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="23" operator="lessThan" id="{819247A5-D1D0-4D1A-9CD9-5EB185739A69}">
+            <xm:f>metadata!$B$40</xm:f>
+            <x14:dxf>
+              <font>
+                <b/>
+                <i val="0"/>
+                <color theme="0"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="24" operator="lessThan" id="{15FE054A-3586-4412-B41E-73A7DF328164}">
+            <xm:f>metadata!$B$41</xm:f>
+            <x14:dxf>
+              <font>
+                <b/>
+                <i val="0"/>
+                <color theme="1" tint="0.24994659260841701"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="25" operator="lessThan" id="{720B6D76-63D8-41C1-B216-04BBBE79A80A}">
+            <xm:f>metadata!$B$42</xm:f>
+            <x14:dxf>
+              <font>
+                <b/>
+                <i val="0"/>
+                <color theme="1" tint="0.24994659260841701"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFFF00"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="26" operator="lessThan" id="{4A8C6465-A215-4097-918D-B34C1330FA48}">
+            <xm:f>metadata!$B$43</xm:f>
+            <x14:dxf>
+              <font>
+                <b/>
+                <i val="0"/>
+                <color theme="1" tint="0.24994659260841701"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF92D050"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="27" operator="greaterThanOrEqual" id="{18D4F3C5-FFBE-4FC6-A2B8-F1EB8C2B14E2}">
+            <xm:f>metadata!$B$43</xm:f>
+            <x14:dxf>
+              <font>
+                <b/>
+                <i val="0"/>
+                <color theme="0"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="9"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>N6:N11</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="15" operator="lessThan" id="{0F37EFA2-DCE6-4A1F-8F92-A6138485C242}">
+            <xm:f>metadata!$B$40</xm:f>
+            <x14:dxf>
+              <font>
+                <b/>
+                <i val="0"/>
+                <color theme="0"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="16" operator="lessThan" id="{41DCA8B3-6A06-4CCC-9CFA-8BAF4FC432FF}">
+            <xm:f>metadata!$B$41</xm:f>
+            <x14:dxf>
+              <font>
+                <b/>
+                <i val="0"/>
+                <color theme="1" tint="0.24994659260841701"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="17" operator="lessThan" id="{D0C3FCDA-BFAE-4FDB-AB78-ECFF15B75F9C}">
+            <xm:f>metadata!$B$42</xm:f>
+            <x14:dxf>
+              <font>
+                <b/>
+                <i val="0"/>
+                <color theme="1" tint="0.24994659260841701"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFFF00"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="18" operator="lessThan" id="{28FFD5DC-6211-4EDF-B2C9-6CCFB48EDC8A}">
+            <xm:f>metadata!$B$43</xm:f>
+            <x14:dxf>
+              <font>
+                <b/>
+                <i val="0"/>
+                <color theme="1" tint="0.24994659260841701"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF92D050"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="19" operator="greaterThanOrEqual" id="{1A615044-B1A4-4D9D-B2DC-47F0497A42D5}">
+            <xm:f>metadata!$B$43</xm:f>
+            <x14:dxf>
+              <font>
+                <b/>
+                <i val="0"/>
+                <color theme="0"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="9"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>N13:N18</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="4" operator="lessThan" id="{33A1D2A4-00C1-44F1-80CC-98DDEE2FA58B}">
+            <xm:f>metadata!$B$40</xm:f>
+            <x14:dxf>
+              <font>
+                <b/>
+                <i val="0"/>
+                <color theme="0"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="5" operator="lessThan" id="{9BC9E32D-F298-4D7B-BFB0-CA832F9BB4AE}">
+            <xm:f>metadata!$B$41</xm:f>
+            <x14:dxf>
+              <font>
+                <b/>
+                <i val="0"/>
+                <color theme="1" tint="0.24994659260841701"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="6" operator="lessThan" id="{4450EF7F-21F8-49CE-997B-29E1FC11CA18}">
+            <xm:f>metadata!$B$42</xm:f>
+            <x14:dxf>
+              <font>
+                <b/>
+                <i val="0"/>
+                <color theme="1" tint="0.24994659260841701"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFFF00"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="7" operator="lessThan" id="{8CEED713-779A-472E-8811-79BDAFF0C21A}">
+            <xm:f>metadata!$B$43</xm:f>
+            <x14:dxf>
+              <font>
+                <b/>
+                <i val="0"/>
+                <color theme="1" tint="0.24994659260841701"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF92D050"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="8" operator="greaterThanOrEqual" id="{8B549665-93EE-43BA-B8A6-702FB59917BE}">
+            <xm:f>metadata!$B$43</xm:f>
+            <x14:dxf>
+              <font>
+                <b/>
+                <i val="0"/>
+                <color theme="0"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="9"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>P13:S18</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -3586,13 +10537,13 @@
           <x14:formula1>
             <xm:f>metadata!$B$4:$B$9</xm:f>
           </x14:formula1>
-          <xm:sqref>E5 E12:E17</xm:sqref>
+          <xm:sqref>F6 F15:F18 F13</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{71FF1A0F-39C6-4406-8BB2-4E5C78D18ED3}">
           <x14:formula1>
             <xm:f>metadata!$B$13:$B$20</xm:f>
           </x14:formula1>
-          <xm:sqref>G5 G12:G17</xm:sqref>
+          <xm:sqref>H6 H13:H18</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -3604,8 +10555,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19516C02-D26E-4E50-92D5-1B313BC98CB6}">
   <dimension ref="B2:AB63"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3632,7 +10583,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E2" s="19" t="s">
         <v>12</v>
@@ -3654,7 +10605,7 @@
       <c r="B3" s="18"/>
       <c r="C3" s="11"/>
       <c r="D3" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E3" s="13" t="s">
         <v>13</v>
@@ -3663,7 +10614,7 @@
         <v>11</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H3" s="13" t="s">
         <v>15</v>
@@ -3868,7 +10819,7 @@
         <v>2</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H12" s="2"/>
     </row>
@@ -3940,35 +10891,35 @@
       <c r="C20" s="13">
         <v>14</v>
       </c>
-      <c r="M20" s="100" t="s">
-        <v>66</v>
-      </c>
-      <c r="N20" s="49"/>
-      <c r="O20" s="49"/>
+      <c r="M20" s="117" t="s">
+        <v>61</v>
+      </c>
+      <c r="N20" s="44"/>
+      <c r="O20" s="44"/>
     </row>
     <row r="21" spans="2:27" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="M21" s="100"/>
-      <c r="N21" s="49"/>
-      <c r="O21" s="51"/>
+      <c r="M21" s="117"/>
+      <c r="N21" s="44"/>
+      <c r="O21" s="46"/>
     </row>
     <row r="22" spans="2:27" x14ac:dyDescent="0.35">
-      <c r="M22" s="100"/>
-      <c r="N22" s="49"/>
-      <c r="O22" s="51"/>
-      <c r="P22" s="119"/>
-      <c r="Q22" s="120"/>
-      <c r="R22" s="110"/>
-      <c r="S22" s="111"/>
-      <c r="T22" s="102"/>
-      <c r="U22" s="103"/>
-      <c r="V22" s="140"/>
-      <c r="W22" s="141"/>
-      <c r="X22" s="131" t="s">
-        <v>61</v>
-      </c>
-      <c r="Y22" s="132"/>
-      <c r="Z22" s="132"/>
-      <c r="AA22" s="133"/>
+      <c r="M22" s="117"/>
+      <c r="N22" s="44"/>
+      <c r="O22" s="46"/>
+      <c r="P22" s="112"/>
+      <c r="Q22" s="113"/>
+      <c r="R22" s="103"/>
+      <c r="S22" s="104"/>
+      <c r="T22" s="118"/>
+      <c r="U22" s="100"/>
+      <c r="V22" s="89"/>
+      <c r="W22" s="90"/>
+      <c r="X22" s="79" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y22" s="80"/>
+      <c r="Z22" s="80"/>
+      <c r="AA22" s="81"/>
     </row>
     <row r="23" spans="2:27" x14ac:dyDescent="0.35">
       <c r="B23" s="18" t="s">
@@ -3980,21 +10931,21 @@
       <c r="D23" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="M23" s="100"/>
-      <c r="N23" s="49"/>
-      <c r="O23" s="51"/>
-      <c r="P23" s="121"/>
-      <c r="Q23" s="122"/>
-      <c r="R23" s="112"/>
-      <c r="S23" s="113"/>
-      <c r="T23" s="104"/>
-      <c r="U23" s="105"/>
-      <c r="V23" s="142"/>
-      <c r="W23" s="143"/>
-      <c r="X23" s="134"/>
-      <c r="Y23" s="135"/>
-      <c r="Z23" s="135"/>
-      <c r="AA23" s="136"/>
+      <c r="M23" s="117"/>
+      <c r="N23" s="44"/>
+      <c r="O23" s="46"/>
+      <c r="P23" s="114"/>
+      <c r="Q23" s="115"/>
+      <c r="R23" s="105"/>
+      <c r="S23" s="106"/>
+      <c r="T23" s="119"/>
+      <c r="U23" s="102"/>
+      <c r="V23" s="91"/>
+      <c r="W23" s="92"/>
+      <c r="X23" s="82"/>
+      <c r="Y23" s="83"/>
+      <c r="Z23" s="83"/>
+      <c r="AA23" s="84"/>
     </row>
     <row r="24" spans="2:27" x14ac:dyDescent="0.35">
       <c r="B24" s="18" t="s">
@@ -4006,21 +10957,21 @@
       <c r="D24" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="M24" s="100"/>
-      <c r="N24" s="49"/>
-      <c r="O24" s="51"/>
-      <c r="P24" s="121"/>
-      <c r="Q24" s="122"/>
-      <c r="R24" s="112"/>
-      <c r="S24" s="113"/>
-      <c r="T24" s="104"/>
-      <c r="U24" s="105"/>
-      <c r="V24" s="142"/>
-      <c r="W24" s="143"/>
-      <c r="X24" s="134"/>
-      <c r="Y24" s="135"/>
-      <c r="Z24" s="135"/>
-      <c r="AA24" s="136"/>
+      <c r="M24" s="117"/>
+      <c r="N24" s="44"/>
+      <c r="O24" s="46"/>
+      <c r="P24" s="114"/>
+      <c r="Q24" s="115"/>
+      <c r="R24" s="105"/>
+      <c r="S24" s="106"/>
+      <c r="T24" s="119"/>
+      <c r="U24" s="102"/>
+      <c r="V24" s="91"/>
+      <c r="W24" s="92"/>
+      <c r="X24" s="82"/>
+      <c r="Y24" s="83"/>
+      <c r="Z24" s="83"/>
+      <c r="AA24" s="84"/>
     </row>
     <row r="25" spans="2:27" x14ac:dyDescent="0.35">
       <c r="B25" s="18" t="s">
@@ -4032,21 +10983,21 @@
       <c r="D25" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="M25" s="100"/>
-      <c r="N25" s="49"/>
-      <c r="O25" s="51"/>
-      <c r="P25" s="121"/>
-      <c r="Q25" s="122"/>
-      <c r="R25" s="112"/>
-      <c r="S25" s="113"/>
-      <c r="T25" s="104"/>
-      <c r="U25" s="105"/>
-      <c r="V25" s="142"/>
-      <c r="W25" s="143"/>
-      <c r="X25" s="134"/>
-      <c r="Y25" s="135"/>
-      <c r="Z25" s="135"/>
-      <c r="AA25" s="136"/>
+      <c r="M25" s="117"/>
+      <c r="N25" s="44"/>
+      <c r="O25" s="46"/>
+      <c r="P25" s="114"/>
+      <c r="Q25" s="115"/>
+      <c r="R25" s="105"/>
+      <c r="S25" s="106"/>
+      <c r="T25" s="119"/>
+      <c r="U25" s="102"/>
+      <c r="V25" s="91"/>
+      <c r="W25" s="92"/>
+      <c r="X25" s="82"/>
+      <c r="Y25" s="83"/>
+      <c r="Z25" s="83"/>
+      <c r="AA25" s="84"/>
     </row>
     <row r="26" spans="2:27" x14ac:dyDescent="0.35">
       <c r="B26" s="18" t="s">
@@ -4058,95 +11009,95 @@
       <c r="D26" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="M26" s="100"/>
-      <c r="N26" s="49"/>
-      <c r="O26" s="51"/>
-      <c r="P26" s="121"/>
-      <c r="Q26" s="122"/>
-      <c r="R26" s="112"/>
-      <c r="S26" s="113"/>
-      <c r="T26" s="104"/>
-      <c r="U26" s="105"/>
-      <c r="V26" s="142"/>
-      <c r="W26" s="143"/>
-      <c r="X26" s="134"/>
-      <c r="Y26" s="135"/>
-      <c r="Z26" s="135"/>
-      <c r="AA26" s="136"/>
+      <c r="M26" s="117"/>
+      <c r="N26" s="44"/>
+      <c r="O26" s="46"/>
+      <c r="P26" s="114"/>
+      <c r="Q26" s="115"/>
+      <c r="R26" s="105"/>
+      <c r="S26" s="106"/>
+      <c r="T26" s="119"/>
+      <c r="U26" s="102"/>
+      <c r="V26" s="91"/>
+      <c r="W26" s="92"/>
+      <c r="X26" s="82"/>
+      <c r="Y26" s="83"/>
+      <c r="Z26" s="83"/>
+      <c r="AA26" s="84"/>
     </row>
     <row r="27" spans="2:27" x14ac:dyDescent="0.35">
       <c r="M27" s="98">
         <f>B43</f>
         <v>5</v>
       </c>
-      <c r="N27" s="50"/>
-      <c r="O27" s="53"/>
-      <c r="P27" s="121"/>
-      <c r="Q27" s="122"/>
-      <c r="R27" s="112"/>
-      <c r="S27" s="113"/>
-      <c r="T27" s="104"/>
-      <c r="U27" s="105"/>
-      <c r="V27" s="142"/>
-      <c r="W27" s="143"/>
-      <c r="X27" s="137"/>
-      <c r="Y27" s="138"/>
-      <c r="Z27" s="138"/>
-      <c r="AA27" s="139"/>
+      <c r="N27" s="45"/>
+      <c r="O27" s="48"/>
+      <c r="P27" s="114"/>
+      <c r="Q27" s="115"/>
+      <c r="R27" s="105"/>
+      <c r="S27" s="106"/>
+      <c r="T27" s="119"/>
+      <c r="U27" s="102"/>
+      <c r="V27" s="91"/>
+      <c r="W27" s="92"/>
+      <c r="X27" s="85"/>
+      <c r="Y27" s="86"/>
+      <c r="Z27" s="86"/>
+      <c r="AA27" s="87"/>
     </row>
     <row r="28" spans="2:27" x14ac:dyDescent="0.35">
-      <c r="B28" s="130" t="s">
-        <v>37</v>
-      </c>
-      <c r="C28" s="130"/>
-      <c r="D28" s="130"/>
+      <c r="B28" s="78" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28" s="78"/>
+      <c r="D28" s="78"/>
       <c r="M28" s="98"/>
-      <c r="N28" s="96"/>
-      <c r="O28" s="95"/>
-      <c r="P28" s="121"/>
-      <c r="Q28" s="122"/>
-      <c r="R28" s="112"/>
-      <c r="S28" s="113"/>
-      <c r="T28" s="104"/>
-      <c r="U28" s="105"/>
-      <c r="V28" s="142" t="s">
-        <v>60</v>
-      </c>
-      <c r="W28" s="147"/>
-      <c r="X28" s="144"/>
-      <c r="Y28" s="144"/>
-      <c r="Z28" s="144"/>
-      <c r="AA28" s="141"/>
+      <c r="N28" s="130"/>
+      <c r="O28" s="129"/>
+      <c r="P28" s="114"/>
+      <c r="Q28" s="115"/>
+      <c r="R28" s="105"/>
+      <c r="S28" s="106"/>
+      <c r="T28" s="119"/>
+      <c r="U28" s="102"/>
+      <c r="V28" s="91" t="s">
+        <v>55</v>
+      </c>
+      <c r="W28" s="96"/>
+      <c r="X28" s="93"/>
+      <c r="Y28" s="93"/>
+      <c r="Z28" s="93"/>
+      <c r="AA28" s="90"/>
     </row>
     <row r="29" spans="2:27" x14ac:dyDescent="0.35">
       <c r="B29" s="19" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C29" s="14"/>
       <c r="D29" s="21" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G29" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="M29" s="98">
         <f>B42</f>
         <v>0</v>
       </c>
-      <c r="N29" s="96"/>
-      <c r="O29" s="95"/>
-      <c r="P29" s="121"/>
-      <c r="Q29" s="122"/>
-      <c r="R29" s="112"/>
-      <c r="S29" s="113"/>
-      <c r="T29" s="104"/>
-      <c r="U29" s="105"/>
-      <c r="V29" s="148"/>
-      <c r="W29" s="145"/>
-      <c r="X29" s="145"/>
-      <c r="Y29" s="145"/>
-      <c r="Z29" s="145"/>
-      <c r="AA29" s="146"/>
+      <c r="N29" s="130"/>
+      <c r="O29" s="129"/>
+      <c r="P29" s="114"/>
+      <c r="Q29" s="115"/>
+      <c r="R29" s="105"/>
+      <c r="S29" s="106"/>
+      <c r="T29" s="119"/>
+      <c r="U29" s="102"/>
+      <c r="V29" s="97"/>
+      <c r="W29" s="94"/>
+      <c r="X29" s="94"/>
+      <c r="Y29" s="94"/>
+      <c r="Z29" s="94"/>
+      <c r="AA29" s="95"/>
     </row>
     <row r="30" spans="2:27" x14ac:dyDescent="0.35">
       <c r="B30" s="23">
@@ -4157,34 +11108,34 @@
         <v>&lt; -125</v>
       </c>
       <c r="D30" s="29" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E30" t="s">
+        <v>49</v>
+      </c>
+      <c r="F30" t="s">
         <v>52</v>
       </c>
-      <c r="F30" t="s">
-        <v>55</v>
-      </c>
       <c r="G30" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="M30" s="98"/>
-      <c r="N30" s="96"/>
-      <c r="O30" s="95"/>
-      <c r="P30" s="121"/>
-      <c r="Q30" s="122"/>
-      <c r="R30" s="112"/>
-      <c r="S30" s="113"/>
-      <c r="T30" s="106" t="s">
-        <v>63</v>
-      </c>
-      <c r="U30" s="107"/>
-      <c r="V30" s="108"/>
-      <c r="W30" s="108"/>
-      <c r="X30" s="108"/>
-      <c r="Y30" s="108"/>
-      <c r="Z30" s="108"/>
-      <c r="AA30" s="103"/>
+      <c r="N30" s="130"/>
+      <c r="O30" s="129"/>
+      <c r="P30" s="114"/>
+      <c r="Q30" s="115"/>
+      <c r="R30" s="105"/>
+      <c r="S30" s="106"/>
+      <c r="T30" s="120" t="s">
+        <v>58</v>
+      </c>
+      <c r="U30" s="121"/>
+      <c r="V30" s="99"/>
+      <c r="W30" s="99"/>
+      <c r="X30" s="99"/>
+      <c r="Y30" s="99"/>
+      <c r="Z30" s="99"/>
+      <c r="AA30" s="100"/>
     </row>
     <row r="31" spans="2:27" x14ac:dyDescent="0.35">
       <c r="B31" s="23">
@@ -4195,35 +11146,35 @@
         <v>range -115 … -125</v>
       </c>
       <c r="D31" s="28" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E31" t="s">
+        <v>48</v>
+      </c>
+      <c r="F31" t="s">
         <v>51</v>
       </c>
-      <c r="F31" t="s">
-        <v>54</v>
-      </c>
       <c r="G31" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="M31" s="98">
         <f>B41</f>
         <v>-7</v>
       </c>
-      <c r="N31" s="96"/>
-      <c r="O31" s="95"/>
-      <c r="P31" s="121"/>
-      <c r="Q31" s="122"/>
-      <c r="R31" s="112"/>
-      <c r="S31" s="113"/>
-      <c r="T31" s="106"/>
-      <c r="U31" s="107"/>
-      <c r="V31" s="109"/>
-      <c r="W31" s="109"/>
-      <c r="X31" s="109"/>
-      <c r="Y31" s="109"/>
-      <c r="Z31" s="109"/>
-      <c r="AA31" s="105"/>
+      <c r="N31" s="130"/>
+      <c r="O31" s="129"/>
+      <c r="P31" s="114"/>
+      <c r="Q31" s="115"/>
+      <c r="R31" s="105"/>
+      <c r="S31" s="106"/>
+      <c r="T31" s="120"/>
+      <c r="U31" s="121"/>
+      <c r="V31" s="101"/>
+      <c r="W31" s="101"/>
+      <c r="X31" s="101"/>
+      <c r="Y31" s="101"/>
+      <c r="Z31" s="101"/>
+      <c r="AA31" s="102"/>
     </row>
     <row r="32" spans="2:27" x14ac:dyDescent="0.35">
       <c r="B32" s="23">
@@ -4234,34 +11185,34 @@
         <v>range -100 … -115</v>
       </c>
       <c r="D32" s="27" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E32" t="s">
+        <v>47</v>
+      </c>
+      <c r="F32" t="s">
         <v>50</v>
       </c>
-      <c r="F32" t="s">
-        <v>53</v>
-      </c>
       <c r="G32" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="M32" s="98"/>
-      <c r="N32" s="96"/>
-      <c r="O32" s="95"/>
-      <c r="P32" s="121"/>
-      <c r="Q32" s="122"/>
-      <c r="R32" s="114" t="s">
-        <v>64</v>
-      </c>
-      <c r="S32" s="115"/>
-      <c r="T32" s="116"/>
-      <c r="U32" s="116"/>
-      <c r="V32" s="116"/>
-      <c r="W32" s="116"/>
-      <c r="X32" s="116"/>
-      <c r="Y32" s="116"/>
-      <c r="Z32" s="116"/>
-      <c r="AA32" s="117"/>
+      <c r="N32" s="130"/>
+      <c r="O32" s="129"/>
+      <c r="P32" s="114"/>
+      <c r="Q32" s="115"/>
+      <c r="R32" s="107" t="s">
+        <v>59</v>
+      </c>
+      <c r="S32" s="108"/>
+      <c r="T32" s="109"/>
+      <c r="U32" s="109"/>
+      <c r="V32" s="109"/>
+      <c r="W32" s="109"/>
+      <c r="X32" s="109"/>
+      <c r="Y32" s="109"/>
+      <c r="Z32" s="109"/>
+      <c r="AA32" s="110"/>
     </row>
     <row r="33" spans="2:28" x14ac:dyDescent="0.35">
       <c r="B33" s="23">
@@ -4272,13 +11223,13 @@
         <v>range -90 … -100</v>
       </c>
       <c r="D33" s="26" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E33" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G33" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="K33" s="98" t="str">
         <f>D4&amp;"(SF7) to "&amp;D9&amp;" (SF12)"</f>
@@ -4286,20 +11237,20 @@
       </c>
       <c r="L33" s="98"/>
       <c r="M33" s="98"/>
-      <c r="N33" s="96"/>
-      <c r="O33" s="95"/>
-      <c r="P33" s="121"/>
-      <c r="Q33" s="122"/>
-      <c r="R33" s="114"/>
-      <c r="S33" s="115"/>
-      <c r="T33" s="115"/>
-      <c r="U33" s="115"/>
-      <c r="V33" s="115"/>
-      <c r="W33" s="115"/>
-      <c r="X33" s="115"/>
-      <c r="Y33" s="115"/>
-      <c r="Z33" s="115"/>
-      <c r="AA33" s="118"/>
+      <c r="N33" s="130"/>
+      <c r="O33" s="129"/>
+      <c r="P33" s="114"/>
+      <c r="Q33" s="115"/>
+      <c r="R33" s="107"/>
+      <c r="S33" s="108"/>
+      <c r="T33" s="108"/>
+      <c r="U33" s="108"/>
+      <c r="V33" s="108"/>
+      <c r="W33" s="108"/>
+      <c r="X33" s="108"/>
+      <c r="Y33" s="108"/>
+      <c r="Z33" s="108"/>
+      <c r="AA33" s="111"/>
     </row>
     <row r="34" spans="2:28" x14ac:dyDescent="0.35">
       <c r="B34" s="22" t="str">
@@ -4311,131 +11262,131 @@
         <v>&gt; -90</v>
       </c>
       <c r="D34" s="25" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E34" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G34" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="K34" s="98"/>
       <c r="L34" s="98"/>
       <c r="M34" s="98"/>
-      <c r="N34" s="96"/>
-      <c r="O34" s="95"/>
-      <c r="P34" s="123" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q34" s="124"/>
-      <c r="R34" s="127"/>
-      <c r="S34" s="127"/>
-      <c r="T34" s="127"/>
-      <c r="U34" s="127"/>
-      <c r="V34" s="127"/>
-      <c r="W34" s="127"/>
-      <c r="X34" s="127"/>
-      <c r="Y34" s="127"/>
-      <c r="Z34" s="127"/>
-      <c r="AA34" s="120"/>
+      <c r="N34" s="130"/>
+      <c r="O34" s="129"/>
+      <c r="P34" s="122" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q34" s="123"/>
+      <c r="R34" s="126"/>
+      <c r="S34" s="126"/>
+      <c r="T34" s="126"/>
+      <c r="U34" s="126"/>
+      <c r="V34" s="126"/>
+      <c r="W34" s="126"/>
+      <c r="X34" s="126"/>
+      <c r="Y34" s="126"/>
+      <c r="Z34" s="126"/>
+      <c r="AA34" s="113"/>
     </row>
     <row r="35" spans="2:28" x14ac:dyDescent="0.35">
-      <c r="B35" s="46"/>
-      <c r="C35" s="46"/>
-      <c r="D35" s="55"/>
-      <c r="K35" s="99"/>
-      <c r="L35" s="99"/>
-      <c r="M35" s="99"/>
-      <c r="N35" s="97"/>
-      <c r="O35" s="95"/>
-      <c r="P35" s="125"/>
-      <c r="Q35" s="126"/>
-      <c r="R35" s="128"/>
-      <c r="S35" s="128"/>
-      <c r="T35" s="128"/>
-      <c r="U35" s="128"/>
-      <c r="V35" s="128"/>
-      <c r="W35" s="128"/>
-      <c r="X35" s="128"/>
-      <c r="Y35" s="128"/>
-      <c r="Z35" s="128"/>
-      <c r="AA35" s="129"/>
+      <c r="B35" s="41"/>
+      <c r="C35" s="41"/>
+      <c r="D35" s="50"/>
+      <c r="K35" s="116"/>
+      <c r="L35" s="116"/>
+      <c r="M35" s="116"/>
+      <c r="N35" s="131"/>
+      <c r="O35" s="129"/>
+      <c r="P35" s="124"/>
+      <c r="Q35" s="125"/>
+      <c r="R35" s="127"/>
+      <c r="S35" s="127"/>
+      <c r="T35" s="127"/>
+      <c r="U35" s="127"/>
+      <c r="V35" s="127"/>
+      <c r="W35" s="127"/>
+      <c r="X35" s="127"/>
+      <c r="Y35" s="127"/>
+      <c r="Z35" s="127"/>
+      <c r="AA35" s="128"/>
     </row>
     <row r="36" spans="2:28" ht="7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="46"/>
-      <c r="C36" s="46"/>
-      <c r="D36" s="55"/>
-      <c r="N36" s="52"/>
-      <c r="O36" s="92"/>
-      <c r="P36" s="93"/>
-      <c r="Q36" s="93"/>
-      <c r="R36" s="94"/>
-      <c r="S36" s="94"/>
-      <c r="T36" s="94"/>
-      <c r="U36" s="94"/>
-      <c r="V36" s="94"/>
-      <c r="W36" s="94"/>
-      <c r="X36" s="94"/>
-      <c r="Y36" s="94"/>
-      <c r="Z36" s="94"/>
-      <c r="AA36" s="94"/>
-      <c r="AB36" s="48"/>
+      <c r="B36" s="41"/>
+      <c r="C36" s="41"/>
+      <c r="D36" s="50"/>
+      <c r="N36" s="47"/>
+      <c r="O36" s="132"/>
+      <c r="P36" s="133"/>
+      <c r="Q36" s="133"/>
+      <c r="R36" s="134"/>
+      <c r="S36" s="134"/>
+      <c r="T36" s="134"/>
+      <c r="U36" s="134"/>
+      <c r="V36" s="134"/>
+      <c r="W36" s="134"/>
+      <c r="X36" s="134"/>
+      <c r="Y36" s="134"/>
+      <c r="Z36" s="134"/>
+      <c r="AA36" s="134"/>
+      <c r="AB36" s="43"/>
     </row>
     <row r="37" spans="2:28" ht="7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="O37" s="88"/>
-      <c r="P37" s="88"/>
-      <c r="Q37" s="89"/>
-      <c r="R37" s="90"/>
-      <c r="S37" s="90"/>
-      <c r="T37" s="90"/>
-      <c r="U37" s="90"/>
-      <c r="V37" s="90"/>
-      <c r="W37" s="90"/>
-      <c r="X37" s="90"/>
-      <c r="Y37" s="90"/>
-      <c r="Z37" s="90"/>
-      <c r="AA37" s="91"/>
-      <c r="AB37" s="54"/>
+      <c r="O37" s="135"/>
+      <c r="P37" s="135"/>
+      <c r="Q37" s="136"/>
+      <c r="R37" s="137"/>
+      <c r="S37" s="137"/>
+      <c r="T37" s="137"/>
+      <c r="U37" s="137"/>
+      <c r="V37" s="137"/>
+      <c r="W37" s="137"/>
+      <c r="X37" s="137"/>
+      <c r="Y37" s="137"/>
+      <c r="Z37" s="137"/>
+      <c r="AA37" s="138"/>
+      <c r="AB37" s="49"/>
     </row>
     <row r="38" spans="2:28" x14ac:dyDescent="0.35">
-      <c r="B38" s="130" t="s">
-        <v>38</v>
-      </c>
-      <c r="C38" s="130"/>
-      <c r="D38" s="130"/>
-      <c r="Q38" s="101">
+      <c r="B38" s="78" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38" s="78"/>
+      <c r="D38" s="78"/>
+      <c r="Q38" s="88">
         <f>B30</f>
         <v>-125</v>
       </c>
-      <c r="R38" s="101"/>
-      <c r="S38" s="101">
+      <c r="R38" s="88"/>
+      <c r="S38" s="88">
         <f>B31</f>
         <v>-115</v>
       </c>
-      <c r="T38" s="101"/>
-      <c r="U38" s="101">
+      <c r="T38" s="88"/>
+      <c r="U38" s="88">
         <f>B32</f>
         <v>-100</v>
       </c>
-      <c r="V38" s="101"/>
-      <c r="W38" s="101">
+      <c r="V38" s="88"/>
+      <c r="W38" s="88">
         <f>B33</f>
         <v>-90</v>
       </c>
-      <c r="X38" s="101"/>
-      <c r="Y38" s="47" t="s">
-        <v>62</v>
+      <c r="X38" s="88"/>
+      <c r="Y38" s="42" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="39" spans="2:28" x14ac:dyDescent="0.35">
       <c r="B39" s="19" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D39" s="21" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="40" spans="2:28" x14ac:dyDescent="0.35">
@@ -4447,18 +11398,18 @@
         <v>&lt; -15</v>
       </c>
       <c r="D40" s="29" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E40" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G40" t="s">
-        <v>71</v>
-      </c>
-      <c r="AB40" s="47"/>
+        <v>66</v>
+      </c>
+      <c r="AB40" s="42"/>
     </row>
     <row r="41" spans="2:28" x14ac:dyDescent="0.35">
       <c r="B41" s="23">
@@ -4469,16 +11420,16 @@
         <v>range -7 … -15</v>
       </c>
       <c r="D41" s="28" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E41" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="F41" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G41" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="42" spans="2:28" x14ac:dyDescent="0.35">
@@ -4490,16 +11441,16 @@
         <v>range 0 … -7</v>
       </c>
       <c r="D42" s="27" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F42" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G42" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="43" spans="2:28" x14ac:dyDescent="0.35">
@@ -4511,10 +11462,10 @@
         <v>range 5 … 0</v>
       </c>
       <c r="D43" s="26" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E43" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="44" spans="2:28" x14ac:dyDescent="0.35">
@@ -4524,16 +11475,43 @@
         <v>&gt; 5</v>
       </c>
       <c r="D44" s="25" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E44" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="62" ht="6.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="63" ht="6.5" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="43">
+    <mergeCell ref="T36:U36"/>
+    <mergeCell ref="V36:W36"/>
+    <mergeCell ref="X36:AA36"/>
+    <mergeCell ref="O37:Q37"/>
+    <mergeCell ref="R37:S37"/>
+    <mergeCell ref="T37:U37"/>
+    <mergeCell ref="V37:W37"/>
+    <mergeCell ref="X37:AA37"/>
+    <mergeCell ref="T22:U29"/>
+    <mergeCell ref="T30:U31"/>
+    <mergeCell ref="P34:Q35"/>
+    <mergeCell ref="R34:AA35"/>
+    <mergeCell ref="O28:O29"/>
+    <mergeCell ref="O30:O31"/>
+    <mergeCell ref="O32:O33"/>
+    <mergeCell ref="O34:O35"/>
+    <mergeCell ref="P22:Q33"/>
+    <mergeCell ref="K33:M34"/>
+    <mergeCell ref="K35:M35"/>
+    <mergeCell ref="M20:M26"/>
+    <mergeCell ref="Q38:R38"/>
+    <mergeCell ref="N28:N29"/>
+    <mergeCell ref="N30:N31"/>
+    <mergeCell ref="N32:N33"/>
+    <mergeCell ref="N34:N35"/>
+    <mergeCell ref="O36:Q36"/>
+    <mergeCell ref="R36:S36"/>
     <mergeCell ref="B28:D28"/>
     <mergeCell ref="B38:D38"/>
     <mergeCell ref="X22:AA27"/>
@@ -4550,33 +11528,6 @@
     <mergeCell ref="R22:S31"/>
     <mergeCell ref="R32:S33"/>
     <mergeCell ref="T32:AA33"/>
-    <mergeCell ref="P22:Q33"/>
-    <mergeCell ref="K33:M34"/>
-    <mergeCell ref="K35:M35"/>
-    <mergeCell ref="M20:M26"/>
-    <mergeCell ref="Q38:R38"/>
-    <mergeCell ref="T22:U29"/>
-    <mergeCell ref="T30:U31"/>
-    <mergeCell ref="P34:Q35"/>
-    <mergeCell ref="R34:AA35"/>
-    <mergeCell ref="O28:O29"/>
-    <mergeCell ref="O30:O31"/>
-    <mergeCell ref="O32:O33"/>
-    <mergeCell ref="O34:O35"/>
-    <mergeCell ref="N28:N29"/>
-    <mergeCell ref="N30:N31"/>
-    <mergeCell ref="N32:N33"/>
-    <mergeCell ref="N34:N35"/>
-    <mergeCell ref="O36:Q36"/>
-    <mergeCell ref="R36:S36"/>
-    <mergeCell ref="T36:U36"/>
-    <mergeCell ref="V36:W36"/>
-    <mergeCell ref="X36:AA36"/>
-    <mergeCell ref="O37:Q37"/>
-    <mergeCell ref="R37:S37"/>
-    <mergeCell ref="T37:U37"/>
-    <mergeCell ref="V37:W37"/>
-    <mergeCell ref="X37:AA37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
